--- a/Questions/English/Popular 1000.xlsx
+++ b/Questions/English/Popular 1000.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
   <si>
     <t>Id</t>
   </si>
@@ -59,6 +59,15 @@
   </si>
   <si>
     <t>and</t>
+  </si>
+  <si>
+    <t>בסופו של דבר f*****</t>
+  </si>
+  <si>
+    <t>finally</t>
+  </si>
+  <si>
+    <t>19/01/21</t>
   </si>
 </sst>
 </file>
@@ -520,7 +529,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="D5" pane="bottomLeft" sqref="D5"/>
+      <selection activeCell="A6" pane="bottomLeft" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
@@ -620,9 +629,25 @@
       </c>
     </row>
     <row customHeight="1" ht="27.65" r="5" spans="1:7">
-      <c r="D5" s="6" t="n"/>
-      <c r="E5" s="9" t="n"/>
+      <c r="A5" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>16</v>
+      </c>
       <c r="F5" s="9" t="n"/>
+      <c r="G5" s="11" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row customHeight="1" ht="27.65" r="6" spans="1:7">
       <c r="D6" s="6" t="n"/>

--- a/Questions/English/Popular 1000.xlsx
+++ b/Questions/English/Popular 1000.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
   <si>
     <t>Id</t>
   </si>
@@ -68,6 +68,81 @@
   </si>
   <si>
     <t>19/01/21</t>
+  </si>
+  <si>
+    <t>זה *i</t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>20/01/21</t>
+  </si>
+  <si>
+    <t>זה *i**</t>
+  </si>
+  <si>
+    <t>this</t>
+  </si>
+  <si>
+    <t>זה *a**</t>
+  </si>
+  <si>
+    <t>that</t>
+  </si>
+  <si>
+    <t>אלה **e**</t>
+  </si>
+  <si>
+    <t>these</t>
+  </si>
+  <si>
+    <t>אלה **o**</t>
+  </si>
+  <si>
+    <t>those</t>
+  </si>
+  <si>
+    <t>של</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>ל</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>בתוך *i</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>22/01/21</t>
+  </si>
+  <si>
+    <t>בתוך ****i*</t>
+  </si>
+  <si>
+    <t>within</t>
+  </si>
+  <si>
+    <t>בתוך i*****</t>
+  </si>
+  <si>
+    <t>inside</t>
+  </si>
+  <si>
+    <t>אני</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>23/01/21</t>
   </si>
 </sst>
 </file>
@@ -525,11 +600,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="A6" pane="bottomLeft" sqref="A6"/>
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A6" ySplit="1"/>
+      <selection activeCell="G17" pane="bottomLeft" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
@@ -650,15 +725,228 @@
       </c>
     </row>
     <row customHeight="1" ht="27.65" r="6" spans="1:7">
-      <c r="D6" s="6" t="n"/>
-      <c r="E6" s="6" t="n"/>
+      <c r="A6" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="F6" s="6" t="n"/>
+      <c r="G6" s="11" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="D7" s="6" t="n"/>
-      <c r="E7" s="6" t="n"/>
+      <c r="A7" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="F7" s="6" t="n"/>
-    </row>
+      <c r="G7" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule priority="3" type="colorScale">

--- a/Questions/English/Popular 1000.xlsx
+++ b/Questions/English/Popular 1000.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\myq\Questions\English\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E44BF48F-9CF8-4AF8-A74B-5E00892BDD15}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12580" windowWidth="23260" xWindow="-110" yWindow="-110"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="45">
   <si>
     <t>Id</t>
   </si>
@@ -143,35 +149,41 @@
   </si>
   <si>
     <t>23/01/21</t>
+  </si>
+  <si>
+    <t>אתה</t>
+  </si>
+  <si>
+    <t>you</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="0"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -285,51 +297,60 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -595,29 +616,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A6" ySplit="1"/>
-      <selection activeCell="G17" pane="bottomLeft" sqref="G17"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="3.36328125"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.08984375"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.1796875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.81640625"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.7265625"/>
-    <col customWidth="1" max="7" min="7" style="11" width="12.6328125"/>
+    <col min="1" max="1" width="3.36328125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="3.08984375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="2.1796875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="37.81640625" style="5" customWidth="1"/>
+    <col min="5" max="6" width="23.7265625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" spans="1:7" thickBot="1">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -640,11 +657,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8" t="n">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8">
         <v>1</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -656,16 +673,16 @@
       <c r="E2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="6" t="n"/>
+      <c r="F2" s="6"/>
       <c r="G2" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.65" r="3" spans="1:7">
-      <c r="A3" s="3" t="n">
+    <row r="3" spans="1:7" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="n">
+      <c r="B3" s="8">
         <v>1</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -677,16 +694,16 @@
       <c r="E3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="6" t="n"/>
+      <c r="F3" s="6"/>
       <c r="G3" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.65" r="4" spans="1:7">
-      <c r="A4" s="3" t="n">
+    <row r="4" spans="1:7" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="n">
+      <c r="B4" s="8">
         <v>1</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -698,16 +715,16 @@
       <c r="E4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="9" t="n"/>
+      <c r="F4" s="9"/>
       <c r="G4" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.65" r="5" spans="1:7">
-      <c r="A5" s="3" t="n">
+    <row r="5" spans="1:7" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="n">
+      <c r="B5" s="8">
         <v>1</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -719,16 +736,16 @@
       <c r="E5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="9" t="n"/>
+      <c r="F5" s="9"/>
       <c r="G5" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.65" r="6" spans="1:7">
-      <c r="A6" s="3" t="n">
+    <row r="6" spans="1:7" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="n">
+      <c r="B6" s="8">
         <v>1</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -740,16 +757,16 @@
       <c r="E6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="6" t="n"/>
+      <c r="F6" s="6"/>
       <c r="G6" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="3" t="n">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="n">
+      <c r="B7" s="8">
         <v>1</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -761,16 +778,16 @@
       <c r="E7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="6" t="n"/>
+      <c r="F7" s="6"/>
       <c r="G7" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="8" t="n">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8">
         <v>1</v>
       </c>
       <c r="C8" s="8" t="s">
@@ -786,11 +803,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="3" t="n">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="n">
+      <c r="B9" s="8">
         <v>1</v>
       </c>
       <c r="C9" s="8" t="s">
@@ -806,11 +823,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="3" t="n">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="8" t="n">
+      <c r="B10" s="8">
         <v>1</v>
       </c>
       <c r="C10" s="8" t="s">
@@ -826,11 +843,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="3" t="n">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="8" t="n">
+      <c r="B11" s="8">
         <v>1</v>
       </c>
       <c r="C11" s="8" t="s">
@@ -846,11 +863,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="3" t="n">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="8" t="n">
+      <c r="B12" s="8">
         <v>1</v>
       </c>
       <c r="C12" s="8" t="s">
@@ -866,11 +883,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="3" t="n">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="8" t="n">
+      <c r="B13" s="8">
         <v>1</v>
       </c>
       <c r="C13" s="8" t="s">
@@ -886,11 +903,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="3" t="n">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="8" t="n">
+      <c r="B14" s="8">
         <v>1</v>
       </c>
       <c r="C14" s="8" t="s">
@@ -906,11 +923,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="3" t="n">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="8" t="n">
+      <c r="B15" s="8">
         <v>1</v>
       </c>
       <c r="C15" s="8" t="s">
@@ -926,11 +943,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="3" t="n">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="8" t="n">
+      <c r="B16" s="8">
         <v>1</v>
       </c>
       <c r="C16" s="8" t="s">
@@ -946,10 +963,29 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:7"/>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8">
+        <v>1</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -961,7 +997,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -973,7 +1009,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -984,7 +1020,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/Questions/English/Popular 1000.xlsx
+++ b/Questions/English/Popular 1000.xlsx
@@ -15,9 +15,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Arial"/>
@@ -182,14 +180,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -466,11 +464,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
@@ -480,7 +478,7 @@
     <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
     <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
     <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="11" min="7" max="7"/>
+    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
@@ -509,12 +507,12 @@
           <t>Right Answer</t>
         </is>
       </c>
-      <c r="F1" s="12" t="inlineStr">
+      <c r="F1" s="10" t="inlineStr">
         <is>
           <t>Wrong Answer</t>
         </is>
       </c>
-      <c r="G1" s="10" t="inlineStr">
+      <c r="G1" s="11" t="inlineStr">
         <is>
           <t>Date Created</t>
         </is>
@@ -543,7 +541,7 @@
         </is>
       </c>
       <c r="F2" s="6" t="n"/>
-      <c r="G2" s="11" t="inlineStr">
+      <c r="G2" s="12" t="inlineStr">
         <is>
           <t>18/01/21</t>
         </is>
@@ -572,7 +570,7 @@
         </is>
       </c>
       <c r="F3" s="6" t="n"/>
-      <c r="G3" s="11" t="inlineStr">
+      <c r="G3" s="12" t="inlineStr">
         <is>
           <t>18/01/21</t>
         </is>
@@ -601,7 +599,7 @@
         </is>
       </c>
       <c r="F4" s="9" t="n"/>
-      <c r="G4" s="11" t="inlineStr">
+      <c r="G4" s="12" t="inlineStr">
         <is>
           <t>18/01/21</t>
         </is>
@@ -630,7 +628,7 @@
         </is>
       </c>
       <c r="F5" s="9" t="n"/>
-      <c r="G5" s="11" t="inlineStr">
+      <c r="G5" s="12" t="inlineStr">
         <is>
           <t>19/01/21</t>
         </is>
@@ -659,10 +657,8 @@
         </is>
       </c>
       <c r="F6" s="6" t="n"/>
-      <c r="G6" s="11" t="inlineStr">
-        <is>
-          <t>20/01/21</t>
-        </is>
+      <c r="G6" s="12" t="n">
+        <v>210120</v>
       </c>
     </row>
     <row r="7">
@@ -688,10 +684,8 @@
         </is>
       </c>
       <c r="F7" s="6" t="n"/>
-      <c r="G7" s="11" t="inlineStr">
-        <is>
-          <t>20/01/21</t>
-        </is>
+      <c r="G7" s="12" t="n">
+        <v>210120</v>
       </c>
     </row>
     <row r="8">
@@ -716,10 +710,8 @@
           <t>that</t>
         </is>
       </c>
-      <c r="G8" s="11" t="inlineStr">
-        <is>
-          <t>20/01/21</t>
-        </is>
+      <c r="G8" s="12" t="n">
+        <v>210120</v>
       </c>
     </row>
     <row r="9">
@@ -744,10 +736,8 @@
           <t>these</t>
         </is>
       </c>
-      <c r="G9" s="11" t="inlineStr">
-        <is>
-          <t>20/01/21</t>
-        </is>
+      <c r="G9" s="12" t="n">
+        <v>210120</v>
       </c>
     </row>
     <row r="10">
@@ -772,10 +762,8 @@
           <t>those</t>
         </is>
       </c>
-      <c r="G10" s="11" t="inlineStr">
-        <is>
-          <t>20/01/21</t>
-        </is>
+      <c r="G10" s="12" t="n">
+        <v>210120</v>
       </c>
     </row>
     <row r="11">
@@ -800,10 +788,8 @@
           <t>of</t>
         </is>
       </c>
-      <c r="G11" s="11" t="inlineStr">
-        <is>
-          <t>20/01/21</t>
-        </is>
+      <c r="G11" s="12" t="n">
+        <v>210120</v>
       </c>
     </row>
     <row r="12">
@@ -828,10 +814,8 @@
           <t>to</t>
         </is>
       </c>
-      <c r="G12" s="11" t="inlineStr">
-        <is>
-          <t>20/01/21</t>
-        </is>
+      <c r="G12" s="12" t="n">
+        <v>210120</v>
       </c>
     </row>
     <row r="13">
@@ -856,10 +840,8 @@
           <t>in</t>
         </is>
       </c>
-      <c r="G13" s="11" t="inlineStr">
-        <is>
-          <t>22/01/21</t>
-        </is>
+      <c r="G13" s="12" t="n">
+        <v>210122</v>
       </c>
     </row>
     <row r="14">
@@ -884,10 +866,8 @@
           <t>within</t>
         </is>
       </c>
-      <c r="G14" s="11" t="inlineStr">
-        <is>
-          <t>22/01/21</t>
-        </is>
+      <c r="G14" s="12" t="n">
+        <v>210122</v>
       </c>
     </row>
     <row r="15">
@@ -912,10 +892,8 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="G15" s="11" t="inlineStr">
-        <is>
-          <t>22/01/21</t>
-        </is>
+      <c r="G15" s="12" t="n">
+        <v>210122</v>
       </c>
     </row>
     <row r="16">
@@ -940,10 +918,8 @@
           <t>i</t>
         </is>
       </c>
-      <c r="G16" s="11" t="inlineStr">
-        <is>
-          <t>23/01/21</t>
-        </is>
+      <c r="G16" s="12" t="n">
+        <v>210123</v>
       </c>
     </row>
     <row r="17">
@@ -968,13 +944,63 @@
           <t>you</t>
         </is>
       </c>
-      <c r="G17" s="11" t="inlineStr">
-        <is>
-          <t>23/01/21</t>
-        </is>
-      </c>
-    </row>
-    <row r="18"/>
+      <c r="G17" s="12" t="n">
+        <v>210123</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="inlineStr">
+        <is>
+          <t>בשביל</t>
+        </is>
+      </c>
+      <c r="E18" s="5" t="inlineStr">
+        <is>
+          <t>for</t>
+        </is>
+      </c>
+      <c r="G18" s="12" t="n">
+        <v>210214</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D19" s="5" t="inlineStr">
+        <is>
+          <t>לעשות</t>
+        </is>
+      </c>
+      <c r="E19" s="5" t="inlineStr">
+        <is>
+          <t>to do</t>
+        </is>
+      </c>
+      <c r="G19" s="12" t="n">
+        <v>210214</v>
+      </c>
+    </row>
+    <row r="20"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="3">

--- a/Questions/English/Popular 1000.xlsx
+++ b/Questions/English/Popular 1000.xlsx
@@ -1,41 +1,213 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myq\Questions\English\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24593006-42E9-4AC1-8CE9-9C126CA37FE2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="54">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Right Answer</t>
+  </si>
+  <si>
+    <t>Wrong Answer</t>
+  </si>
+  <si>
+    <t>Date Created</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>להיות</t>
+  </si>
+  <si>
+    <t>to be</t>
+  </si>
+  <si>
+    <t>18/01/21</t>
+  </si>
+  <si>
+    <t>להתחיל להיות</t>
+  </si>
+  <si>
+    <t>to become</t>
+  </si>
+  <si>
+    <t>ו / וגם</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>בסופו של דבר f*****</t>
+  </si>
+  <si>
+    <t>finally</t>
+  </si>
+  <si>
+    <t>19/01/21</t>
+  </si>
+  <si>
+    <t>זה *i</t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>זה *i**</t>
+  </si>
+  <si>
+    <t>this</t>
+  </si>
+  <si>
+    <t>זה *a**</t>
+  </si>
+  <si>
+    <t>that</t>
+  </si>
+  <si>
+    <t>אלה **e**</t>
+  </si>
+  <si>
+    <t>these</t>
+  </si>
+  <si>
+    <t>אלה **o**</t>
+  </si>
+  <si>
+    <t>those</t>
+  </si>
+  <si>
+    <t>של</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>ל</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>בתוך *i</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>בתוך *i****</t>
+  </si>
+  <si>
+    <t>within</t>
+  </si>
+  <si>
+    <t>בתוך *****i</t>
+  </si>
+  <si>
+    <t>inside</t>
+  </si>
+  <si>
+    <t>אני</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>אתה</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>בשביל</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>לעשות</t>
+  </si>
+  <si>
+    <t>to do</t>
+  </si>
+  <si>
+    <t>he</t>
+  </si>
+  <si>
+    <t>הוא</t>
+  </si>
+  <si>
+    <t>with</t>
+  </si>
+  <si>
+    <t>עם ***w</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
+    <t>על *o</t>
+  </si>
+  <si>
+    <t>we</t>
+  </si>
+  <si>
+    <t>אנחנו</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="0"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -152,48 +324,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -459,548 +640,493 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
+      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
+    <col min="1" max="1" width="3.3984375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="3.09765625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="2.19921875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="37.796875" style="5" customWidth="1"/>
+    <col min="5" max="6" width="23.69921875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="12.59765625" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Id</t>
-        </is>
-      </c>
-      <c r="B1" s="7" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="C1" s="7" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="D1" s="4" t="inlineStr">
-        <is>
-          <t>Question</t>
-        </is>
-      </c>
-      <c r="E1" s="4" t="inlineStr">
-        <is>
-          <t>Right Answer</t>
-        </is>
-      </c>
-      <c r="F1" s="10" t="inlineStr">
-        <is>
-          <t>Wrong Answer</t>
-        </is>
-      </c>
-      <c r="G1" s="11" t="inlineStr">
-        <is>
-          <t>Date Created</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D2" s="6" t="inlineStr">
-        <is>
-          <t>להיות</t>
-        </is>
-      </c>
-      <c r="E2" s="6" t="inlineStr">
-        <is>
-          <t>to be</t>
-        </is>
-      </c>
-      <c r="F2" s="6" t="n"/>
-      <c r="G2" s="12" t="inlineStr">
-        <is>
-          <t>18/01/21</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="27.6" customHeight="1">
-      <c r="A3" s="3" t="n">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D3" s="6" t="inlineStr">
-        <is>
-          <t>להתחיל להיות</t>
-        </is>
-      </c>
-      <c r="E3" s="6" t="inlineStr">
-        <is>
-          <t>to become</t>
-        </is>
-      </c>
-      <c r="F3" s="6" t="n"/>
-      <c r="G3" s="12" t="inlineStr">
-        <is>
-          <t>18/01/21</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="27.6" customHeight="1">
-      <c r="A4" s="3" t="n">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D4" s="6" t="inlineStr">
-        <is>
-          <t>ו / וגם</t>
-        </is>
-      </c>
-      <c r="E4" s="9" t="inlineStr">
-        <is>
-          <t>and</t>
-        </is>
-      </c>
-      <c r="F4" s="9" t="n"/>
-      <c r="G4" s="12" t="inlineStr">
-        <is>
-          <t>18/01/21</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="27.6" customHeight="1">
-      <c r="A5" s="3" t="n">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D5" s="6" t="inlineStr">
-        <is>
-          <t>בסופו של דבר f*****</t>
-        </is>
-      </c>
-      <c r="E5" s="9" t="inlineStr">
-        <is>
-          <t>finally</t>
-        </is>
-      </c>
-      <c r="F5" s="9" t="n"/>
-      <c r="G5" s="12" t="inlineStr">
-        <is>
-          <t>19/01/21</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="27.6" customHeight="1">
-      <c r="A6" s="3" t="n">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D6" s="6" t="inlineStr">
-        <is>
-          <t>זה *i</t>
-        </is>
-      </c>
-      <c r="E6" s="6" t="inlineStr">
-        <is>
-          <t>it</t>
-        </is>
-      </c>
-      <c r="F6" s="6" t="n"/>
-      <c r="G6" s="12" t="n">
+      <c r="G1" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="12">
         <v>210120</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D7" s="6" t="inlineStr">
-        <is>
-          <t>זה *i**</t>
-        </is>
-      </c>
-      <c r="E7" s="6" t="inlineStr">
-        <is>
-          <t>this</t>
-        </is>
-      </c>
-      <c r="F7" s="6" t="n"/>
-      <c r="G7" s="12" t="n">
+      <c r="B7" s="8">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="12">
         <v>210120</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D8" s="5" t="inlineStr">
-        <is>
-          <t>זה *a**</t>
-        </is>
-      </c>
-      <c r="E8" s="5" t="inlineStr">
-        <is>
-          <t>that</t>
-        </is>
-      </c>
-      <c r="G8" s="12" t="n">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="12">
         <v>210120</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D9" s="5" t="inlineStr">
-        <is>
-          <t>אלה **e**</t>
-        </is>
-      </c>
-      <c r="E9" s="5" t="inlineStr">
-        <is>
-          <t>these</t>
-        </is>
-      </c>
-      <c r="G9" s="12" t="n">
+      <c r="B9" s="8">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="12">
         <v>210120</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D10" s="5" t="inlineStr">
-        <is>
-          <t>אלה **o**</t>
-        </is>
-      </c>
-      <c r="E10" s="5" t="inlineStr">
-        <is>
-          <t>those</t>
-        </is>
-      </c>
-      <c r="G10" s="12" t="n">
+      <c r="B10" s="8">
+        <v>1</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="12">
         <v>210120</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D11" s="5" t="inlineStr">
-        <is>
-          <t>של</t>
-        </is>
-      </c>
-      <c r="E11" s="5" t="inlineStr">
-        <is>
-          <t>of</t>
-        </is>
-      </c>
-      <c r="G11" s="12" t="n">
+      <c r="B11" s="8">
+        <v>1</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="12">
         <v>210120</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="3" t="n">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D12" s="5" t="inlineStr">
-        <is>
-          <t>ל</t>
-        </is>
-      </c>
-      <c r="E12" s="5" t="inlineStr">
-        <is>
-          <t>to</t>
-        </is>
-      </c>
-      <c r="G12" s="12" t="n">
+      <c r="B12" s="8">
+        <v>1</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="12">
         <v>210120</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="3" t="n">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D13" s="5" t="inlineStr">
-        <is>
-          <t>בתוך *i</t>
-        </is>
-      </c>
-      <c r="E13" s="5" t="inlineStr">
-        <is>
-          <t>in</t>
-        </is>
-      </c>
-      <c r="G13" s="12" t="n">
+      <c r="B13" s="8">
+        <v>1</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="12">
         <v>210122</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="3" t="n">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D14" s="5" t="inlineStr">
-        <is>
-          <t>בתוך *i****</t>
-        </is>
-      </c>
-      <c r="E14" s="5" t="inlineStr">
-        <is>
-          <t>within</t>
-        </is>
-      </c>
-      <c r="G14" s="12" t="n">
+      <c r="B14" s="8">
+        <v>1</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="12">
         <v>210122</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="3" t="n">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D15" s="5" t="inlineStr">
-        <is>
-          <t>בתוך *****i</t>
-        </is>
-      </c>
-      <c r="E15" s="5" t="inlineStr">
-        <is>
-          <t>inside</t>
-        </is>
-      </c>
-      <c r="G15" s="12" t="n">
+      <c r="B15" s="8">
+        <v>1</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="12">
         <v>210122</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="3" t="n">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D16" s="5" t="inlineStr">
-        <is>
-          <t>אני</t>
-        </is>
-      </c>
-      <c r="E16" s="5" t="inlineStr">
-        <is>
-          <t>i</t>
-        </is>
-      </c>
-      <c r="G16" s="12" t="n">
+      <c r="B16" s="8">
+        <v>1</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="12">
         <v>210123</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="3" t="n">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D17" s="5" t="inlineStr">
-        <is>
-          <t>אתה</t>
-        </is>
-      </c>
-      <c r="E17" s="5" t="inlineStr">
-        <is>
-          <t>you</t>
-        </is>
-      </c>
-      <c r="G17" s="12" t="n">
+      <c r="B17" s="8">
+        <v>1</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="12">
         <v>210123</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="3" t="n">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D18" s="5" t="inlineStr">
-        <is>
-          <t>בשביל</t>
-        </is>
-      </c>
-      <c r="E18" s="5" t="inlineStr">
-        <is>
-          <t>for</t>
-        </is>
-      </c>
-      <c r="G18" s="12" t="n">
+      <c r="B18" s="8">
+        <v>1</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" s="12">
         <v>210214</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="3" t="n">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D19" s="5" t="inlineStr">
-        <is>
-          <t>לעשות</t>
-        </is>
-      </c>
-      <c r="E19" s="5" t="inlineStr">
-        <is>
-          <t>to do</t>
-        </is>
-      </c>
-      <c r="G19" s="12" t="n">
+      <c r="B19" s="8">
+        <v>1</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="12">
         <v>210214</v>
       </c>
     </row>
-    <row r="20"/>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="8">
+        <v>1</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" s="12">
+        <v>210218</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="8">
+        <v>1</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" s="12">
+        <v>210218</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="8">
+        <v>1</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22" s="12">
+        <v>210218</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="8">
+        <v>1</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23" s="12">
+        <v>210218</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="3">
@@ -1039,6 +1165,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/Questions/English/Popular 1000.xlsx
+++ b/Questions/English/Popular 1000.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,51 +149,119 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -466,22 +534,22 @@
   </sheetPr>
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A6" ySplit="1"/>
+      <selection activeCell="G24" pane="bottomLeft" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -520,7 +588,7 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>1</v>
+        <v>202</v>
       </c>
       <c r="B2" s="8" t="n">
         <v>1</v>
@@ -547,9 +615,9 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3">
       <c r="A3" s="3" t="n">
-        <v>2</v>
+        <v>203</v>
       </c>
       <c r="B3" s="8" t="n">
         <v>1</v>
@@ -576,9 +644,9 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="4">
       <c r="A4" s="3" t="n">
-        <v>3</v>
+        <v>204</v>
       </c>
       <c r="B4" s="8" t="n">
         <v>1</v>
@@ -605,9 +673,9 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="5">
       <c r="A5" s="3" t="n">
-        <v>4</v>
+        <v>205</v>
       </c>
       <c r="B5" s="8" t="n">
         <v>1</v>
@@ -634,9 +702,9 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="6">
       <c r="A6" s="3" t="n">
-        <v>5</v>
+        <v>206</v>
       </c>
       <c r="B6" s="8" t="n">
         <v>1</v>
@@ -663,7 +731,7 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>6</v>
+        <v>207</v>
       </c>
       <c r="B7" s="8" t="n">
         <v>1</v>
@@ -690,7 +758,7 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>7</v>
+        <v>208</v>
       </c>
       <c r="B8" s="8" t="n">
         <v>1</v>
@@ -716,7 +784,7 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>8</v>
+        <v>209</v>
       </c>
       <c r="B9" s="8" t="n">
         <v>1</v>
@@ -742,7 +810,7 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>9</v>
+        <v>210</v>
       </c>
       <c r="B10" s="8" t="n">
         <v>1</v>
@@ -768,7 +836,7 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>10</v>
+        <v>211</v>
       </c>
       <c r="B11" s="8" t="n">
         <v>1</v>
@@ -794,7 +862,7 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>11</v>
+        <v>212</v>
       </c>
       <c r="B12" s="8" t="n">
         <v>1</v>
@@ -820,7 +888,7 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>12</v>
+        <v>213</v>
       </c>
       <c r="B13" s="8" t="n">
         <v>1</v>
@@ -846,7 +914,7 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>13</v>
+        <v>214</v>
       </c>
       <c r="B14" s="8" t="n">
         <v>1</v>
@@ -872,7 +940,7 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>14</v>
+        <v>215</v>
       </c>
       <c r="B15" s="8" t="n">
         <v>1</v>
@@ -898,7 +966,7 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>15</v>
+        <v>216</v>
       </c>
       <c r="B16" s="8" t="n">
         <v>1</v>
@@ -924,7 +992,7 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>16</v>
+        <v>217</v>
       </c>
       <c r="B17" s="8" t="n">
         <v>1</v>
@@ -950,7 +1018,7 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>17</v>
+        <v>218</v>
       </c>
       <c r="B18" s="8" t="n">
         <v>1</v>
@@ -976,7 +1044,7 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>18</v>
+        <v>219</v>
       </c>
       <c r="B19" s="8" t="n">
         <v>1</v>
@@ -1002,7 +1070,7 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>19</v>
+        <v>220</v>
       </c>
       <c r="B20" s="8" t="n">
         <v>1</v>
@@ -1028,7 +1096,7 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>20</v>
+        <v>221</v>
       </c>
       <c r="B21" s="8" t="n">
         <v>1</v>
@@ -1054,7 +1122,7 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>21</v>
+        <v>222</v>
       </c>
       <c r="B22" s="8" t="n">
         <v>1</v>
@@ -1080,7 +1148,7 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>22</v>
+        <v>223</v>
       </c>
       <c r="B23" s="8" t="n">
         <v>1</v>
@@ -1107,7 +1175,7 @@
     <row r="24"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1119,7 +1187,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1131,7 +1199,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1142,7 +1210,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Popular 1000.xlsx
+++ b/Questions/English/Popular 1000.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,119 +149,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -534,22 +466,22 @@
   </sheetPr>
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A6" ySplit="1"/>
-      <selection activeCell="G24" pane="bottomLeft" sqref="G24"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
+    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -615,7 +547,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3">
+    <row r="3" ht="27.6" customHeight="1">
       <c r="A3" s="3" t="n">
         <v>203</v>
       </c>
@@ -644,7 +576,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="4">
+    <row r="4" ht="27.6" customHeight="1">
       <c r="A4" s="3" t="n">
         <v>204</v>
       </c>
@@ -673,7 +605,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="5">
+    <row r="5" ht="27.6" customHeight="1">
       <c r="A5" s="3" t="n">
         <v>205</v>
       </c>
@@ -702,7 +634,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="6">
+    <row r="6" ht="27.6" customHeight="1">
       <c r="A6" s="3" t="n">
         <v>206</v>
       </c>
@@ -1175,7 +1107,7 @@
     <row r="24"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1187,7 +1119,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1199,7 +1131,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1210,7 +1142,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Popular 1000.xlsx
+++ b/Questions/English/Popular 1000.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,51 +149,119 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -464,24 +532,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A6" ySplit="1"/>
+      <selection activeCell="G24" pane="bottomLeft" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -547,7 +615,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3">
       <c r="A3" s="3" t="n">
         <v>203</v>
       </c>
@@ -576,7 +644,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="4">
       <c r="A4" s="3" t="n">
         <v>204</v>
       </c>
@@ -605,7 +673,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="5">
       <c r="A5" s="3" t="n">
         <v>205</v>
       </c>
@@ -634,7 +702,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="6">
       <c r="A6" s="3" t="n">
         <v>206</v>
       </c>
@@ -1104,10 +1172,9 @@
         <v>210218</v>
       </c>
     </row>
-    <row r="24"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1119,7 +1186,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1131,7 +1198,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1142,7 +1209,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Popular 1000.xlsx
+++ b/Questions/English/Popular 1000.xlsx
@@ -532,7 +532,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A6" ySplit="1"/>
@@ -1172,6 +1172,7 @@
         <v>210218</v>
       </c>
     </row>
+    <row r="24"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule priority="3" type="colorScale">

--- a/Questions/English/Popular 1000.xlsx
+++ b/Questions/English/Popular 1000.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,51 +149,119 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -466,22 +534,22 @@
   </sheetPr>
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A6" ySplit="1"/>
+      <selection activeCell="G24" pane="bottomLeft" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -547,7 +615,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3">
       <c r="A3" s="3" t="n">
         <v>203</v>
       </c>
@@ -576,7 +644,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="4">
       <c r="A4" s="3" t="n">
         <v>204</v>
       </c>
@@ -605,7 +673,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="5">
       <c r="A5" s="3" t="n">
         <v>205</v>
       </c>
@@ -634,7 +702,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="6">
       <c r="A6" s="3" t="n">
         <v>206</v>
       </c>
@@ -1107,7 +1175,7 @@
     <row r="24"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1119,7 +1187,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1131,7 +1199,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1142,7 +1210,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Popular 1000.xlsx
+++ b/Questions/English/Popular 1000.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,51 +149,120 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="14">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -464,24 +533,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A7" ySplit="1"/>
+      <selection activeCell="D25" pane="bottomLeft" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="3.8984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -547,7 +616,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3">
       <c r="A3" s="3" t="n">
         <v>203</v>
       </c>
@@ -576,7 +645,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="4">
       <c r="A4" s="3" t="n">
         <v>204</v>
       </c>
@@ -605,7 +674,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="5">
       <c r="A5" s="3" t="n">
         <v>205</v>
       </c>
@@ -634,7 +703,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="6">
       <c r="A6" s="3" t="n">
         <v>206</v>
       </c>
@@ -1104,10 +1173,65 @@
         <v>210218</v>
       </c>
     </row>
-    <row r="24"/>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>332</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="inlineStr">
+        <is>
+          <t>אבל / אולם</t>
+        </is>
+      </c>
+      <c r="E24" s="5" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="G24" s="13" t="inlineStr">
+        <is>
+          <t>200420</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>334</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D25" s="5" t="inlineStr">
+        <is>
+          <t>הם</t>
+        </is>
+      </c>
+      <c r="E25" s="5" t="inlineStr">
+        <is>
+          <t>they</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>200420</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="6" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1119,7 +1243,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="5" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1131,7 +1255,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1142,7 +1266,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Popular 1000.xlsx
+++ b/Questions/English/Popular 1000.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,120 +149,52 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -533,24 +465,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A7" ySplit="1"/>
-      <selection activeCell="D25" pane="bottomLeft" sqref="D25"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="3.8984375"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
+    <col width="3.8984375" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -616,7 +548,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3">
+    <row r="3" ht="27.6" customHeight="1">
       <c r="A3" s="3" t="n">
         <v>203</v>
       </c>
@@ -645,7 +577,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="4">
+    <row r="4" ht="27.6" customHeight="1">
       <c r="A4" s="3" t="n">
         <v>204</v>
       </c>
@@ -674,7 +606,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="5">
+    <row r="5" ht="27.6" customHeight="1">
       <c r="A5" s="3" t="n">
         <v>205</v>
       </c>
@@ -703,7 +635,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="6">
+    <row r="6" ht="27.6" customHeight="1">
       <c r="A6" s="3" t="n">
         <v>206</v>
       </c>
@@ -1229,9 +1161,10 @@
         </is>
       </c>
     </row>
+    <row r="26"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="6" type="colorScale">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1243,7 +1176,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="5" type="colorScale">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1255,7 +1188,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1266,7 +1199,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Popular 1000.xlsx
+++ b/Questions/English/Popular 1000.xlsx
@@ -195,6 +195,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 

--- a/Questions/English/Popular 1000.xlsx
+++ b/Questions/English/Popular 1000.xlsx
@@ -195,74 +195,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 

--- a/Questions/English/Popular 1000.xlsx
+++ b/Questions/English/Popular 1000.xlsx
@@ -465,11 +465,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
@@ -1161,7 +1161,63 @@
         </is>
       </c>
     </row>
-    <row r="26"/>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>367</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D26" s="5" t="inlineStr">
+        <is>
+          <t>להגיד</t>
+        </is>
+      </c>
+      <c r="E26" s="5" t="inlineStr">
+        <is>
+          <t>to say</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>200503</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>368</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D27" s="5" t="inlineStr">
+        <is>
+          <t>מה</t>
+        </is>
+      </c>
+      <c r="E27" s="5" t="inlineStr">
+        <is>
+          <t>what</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>200503</t>
+        </is>
+      </c>
+    </row>
+    <row r="28"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="6">

--- a/Questions/English/Popular 1000.xlsx
+++ b/Questions/English/Popular 1000.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,52 +149,120 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -465,24 +533,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="D6" pane="bottomLeft" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="3.8984375" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="3.8984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -548,7 +616,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3">
       <c r="A3" s="3" t="n">
         <v>203</v>
       </c>
@@ -577,7 +645,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="4">
       <c r="A4" s="3" t="n">
         <v>204</v>
       </c>
@@ -606,7 +674,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="5">
       <c r="A5" s="3" t="n">
         <v>205</v>
       </c>
@@ -620,7 +688,7 @@
       </c>
       <c r="D5" s="6" t="inlineStr">
         <is>
-          <t>בסופו של דבר f*****</t>
+          <t>בסופו של דבר *****f</t>
         </is>
       </c>
       <c r="E5" s="9" t="inlineStr">
@@ -635,7 +703,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="6">
       <c r="A6" s="3" t="n">
         <v>206</v>
       </c>
@@ -1217,10 +1285,121 @@
         </is>
       </c>
     </row>
-    <row r="28"/>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>394</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D28" s="5" t="inlineStr">
+        <is>
+          <t>רוב *****mo</t>
+        </is>
+      </c>
+      <c r="E28" s="5" t="inlineStr">
+        <is>
+          <t>most</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>395</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D29" s="5" t="inlineStr">
+        <is>
+          <t>רוב *****ma</t>
+        </is>
+      </c>
+      <c r="E29" s="5" t="inlineStr">
+        <is>
+          <t>majority</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>406</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D30" s="5" t="inlineStr">
+        <is>
+          <t>זמין</t>
+        </is>
+      </c>
+      <c r="E30" s="5" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>411</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D31" s="5" t="inlineStr">
+        <is>
+          <t>תהליך</t>
+        </is>
+      </c>
+      <c r="E31" s="5" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="6">
+    <cfRule priority="6" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1232,7 +1411,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="5">
+    <cfRule priority="5" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1244,7 +1423,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1255,7 +1434,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Popular 1000.xlsx
+++ b/Questions/English/Popular 1000.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,120 +149,52 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -533,24 +465,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="D6" pane="bottomLeft" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="3.8984375"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
+    <col width="3.8984375" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -616,7 +548,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3">
+    <row r="3" ht="27.6" customHeight="1">
       <c r="A3" s="3" t="n">
         <v>203</v>
       </c>
@@ -645,7 +577,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="4">
+    <row r="4" ht="27.6" customHeight="1">
       <c r="A4" s="3" t="n">
         <v>204</v>
       </c>
@@ -674,7 +606,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="5">
+    <row r="5" ht="27.6" customHeight="1">
       <c r="A5" s="3" t="n">
         <v>205</v>
       </c>
@@ -703,7 +635,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="6">
+    <row r="6" ht="27.6" customHeight="1">
       <c r="A6" s="3" t="n">
         <v>206</v>
       </c>
@@ -1397,9 +1329,122 @@
         </is>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>427</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D32" s="5" t="inlineStr">
+        <is>
+          <t>ראשון</t>
+        </is>
+      </c>
+      <c r="E32" s="5" t="inlineStr">
+        <is>
+          <t>first</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>428</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D33" s="5" t="inlineStr">
+        <is>
+          <t>דף, עמוד</t>
+        </is>
+      </c>
+      <c r="E33" s="5" t="inlineStr">
+        <is>
+          <t>page</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>429</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D34" s="5" t="inlineStr">
+        <is>
+          <t>מבנה *****s</t>
+        </is>
+      </c>
+      <c r="E34" s="5" t="inlineStr">
+        <is>
+          <t>structure</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>430</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D35" s="5" t="inlineStr">
+        <is>
+          <t>הכי</t>
+        </is>
+      </c>
+      <c r="E35" s="5" t="inlineStr">
+        <is>
+          <t>the most</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
+      </c>
+    </row>
+    <row r="36"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="6" type="colorScale">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1411,7 +1456,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="5" type="colorScale">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1423,7 +1468,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1434,7 +1479,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Popular 1000.xlsx
+++ b/Questions/English/Popular 1000.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,52 +149,120 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -465,24 +533,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A18" ySplit="1"/>
+      <selection activeCell="D36" pane="bottomLeft" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="3.8984375" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="3.8984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -548,7 +616,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3">
       <c r="A3" s="3" t="n">
         <v>203</v>
       </c>
@@ -577,7 +645,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="4">
       <c r="A4" s="3" t="n">
         <v>204</v>
       </c>
@@ -606,7 +674,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="5">
       <c r="A5" s="3" t="n">
         <v>205</v>
       </c>
@@ -635,7 +703,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="6">
       <c r="A6" s="3" t="n">
         <v>206</v>
       </c>
@@ -1441,10 +1509,9 @@
         </is>
       </c>
     </row>
-    <row r="36"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="6">
+    <cfRule priority="6" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1456,7 +1523,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="5">
+    <cfRule priority="5" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1468,7 +1535,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1479,7 +1546,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Popular 1000.xlsx
+++ b/Questions/English/Popular 1000.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,120 +149,52 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -533,24 +465,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A18" ySplit="1"/>
-      <selection activeCell="D36" pane="bottomLeft" sqref="D36"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="3.8984375"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
+    <col width="3.8984375" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -616,7 +548,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3">
+    <row r="3" ht="27.6" customHeight="1">
       <c r="A3" s="3" t="n">
         <v>203</v>
       </c>
@@ -645,7 +577,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="4">
+    <row r="4" ht="27.6" customHeight="1">
       <c r="A4" s="3" t="n">
         <v>204</v>
       </c>
@@ -674,7 +606,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="5">
+    <row r="5" ht="27.6" customHeight="1">
       <c r="A5" s="3" t="n">
         <v>205</v>
       </c>
@@ -703,7 +635,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="6">
+    <row r="6" ht="27.6" customHeight="1">
       <c r="A6" s="3" t="n">
         <v>206</v>
       </c>
@@ -1509,9 +1441,318 @@
         </is>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>477</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D36" s="5" t="inlineStr">
+        <is>
+          <t>שלו</t>
+        </is>
+      </c>
+      <c r="E36" s="5" t="inlineStr">
+        <is>
+          <t>his</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>200505</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>478</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D37" s="5" t="inlineStr">
+        <is>
+          <t>מ</t>
+        </is>
+      </c>
+      <c r="E37" s="5" t="inlineStr">
+        <is>
+          <t>from</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>200505</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>479</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D38" s="5" t="inlineStr">
+        <is>
+          <t>ללכת *****g to</t>
+        </is>
+      </c>
+      <c r="E38" s="5" t="inlineStr">
+        <is>
+          <t>to go</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>200505</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>480</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D39" s="5" t="inlineStr">
+        <is>
+          <t>ללכת *****w to</t>
+        </is>
+      </c>
+      <c r="E39" s="5" t="inlineStr">
+        <is>
+          <t>to walk</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>200505</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>481</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D40" s="5" t="inlineStr">
+        <is>
+          <t>או</t>
+        </is>
+      </c>
+      <c r="E40" s="5" t="inlineStr">
+        <is>
+          <t>or</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>200505</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>482</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D41" s="5" t="inlineStr">
+        <is>
+          <t>על ידי</t>
+        </is>
+      </c>
+      <c r="E41" s="5" t="inlineStr">
+        <is>
+          <t>by</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>200505</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>483</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D42" s="5" t="inlineStr">
+        <is>
+          <t>לקבל *****g to</t>
+        </is>
+      </c>
+      <c r="E42" s="5" t="inlineStr">
+        <is>
+          <t>to get</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>200505</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>484</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D43" s="5" t="inlineStr">
+        <is>
+          <t>לקבל *****r to</t>
+        </is>
+      </c>
+      <c r="E43" s="5" t="inlineStr">
+        <is>
+          <t>to receive</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>200505</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>485</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D44" s="5" t="inlineStr">
+        <is>
+          <t>היא</t>
+        </is>
+      </c>
+      <c r="E44" s="5" t="inlineStr">
+        <is>
+          <t>she</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>200505</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>486</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D45" s="5" t="inlineStr">
+        <is>
+          <t>שלי y*****</t>
+        </is>
+      </c>
+      <c r="E45" s="5" t="inlineStr">
+        <is>
+          <t>my</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>200505</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>487</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D46" s="5" t="inlineStr">
+        <is>
+          <t>שלי e*****</t>
+        </is>
+      </c>
+      <c r="E46" s="5" t="inlineStr">
+        <is>
+          <t>mine</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>200505</t>
+        </is>
+      </c>
+    </row>
+    <row r="47"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="6" type="colorScale">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1523,7 +1764,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="5" type="colorScale">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1535,7 +1776,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1546,7 +1787,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Popular 1000.xlsx
+++ b/Questions/English/Popular 1000.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,52 +149,120 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -465,24 +533,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A28" ySplit="1"/>
+      <selection activeCell="D44" pane="bottomLeft" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="3.8984375" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="3.8984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -548,7 +616,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3">
       <c r="A3" s="3" t="n">
         <v>203</v>
       </c>
@@ -577,7 +645,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="4">
       <c r="A4" s="3" t="n">
         <v>204</v>
       </c>
@@ -606,7 +674,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="5">
       <c r="A5" s="3" t="n">
         <v>205</v>
       </c>
@@ -635,7 +703,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="6">
       <c r="A6" s="3" t="n">
         <v>206</v>
       </c>
@@ -1749,10 +1817,9 @@
         </is>
       </c>
     </row>
-    <row r="47"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="6">
+    <cfRule priority="6" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1764,7 +1831,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="5">
+    <cfRule priority="5" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1776,7 +1843,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1787,7 +1854,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Popular 1000.xlsx
+++ b/Questions/English/Popular 1000.xlsx
@@ -465,11 +465,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D59" sqref="D59"/>
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
@@ -2085,7 +2085,175 @@
         </is>
       </c>
     </row>
-    <row r="59"/>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>550</v>
+      </c>
+      <c r="B59" t="n">
+        <v>1</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D59" s="5" t="inlineStr">
+        <is>
+          <t>מי</t>
+        </is>
+      </c>
+      <c r="E59" s="5" t="inlineStr">
+        <is>
+          <t>who</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>200520</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>551</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D60" s="5" t="inlineStr">
+        <is>
+          <t>אודות</t>
+        </is>
+      </c>
+      <c r="E60" s="5" t="inlineStr">
+        <is>
+          <t>about</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>200520</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>552</v>
+      </c>
+      <c r="B61" t="n">
+        <v>1</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D61" s="5" t="inlineStr">
+        <is>
+          <t>שלהם</t>
+        </is>
+      </c>
+      <c r="E61" s="5" t="inlineStr">
+        <is>
+          <t>their</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>200520</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>553</v>
+      </c>
+      <c r="B62" t="n">
+        <v>1</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D62" s="5" t="inlineStr">
+        <is>
+          <t>רצון</t>
+        </is>
+      </c>
+      <c r="E62" s="5" t="inlineStr">
+        <is>
+          <t>will</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>200520</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>554</v>
+      </c>
+      <c r="B63" t="n">
+        <v>1</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D63" s="5" t="inlineStr">
+        <is>
+          <t>כל כך *****s</t>
+        </is>
+      </c>
+      <c r="E63" s="5" t="inlineStr">
+        <is>
+          <t>so</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>200520</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>555</v>
+      </c>
+      <c r="B64" t="n">
+        <v>1</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D64" s="5" t="inlineStr">
+        <is>
+          <t>לספר</t>
+        </is>
+      </c>
+      <c r="E64" s="5" t="inlineStr">
+        <is>
+          <t>to tell</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>200520</t>
+        </is>
+      </c>
+    </row>
+    <row r="65"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="6">

--- a/Questions/English/Popular 1000.xlsx
+++ b/Questions/English/Popular 1000.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,52 +149,120 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -465,24 +533,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G65"/>
+  <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D65" sqref="D65"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A58" ySplit="1"/>
+      <selection activeCell="D67" pane="bottomLeft" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="3.8984375" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="3.8984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -548,7 +616,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3">
       <c r="A3" s="3" t="n">
         <v>203</v>
       </c>
@@ -577,7 +645,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="4">
       <c r="A4" s="3" t="n">
         <v>204</v>
       </c>
@@ -606,7 +674,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="5">
       <c r="A5" s="3" t="n">
         <v>205</v>
       </c>
@@ -635,7 +703,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="6">
       <c r="A6" s="3" t="n">
         <v>206</v>
       </c>
@@ -1427,7 +1495,7 @@
       </c>
       <c r="D35" s="5" t="inlineStr">
         <is>
-          <t>הכי</t>
+          <t>הכי ***** *****</t>
         </is>
       </c>
       <c r="E35" s="5" t="inlineStr">
@@ -1959,7 +2027,7 @@
       </c>
       <c r="D54" s="5" t="inlineStr">
         <is>
-          <t>שלך</t>
+          <t>שלך r*****</t>
         </is>
       </c>
       <c r="E54" s="5" t="inlineStr">
@@ -1975,7 +2043,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>516</v>
+        <v>571</v>
       </c>
       <c r="B55" t="n">
         <v>1</v>
@@ -1987,23 +2055,23 @@
       </c>
       <c r="D55" s="5" t="inlineStr">
         <is>
-          <t>כל, כל אחד y*****</t>
+          <t>שלך s*****</t>
         </is>
       </c>
       <c r="E55" s="5" t="inlineStr">
         <is>
-          <t>every</t>
+          <t>yours</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>200519</t>
+          <t>200524</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B56" t="n">
         <v>1</v>
@@ -2015,12 +2083,12 @@
       </c>
       <c r="D56" s="5" t="inlineStr">
         <is>
-          <t>כל, כל אחד h*****</t>
+          <t>כל, כל אחד y*****</t>
         </is>
       </c>
       <c r="E56" s="5" t="inlineStr">
         <is>
-          <t>each</t>
+          <t>every</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -2031,7 +2099,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B57" t="n">
         <v>1</v>
@@ -2043,12 +2111,12 @@
       </c>
       <c r="D57" s="5" t="inlineStr">
         <is>
-          <t>כלשהו, איזשהו</t>
+          <t>כל, כל אחד h*****</t>
         </is>
       </c>
       <c r="E57" s="5" t="inlineStr">
         <is>
-          <t>any</t>
+          <t>each</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -2059,7 +2127,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B58" t="n">
         <v>1</v>
@@ -2071,12 +2139,12 @@
       </c>
       <c r="D58" s="5" t="inlineStr">
         <is>
-          <t>כל</t>
+          <t>כלשהו, איזשהו</t>
         </is>
       </c>
       <c r="E58" s="5" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>any</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -2087,7 +2155,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>550</v>
+        <v>519</v>
       </c>
       <c r="B59" t="n">
         <v>1</v>
@@ -2099,23 +2167,23 @@
       </c>
       <c r="D59" s="5" t="inlineStr">
         <is>
-          <t>מי</t>
+          <t>כל</t>
         </is>
       </c>
       <c r="E59" s="5" t="inlineStr">
         <is>
-          <t>who</t>
+          <t>all</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>200520</t>
+          <t>200519</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B60" t="n">
         <v>1</v>
@@ -2127,12 +2195,12 @@
       </c>
       <c r="D60" s="5" t="inlineStr">
         <is>
-          <t>אודות</t>
+          <t>מי</t>
         </is>
       </c>
       <c r="E60" s="5" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>who</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -2143,7 +2211,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B61" t="n">
         <v>1</v>
@@ -2155,12 +2223,12 @@
       </c>
       <c r="D61" s="5" t="inlineStr">
         <is>
-          <t>שלהם</t>
+          <t>אודות</t>
         </is>
       </c>
       <c r="E61" s="5" t="inlineStr">
         <is>
-          <t>their</t>
+          <t>about</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -2171,7 +2239,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B62" t="n">
         <v>1</v>
@@ -2183,12 +2251,12 @@
       </c>
       <c r="D62" s="5" t="inlineStr">
         <is>
-          <t>רצון</t>
+          <t>שלהם</t>
         </is>
       </c>
       <c r="E62" s="5" t="inlineStr">
         <is>
-          <t>will</t>
+          <t>their</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -2199,7 +2267,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B63" t="n">
         <v>1</v>
@@ -2211,12 +2279,12 @@
       </c>
       <c r="D63" s="5" t="inlineStr">
         <is>
-          <t>כל כך *****s</t>
+          <t>רצון</t>
         </is>
       </c>
       <c r="E63" s="5" t="inlineStr">
         <is>
-          <t>so</t>
+          <t>will</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -2227,36 +2295,91 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
+        <v>554</v>
+      </c>
+      <c r="B64" t="n">
+        <v>1</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D64" s="5" t="inlineStr">
+        <is>
+          <t>כל כך *****s</t>
+        </is>
+      </c>
+      <c r="E64" s="5" t="inlineStr">
+        <is>
+          <t>so</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>200520</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
         <v>555</v>
       </c>
-      <c r="B64" t="n">
-        <v>1</v>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D64" s="5" t="inlineStr">
+      <c r="B65" t="n">
+        <v>1</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D65" s="5" t="inlineStr">
         <is>
           <t>לספר</t>
         </is>
       </c>
-      <c r="E64" s="5" t="inlineStr">
+      <c r="E65" s="5" t="inlineStr">
         <is>
           <t>to tell</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>200520</t>
         </is>
       </c>
     </row>
-    <row r="65"/>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>572</v>
+      </c>
+      <c r="B66" t="n">
+        <v>1</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D66" s="5" t="inlineStr">
+        <is>
+          <t>קו</t>
+        </is>
+      </c>
+      <c r="E66" s="5" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>200524</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="6">
+    <cfRule priority="6" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2268,7 +2391,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="5">
+    <cfRule priority="5" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2280,7 +2403,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2291,7 +2414,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Popular 1000.xlsx
+++ b/Questions/English/Popular 1000.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myq\Questions\English\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F253DF0D-6A16-4854-A992-5303FDB762EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="163">
   <si>
     <t>Id</t>
   </si>
@@ -61,7 +67,7 @@
     <t>and</t>
   </si>
   <si>
-    <t>בסופו של דבר *****f</t>
+    <t>לבסוף, בסופו של דבר *****f</t>
   </si>
   <si>
     <t>finally</t>
@@ -476,33 +482,59 @@
   </si>
   <si>
     <t>fall</t>
+  </si>
+  <si>
+    <t>היום</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>200530</t>
+  </si>
+  <si>
+    <t>ארוך</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>סתיו aXXXXX, fXXXXX</t>
+  </si>
+  <si>
+    <t>autumn, fall</t>
+  </si>
+  <si>
+    <t>זה ixxxxx, xxxixxx, xxxaxxx</t>
+  </si>
+  <si>
+    <t>it, this, that</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="0"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -616,52 +648,61 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -927,29 +968,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G70"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A21" ySplit="1"/>
-      <selection activeCell="E27" pane="bottomLeft" sqref="E27"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="3.8984375"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
+    <col min="1" max="1" width="3.8984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.09765625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="2.19921875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="37.796875" style="5" customWidth="1"/>
+    <col min="5" max="6" width="23.69921875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="12.59765625" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" spans="1:7" thickBot="1">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -972,11 +1009,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="3" t="n">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>202</v>
       </c>
-      <c r="B2" s="8" t="n">
+      <c r="B2" s="8">
         <v>1</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -988,16 +1025,16 @@
       <c r="E2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="6" t="n"/>
+      <c r="F2" s="6"/>
       <c r="G2" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3" spans="1:7">
-      <c r="A3" s="3" t="n">
+    <row r="3" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>203</v>
       </c>
-      <c r="B3" s="8" t="n">
+      <c r="B3" s="8">
         <v>1</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -1009,16 +1046,16 @@
       <c r="E3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="6" t="n"/>
+      <c r="F3" s="6"/>
       <c r="G3" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="4" spans="1:7">
-      <c r="A4" s="3" t="n">
+    <row r="4" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>204</v>
       </c>
-      <c r="B4" s="8" t="n">
+      <c r="B4" s="8">
         <v>1</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -1030,16 +1067,16 @@
       <c r="E4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="9" t="n"/>
+      <c r="F4" s="9"/>
       <c r="G4" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="5" spans="1:7">
-      <c r="A5" s="3" t="n">
+    <row r="5" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>205</v>
       </c>
-      <c r="B5" s="8" t="n">
+      <c r="B5" s="8">
         <v>1</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -1051,16 +1088,16 @@
       <c r="E5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="9" t="n"/>
+      <c r="F5" s="9"/>
       <c r="G5" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="6" spans="1:7">
-      <c r="A6" s="3" t="n">
+    <row r="6" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>206</v>
       </c>
-      <c r="B6" s="8" t="n">
+      <c r="B6" s="8">
         <v>1</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -1072,16 +1109,16 @@
       <c r="E6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="6" t="n"/>
-      <c r="G6" s="12" t="n">
+      <c r="F6" s="6"/>
+      <c r="G6" s="12">
         <v>210120</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="3" t="n">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>207</v>
       </c>
-      <c r="B7" s="8" t="n">
+      <c r="B7" s="8">
         <v>1</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -1093,16 +1130,16 @@
       <c r="E7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="6" t="n"/>
-      <c r="G7" s="12" t="n">
+      <c r="F7" s="6"/>
+      <c r="G7" s="12">
         <v>210120</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="3" t="n">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>208</v>
       </c>
-      <c r="B8" s="8" t="n">
+      <c r="B8" s="8">
         <v>1</v>
       </c>
       <c r="C8" s="8" t="s">
@@ -1114,1234 +1151,1293 @@
       <c r="E8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="12" t="n">
+      <c r="G8" s="12">
         <v>210120</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="3" t="n">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D9" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>209</v>
       </c>
-      <c r="B9" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="5" t="s">
+      <c r="B10" s="8">
+        <v>1</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="12" t="n">
+      <c r="G10" s="12">
         <v>210120</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="3" t="n">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>210</v>
       </c>
-      <c r="B10" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="5" t="s">
+      <c r="B11" s="8">
+        <v>1</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="12" t="n">
+      <c r="G11" s="12">
         <v>210120</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="3" t="n">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>211</v>
       </c>
-      <c r="B11" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="5" t="s">
+      <c r="B12" s="8">
+        <v>1</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="12" t="n">
+      <c r="G12" s="12">
         <v>210120</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="3" t="n">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>212</v>
       </c>
-      <c r="B12" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="5" t="s">
+      <c r="B13" s="8">
+        <v>1</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="12" t="n">
+      <c r="G13" s="12">
         <v>210120</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="3" t="n">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>213</v>
       </c>
-      <c r="B13" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="5" t="s">
+      <c r="B14" s="8">
+        <v>1</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E14" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="12" t="n">
+      <c r="G14" s="12">
         <v>210122</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="3" t="n">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <v>214</v>
       </c>
-      <c r="B14" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="5" t="s">
+      <c r="B15" s="8">
+        <v>1</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E15" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="12" t="n">
+      <c r="G15" s="12">
         <v>210122</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="3" t="n">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <v>215</v>
       </c>
-      <c r="B15" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="5" t="s">
+      <c r="B16" s="8">
+        <v>1</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E16" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G15" s="12" t="n">
+      <c r="G16" s="12">
         <v>210122</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="3" t="n">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <v>216</v>
       </c>
-      <c r="B16" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="5" t="s">
+      <c r="B17" s="8">
+        <v>1</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E17" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G16" s="12" t="n">
+      <c r="G17" s="12">
         <v>210123</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="3" t="n">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
         <v>217</v>
       </c>
-      <c r="B17" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="5" t="s">
+      <c r="B18" s="8">
+        <v>1</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E18" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G17" s="12" t="n">
+      <c r="G18" s="12">
         <v>210123</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="3" t="n">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
         <v>218</v>
       </c>
-      <c r="B18" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="5" t="s">
+      <c r="B19" s="8">
+        <v>1</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E19" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G18" s="12" t="n">
+      <c r="G19" s="12">
         <v>210214</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="3" t="n">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
         <v>219</v>
       </c>
-      <c r="B19" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="5" t="s">
+      <c r="B20" s="8">
+        <v>1</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E20" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G19" s="12" t="n">
+      <c r="G20" s="12">
         <v>210214</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="3" t="n">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
         <v>220</v>
       </c>
-      <c r="B20" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="5" t="s">
+      <c r="B21" s="8">
+        <v>1</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E21" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G20" s="12" t="n">
+      <c r="G21" s="12">
         <v>210218</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="3" t="n">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
         <v>221</v>
       </c>
-      <c r="B21" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="5" t="s">
+      <c r="B22" s="8">
+        <v>1</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E22" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G21" s="12" t="n">
+      <c r="G22" s="12">
         <v>210218</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="3" t="n">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
         <v>222</v>
       </c>
-      <c r="B22" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="5" t="s">
+      <c r="B23" s="8">
+        <v>1</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E23" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="G22" s="12" t="n">
+      <c r="G23" s="12">
         <v>210218</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="3" t="n">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
         <v>223</v>
       </c>
-      <c r="B23" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="5" t="s">
+      <c r="B24" s="8">
+        <v>1</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E24" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="G23" s="12" t="n">
+      <c r="G24" s="12">
         <v>210218</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
-      <c r="A24" t="n">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>332</v>
       </c>
-      <c r="B24" t="n">
-        <v>1</v>
-      </c>
-      <c r="C24" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="5" t="s">
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E25" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="G24" s="13" t="s">
+      <c r="G25" s="13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
-      <c r="A25" t="n">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>334</v>
       </c>
-      <c r="B25" t="n">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="5" t="s">
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E26" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G26" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
-      <c r="A26" t="n">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>367</v>
       </c>
-      <c r="B26" t="n">
-        <v>1</v>
-      </c>
-      <c r="C26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="5" t="s">
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E27" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="G26" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" t="n">
-        <v>368</v>
-      </c>
-      <c r="B27" t="n">
-        <v>1</v>
-      </c>
-      <c r="C27" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>63</v>
       </c>
       <c r="G27" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
-      <c r="A28" t="n">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>368</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>394</v>
       </c>
-      <c r="B28" t="n">
-        <v>1</v>
-      </c>
-      <c r="C28" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="5" t="s">
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E29" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="G28" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" t="n">
-        <v>395</v>
-      </c>
-      <c r="B29" t="n">
-        <v>1</v>
-      </c>
-      <c r="C29" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>68</v>
       </c>
       <c r="G29" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
-      <c r="A30" t="n">
-        <v>406</v>
-      </c>
-      <c r="B30" t="n">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>395</v>
+      </c>
+      <c r="B30">
         <v>1</v>
       </c>
       <c r="C30" t="s">
         <v>7</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G30" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
-      <c r="A31" t="n">
-        <v>411</v>
-      </c>
-      <c r="B31" t="n">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>406</v>
+      </c>
+      <c r="B31">
         <v>1</v>
       </c>
       <c r="C31" t="s">
         <v>7</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G31" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
-      <c r="A32" t="n">
-        <v>427</v>
-      </c>
-      <c r="B32" t="n">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>411</v>
+      </c>
+      <c r="B32">
         <v>1</v>
       </c>
       <c r="C32" t="s">
         <v>7</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G32" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
-      <c r="A33" t="n">
-        <v>428</v>
-      </c>
-      <c r="B33" t="n">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>427</v>
+      </c>
+      <c r="B33">
         <v>1</v>
       </c>
       <c r="C33" t="s">
         <v>7</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G33" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
-      <c r="A34" t="n">
-        <v>429</v>
-      </c>
-      <c r="B34" t="n">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>428</v>
+      </c>
+      <c r="B34">
         <v>1</v>
       </c>
       <c r="C34" t="s">
         <v>7</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G34" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
-      <c r="A35" t="n">
-        <v>430</v>
-      </c>
-      <c r="B35" t="n">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>429</v>
+      </c>
+      <c r="B35">
         <v>1</v>
       </c>
       <c r="C35" t="s">
         <v>7</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G35" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
-      <c r="A36" t="n">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>430</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>477</v>
       </c>
-      <c r="B36" t="n">
-        <v>1</v>
-      </c>
-      <c r="C36" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36" s="5" t="s">
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E37" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="G36" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" t="n">
-        <v>478</v>
-      </c>
-      <c r="B37" t="n">
-        <v>1</v>
-      </c>
-      <c r="C37" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>85</v>
       </c>
       <c r="G37" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
-      <c r="A38" t="n">
-        <v>479</v>
-      </c>
-      <c r="B38" t="n">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>478</v>
+      </c>
+      <c r="B38">
         <v>1</v>
       </c>
       <c r="C38" t="s">
         <v>7</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G38" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
-      <c r="A39" t="n">
-        <v>480</v>
-      </c>
-      <c r="B39" t="n">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>479</v>
+      </c>
+      <c r="B39">
         <v>1</v>
       </c>
       <c r="C39" t="s">
         <v>7</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G39" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
-      <c r="A40" t="n">
-        <v>481</v>
-      </c>
-      <c r="B40" t="n">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>480</v>
+      </c>
+      <c r="B40">
         <v>1</v>
       </c>
       <c r="C40" t="s">
         <v>7</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G40" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
-      <c r="A41" t="n">
-        <v>482</v>
-      </c>
-      <c r="B41" t="n">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>481</v>
+      </c>
+      <c r="B41">
         <v>1</v>
       </c>
       <c r="C41" t="s">
         <v>7</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G41" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
-      <c r="A42" t="n">
-        <v>483</v>
-      </c>
-      <c r="B42" t="n">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>482</v>
+      </c>
+      <c r="B42">
         <v>1</v>
       </c>
       <c r="C42" t="s">
         <v>7</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G42" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
-      <c r="A43" t="n">
-        <v>484</v>
-      </c>
-      <c r="B43" t="n">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>483</v>
+      </c>
+      <c r="B43">
         <v>1</v>
       </c>
       <c r="C43" t="s">
         <v>7</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G43" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
-      <c r="A44" t="n">
-        <v>485</v>
-      </c>
-      <c r="B44" t="n">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>484</v>
+      </c>
+      <c r="B44">
         <v>1</v>
       </c>
       <c r="C44" t="s">
         <v>7</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G44" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
-      <c r="A45" t="n">
-        <v>486</v>
-      </c>
-      <c r="B45" t="n">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>485</v>
+      </c>
+      <c r="B45">
         <v>1</v>
       </c>
       <c r="C45" t="s">
         <v>7</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G45" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
-      <c r="A46" t="n">
-        <v>487</v>
-      </c>
-      <c r="B46" t="n">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>486</v>
+      </c>
+      <c r="B46">
         <v>1</v>
       </c>
       <c r="C46" t="s">
         <v>7</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G46" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
-      <c r="A47" t="n">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>487</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G47" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
         <v>508</v>
       </c>
-      <c r="B47" t="n">
-        <v>1</v>
-      </c>
-      <c r="C47" t="s">
-        <v>7</v>
-      </c>
-      <c r="D47" s="5" t="s">
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="E47" s="5" t="s">
+      <c r="E48" s="5" t="s">
         <v>105</v>
-      </c>
-      <c r="G47" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" t="n">
-        <v>509</v>
-      </c>
-      <c r="B48" t="n">
-        <v>1</v>
-      </c>
-      <c r="C48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>108</v>
       </c>
       <c r="G48" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
-      <c r="A49" t="n">
-        <v>510</v>
-      </c>
-      <c r="B49" t="n">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>509</v>
+      </c>
+      <c r="B49">
         <v>1</v>
       </c>
       <c r="C49" t="s">
         <v>7</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G49" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
-      <c r="A50" t="n">
-        <v>511</v>
-      </c>
-      <c r="B50" t="n">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>510</v>
+      </c>
+      <c r="B50">
         <v>1</v>
       </c>
       <c r="C50" t="s">
         <v>7</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G50" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
-      <c r="A51" t="n">
-        <v>512</v>
-      </c>
-      <c r="B51" t="n">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>511</v>
+      </c>
+      <c r="B51">
         <v>1</v>
       </c>
       <c r="C51" t="s">
         <v>7</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G51" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
-      <c r="A52" t="n">
-        <v>513</v>
-      </c>
-      <c r="B52" t="n">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>512</v>
+      </c>
+      <c r="B52">
         <v>1</v>
       </c>
       <c r="C52" t="s">
         <v>7</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G52" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
-      <c r="A53" t="n">
-        <v>514</v>
-      </c>
-      <c r="B53" t="n">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>513</v>
+      </c>
+      <c r="B53">
         <v>1</v>
       </c>
       <c r="C53" t="s">
         <v>7</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G53" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
-      <c r="A54" t="n">
-        <v>515</v>
-      </c>
-      <c r="B54" t="n">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>514</v>
+      </c>
+      <c r="B54">
         <v>1</v>
       </c>
       <c r="C54" t="s">
         <v>7</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G54" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
-      <c r="A55" t="n">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>515</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="G55" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56">
         <v>571</v>
       </c>
-      <c r="B55" t="n">
-        <v>1</v>
-      </c>
-      <c r="C55" t="s">
-        <v>7</v>
-      </c>
-      <c r="D55" s="5" t="s">
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="E55" s="5" t="s">
+      <c r="E56" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G56" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
-      <c r="A56" t="n">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57">
         <v>516</v>
       </c>
-      <c r="B56" t="n">
-        <v>1</v>
-      </c>
-      <c r="C56" t="s">
-        <v>7</v>
-      </c>
-      <c r="D56" s="5" t="s">
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E56" s="5" t="s">
+      <c r="E57" s="5" t="s">
         <v>125</v>
-      </c>
-      <c r="G56" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" t="n">
-        <v>517</v>
-      </c>
-      <c r="B57" t="n">
-        <v>1</v>
-      </c>
-      <c r="C57" t="s">
-        <v>7</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>127</v>
       </c>
       <c r="G57" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
-      <c r="A58" t="n">
-        <v>518</v>
-      </c>
-      <c r="B58" t="n">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>517</v>
+      </c>
+      <c r="B58">
         <v>1</v>
       </c>
       <c r="C58" t="s">
         <v>7</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G58" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
-      <c r="A59" t="n">
-        <v>519</v>
-      </c>
-      <c r="B59" t="n">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>518</v>
+      </c>
+      <c r="B59">
         <v>1</v>
       </c>
       <c r="C59" t="s">
         <v>7</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G59" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
-      <c r="A60" t="n">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>519</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G60" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61">
         <v>550</v>
       </c>
-      <c r="B60" t="n">
-        <v>1</v>
-      </c>
-      <c r="C60" t="s">
-        <v>7</v>
-      </c>
-      <c r="D60" s="5" t="s">
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="E60" s="5" t="s">
+      <c r="E61" s="5" t="s">
         <v>133</v>
-      </c>
-      <c r="G60" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" t="n">
-        <v>551</v>
-      </c>
-      <c r="B61" t="n">
-        <v>1</v>
-      </c>
-      <c r="C61" t="s">
-        <v>7</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>136</v>
       </c>
       <c r="G61" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
-      <c r="A62" t="n">
-        <v>552</v>
-      </c>
-      <c r="B62" t="n">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>551</v>
+      </c>
+      <c r="B62">
         <v>1</v>
       </c>
       <c r="C62" t="s">
         <v>7</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G62" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
-      <c r="A63" t="n">
-        <v>553</v>
-      </c>
-      <c r="B63" t="n">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>552</v>
+      </c>
+      <c r="B63">
         <v>1</v>
       </c>
       <c r="C63" t="s">
         <v>7</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G63" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
-      <c r="A64" t="n">
-        <v>554</v>
-      </c>
-      <c r="B64" t="n">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>553</v>
+      </c>
+      <c r="B64">
         <v>1</v>
       </c>
       <c r="C64" t="s">
         <v>7</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G64" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
-      <c r="A65" t="n">
-        <v>555</v>
-      </c>
-      <c r="B65" t="n">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>554</v>
+      </c>
+      <c r="B65">
         <v>1</v>
       </c>
       <c r="C65" t="s">
         <v>7</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G65" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
-      <c r="A66" t="n">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>555</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="G66" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67">
         <v>572</v>
       </c>
-      <c r="B66" t="n">
-        <v>1</v>
-      </c>
-      <c r="C66" t="s">
-        <v>7</v>
-      </c>
-      <c r="D66" s="5" t="s">
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="E66" s="5" t="s">
+      <c r="E67" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G67" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
-      <c r="A67" t="n">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68">
         <v>586</v>
       </c>
-      <c r="B67" t="n">
-        <v>1</v>
-      </c>
-      <c r="C67" t="s">
-        <v>7</v>
-      </c>
-      <c r="D67" s="5" t="s">
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="E67" s="5" t="s">
+      <c r="E68" s="5" t="s">
         <v>148</v>
-      </c>
-      <c r="G67" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="A68" t="n">
-        <v>587</v>
-      </c>
-      <c r="B68" t="n">
-        <v>1</v>
-      </c>
-      <c r="C68" t="s">
-        <v>7</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>151</v>
       </c>
       <c r="G68" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
-      <c r="A69" t="n">
-        <v>588</v>
-      </c>
-      <c r="B69" t="n">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>587</v>
+      </c>
+      <c r="B69">
         <v>1</v>
       </c>
       <c r="C69" t="s">
         <v>7</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G69" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="70" spans="1:7"/>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>588</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G70" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71"/>
+      <c r="B71"/>
+      <c r="C71"/>
+      <c r="D71" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G71"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>596</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G72" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>597</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>7</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G73" t="s">
+        <v>156</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="6" type="colorScale">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2353,7 +2449,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="5" type="colorScale">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2365,7 +2461,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2376,7 +2472,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/Questions/English/Popular 1000.xlsx
+++ b/Questions/English/Popular 1000.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,52 +149,120 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -465,24 +533,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G79"/>
+  <dimension ref="A1:G82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A73" ySplit="1"/>
+      <selection activeCell="D83" pane="bottomLeft" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="3.8984375" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="3.8984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -548,7 +616,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3">
       <c r="A3" s="3" t="n">
         <v>203</v>
       </c>
@@ -577,7 +645,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="4">
       <c r="A4" s="3" t="n">
         <v>204</v>
       </c>
@@ -606,7 +674,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="5">
       <c r="A5" s="3" t="n">
         <v>205</v>
       </c>
@@ -635,7 +703,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="6">
       <c r="A6" s="3" t="n">
         <v>206</v>
       </c>
@@ -2645,10 +2713,121 @@
         </is>
       </c>
     </row>
-    <row r="79"/>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>626</v>
+      </c>
+      <c r="B79" t="n">
+        <v>1</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D79" s="5" t="inlineStr">
+        <is>
+          <t>יכולת *****a</t>
+        </is>
+      </c>
+      <c r="E79" s="5" t="inlineStr">
+        <is>
+          <t>ability</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>200608</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>627</v>
+      </c>
+      <c r="B80" t="n">
+        <v>1</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D80" s="5" t="inlineStr">
+        <is>
+          <t>יכולת (פוטנציאל) *****c</t>
+        </is>
+      </c>
+      <c r="E80" s="5" t="inlineStr">
+        <is>
+          <t>capability</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>200608</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>628</v>
+      </c>
+      <c r="B81" t="n">
+        <v>1</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D81" s="5" t="inlineStr">
+        <is>
+          <t>גבוה (לא בן אדם)</t>
+        </is>
+      </c>
+      <c r="E81" s="5" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>200608</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>629</v>
+      </c>
+      <c r="B82" t="n">
+        <v>1</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D82" s="5" t="inlineStr">
+        <is>
+          <t>גבוה (בן אדם או חפץ גבוה ורזה)</t>
+        </is>
+      </c>
+      <c r="E82" s="5" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>200608</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="6">
+    <cfRule priority="6" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2660,7 +2839,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="5">
+    <cfRule priority="5" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2672,7 +2851,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2683,7 +2862,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Popular 1000.xlsx
+++ b/Questions/English/Popular 1000.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,120 +149,52 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -533,24 +465,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G82"/>
+  <dimension ref="A1:G83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A73" ySplit="1"/>
-      <selection activeCell="D83" pane="bottomLeft" sqref="D83"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="3.8984375"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
+    <col width="3.8984375" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -616,7 +548,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3">
+    <row r="3" ht="27.6" customHeight="1">
       <c r="A3" s="3" t="n">
         <v>203</v>
       </c>
@@ -645,7 +577,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="4">
+    <row r="4" ht="27.6" customHeight="1">
       <c r="A4" s="3" t="n">
         <v>204</v>
       </c>
@@ -674,7 +606,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="5">
+    <row r="5" ht="27.6" customHeight="1">
       <c r="A5" s="3" t="n">
         <v>205</v>
       </c>
@@ -703,7 +635,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="6">
+    <row r="6" ht="27.6" customHeight="1">
       <c r="A6" s="3" t="n">
         <v>206</v>
       </c>
@@ -2825,9 +2757,10 @@
         </is>
       </c>
     </row>
+    <row r="83"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="6" type="colorScale">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2839,7 +2772,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="5" type="colorScale">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2851,7 +2784,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2862,7 +2795,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Popular 1000.xlsx
+++ b/Questions/English/Popular 1000.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\myq\Questions\English\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6A2184-F606-4B1F-8408-1B3ACB503F63}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12580" windowWidth="23260" xWindow="-110" yWindow="-110"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="183">
   <si>
     <t>Id</t>
   </si>
@@ -268,6 +262,9 @@
     <t>structure</t>
   </si>
   <si>
+    <t>הכי ***** the</t>
+  </si>
+  <si>
     <t>the most</t>
   </si>
   <si>
@@ -566,35 +563,33 @@
   </si>
   <si>
     <t>tall</t>
-  </si>
-  <si>
-    <t>הכי ***** the</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -708,61 +703,52 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -1028,25 +1014,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G82"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A30" ySplit="1"/>
+      <selection activeCell="D37" pane="bottomLeft" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="3.90625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.08984375" style="8" customWidth="1"/>
-    <col min="3" max="3" width="2.1796875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="37.81640625" style="5" customWidth="1"/>
-    <col min="5" max="6" width="23.7265625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="12.6328125" style="12" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="3.90625"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.08984375"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.1796875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.81640625"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.7265625"/>
+    <col customWidth="1" max="7" min="7" style="12" width="12.6328125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" spans="1:7" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1069,11 +1059,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
+    <row r="2" spans="1:7">
+      <c r="A2" s="3" t="n">
         <v>202</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="8" t="n">
         <v>1</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -1085,16 +1075,16 @@
       <c r="E2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="6"/>
+      <c r="F2" s="6" t="n"/>
       <c r="G2" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
+    <row customHeight="1" ht="27.65" r="3" spans="1:7">
+      <c r="A3" s="3" t="n">
         <v>203</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="8" t="n">
         <v>1</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -1106,16 +1096,16 @@
       <c r="E3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="6"/>
+      <c r="F3" s="6" t="n"/>
       <c r="G3" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
+    <row customHeight="1" ht="27.65" r="4" spans="1:7">
+      <c r="A4" s="3" t="n">
         <v>204</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="8" t="n">
         <v>1</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -1127,16 +1117,16 @@
       <c r="E4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="9"/>
+      <c r="F4" s="9" t="n"/>
       <c r="G4" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
+    <row customHeight="1" ht="27.65" r="5" spans="1:7">
+      <c r="A5" s="3" t="n">
         <v>205</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="8" t="n">
         <v>1</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -1148,16 +1138,16 @@
       <c r="E5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="9"/>
+      <c r="F5" s="9" t="n"/>
       <c r="G5" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3">
+    <row customHeight="1" ht="27.65" r="6" spans="1:7">
+      <c r="A6" s="3" t="n">
         <v>206</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="8" t="n">
         <v>1</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -1169,16 +1159,16 @@
       <c r="E6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="12">
+      <c r="F6" s="6" t="n"/>
+      <c r="G6" s="12" t="n">
         <v>210120</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="3">
+    <row r="7" spans="1:7">
+      <c r="A7" s="3" t="n">
         <v>207</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="8" t="n">
         <v>1</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -1190,16 +1180,16 @@
       <c r="E7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="12">
+      <c r="F7" s="6" t="n"/>
+      <c r="G7" s="12" t="n">
         <v>210120</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="3">
+    <row r="8" spans="1:7">
+      <c r="A8" s="3" t="n">
         <v>208</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="8" t="n">
         <v>1</v>
       </c>
       <c r="C8" s="8" t="s">
@@ -1211,15 +1201,15 @@
       <c r="E8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="12" t="n">
         <v>210120</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9">
+    <row r="9" spans="1:7">
+      <c r="A9" t="n">
         <v>605</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>1</v>
       </c>
       <c r="C9" t="s">
@@ -1235,11 +1225,11 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="3">
+    <row r="10" spans="1:7">
+      <c r="A10" s="3" t="n">
         <v>209</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="8" t="n">
         <v>1</v>
       </c>
       <c r="C10" s="8" t="s">
@@ -1251,15 +1241,15 @@
       <c r="E10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="12" t="n">
         <v>210120</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="3">
+    <row r="11" spans="1:7">
+      <c r="A11" s="3" t="n">
         <v>210</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="8" t="n">
         <v>1</v>
       </c>
       <c r="C11" s="8" t="s">
@@ -1271,15 +1261,15 @@
       <c r="E11" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="12" t="n">
         <v>210120</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="3">
+    <row r="12" spans="1:7">
+      <c r="A12" s="3" t="n">
         <v>211</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="8" t="n">
         <v>1</v>
       </c>
       <c r="C12" s="8" t="s">
@@ -1291,15 +1281,15 @@
       <c r="E12" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="12" t="n">
         <v>210120</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="3">
+    <row r="13" spans="1:7">
+      <c r="A13" s="3" t="n">
         <v>212</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="8" t="n">
         <v>1</v>
       </c>
       <c r="C13" s="8" t="s">
@@ -1311,15 +1301,15 @@
       <c r="E13" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="12" t="n">
         <v>210120</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="3">
+    <row r="14" spans="1:7">
+      <c r="A14" s="3" t="n">
         <v>213</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="8" t="n">
         <v>1</v>
       </c>
       <c r="C14" s="8" t="s">
@@ -1331,15 +1321,15 @@
       <c r="E14" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="12" t="n">
         <v>210122</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="3">
+    <row r="15" spans="1:7">
+      <c r="A15" s="3" t="n">
         <v>214</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="8" t="n">
         <v>1</v>
       </c>
       <c r="C15" s="8" t="s">
@@ -1351,15 +1341,15 @@
       <c r="E15" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="12" t="n">
         <v>210122</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="3">
+    <row r="16" spans="1:7">
+      <c r="A16" s="3" t="n">
         <v>215</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="8" t="n">
         <v>1</v>
       </c>
       <c r="C16" s="8" t="s">
@@ -1371,15 +1361,15 @@
       <c r="E16" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="12" t="n">
         <v>210122</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="3">
+    <row r="17" spans="1:7">
+      <c r="A17" s="3" t="n">
         <v>216</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="8" t="n">
         <v>1</v>
       </c>
       <c r="C17" s="8" t="s">
@@ -1391,15 +1381,15 @@
       <c r="E17" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="12" t="n">
         <v>210123</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="3">
+    <row r="18" spans="1:7">
+      <c r="A18" s="3" t="n">
         <v>217</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="8" t="n">
         <v>1</v>
       </c>
       <c r="C18" s="8" t="s">
@@ -1411,15 +1401,15 @@
       <c r="E18" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="12" t="n">
         <v>210123</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="3">
+    <row r="19" spans="1:7">
+      <c r="A19" s="3" t="n">
         <v>218</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="8" t="n">
         <v>1</v>
       </c>
       <c r="C19" s="8" t="s">
@@ -1431,15 +1421,15 @@
       <c r="E19" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="12" t="n">
         <v>210214</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="3">
+    <row r="20" spans="1:7">
+      <c r="A20" s="3" t="n">
         <v>219</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="8" t="n">
         <v>1</v>
       </c>
       <c r="C20" s="8" t="s">
@@ -1451,15 +1441,15 @@
       <c r="E20" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="12" t="n">
         <v>210214</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="3">
+    <row r="21" spans="1:7">
+      <c r="A21" s="3" t="n">
         <v>220</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="8" t="n">
         <v>1</v>
       </c>
       <c r="C21" s="8" t="s">
@@ -1471,15 +1461,15 @@
       <c r="E21" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G21" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="3">
+    <row r="22" spans="1:7">
+      <c r="A22" s="3" t="n">
         <v>221</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="8" t="n">
         <v>1</v>
       </c>
       <c r="C22" s="8" t="s">
@@ -1491,15 +1481,15 @@
       <c r="E22" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G22" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="3">
+    <row r="23" spans="1:7">
+      <c r="A23" s="3" t="n">
         <v>222</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="8" t="n">
         <v>1</v>
       </c>
       <c r="C23" s="8" t="s">
@@ -1511,15 +1501,15 @@
       <c r="E23" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G23" s="12">
+      <c r="G23" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="3">
+    <row r="24" spans="1:7">
+      <c r="A24" s="3" t="n">
         <v>223</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="8" t="n">
         <v>1</v>
       </c>
       <c r="C24" s="8" t="s">
@@ -1531,15 +1521,15 @@
       <c r="E24" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G24" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25">
+    <row r="25" spans="1:7">
+      <c r="A25" t="n">
         <v>332</v>
       </c>
-      <c r="B25">
+      <c r="B25" t="n">
         <v>1</v>
       </c>
       <c r="C25" t="s">
@@ -1555,11 +1545,11 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26">
+    <row r="26" spans="1:7">
+      <c r="A26" t="n">
         <v>334</v>
       </c>
-      <c r="B26">
+      <c r="B26" t="n">
         <v>1</v>
       </c>
       <c r="C26" t="s">
@@ -1575,11 +1565,11 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27">
+    <row r="27" spans="1:7">
+      <c r="A27" t="n">
         <v>367</v>
       </c>
-      <c r="B27">
+      <c r="B27" t="n">
         <v>1</v>
       </c>
       <c r="C27" t="s">
@@ -1595,11 +1585,11 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28">
+    <row r="28" spans="1:7">
+      <c r="A28" t="n">
         <v>368</v>
       </c>
-      <c r="B28">
+      <c r="B28" t="n">
         <v>1</v>
       </c>
       <c r="C28" t="s">
@@ -1615,11 +1605,11 @@
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29">
+    <row r="29" spans="1:7">
+      <c r="A29" t="n">
         <v>394</v>
       </c>
-      <c r="B29">
+      <c r="B29" t="n">
         <v>1</v>
       </c>
       <c r="C29" t="s">
@@ -1635,11 +1625,11 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30">
+    <row r="30" spans="1:7">
+      <c r="A30" t="n">
         <v>395</v>
       </c>
-      <c r="B30">
+      <c r="B30" t="n">
         <v>1</v>
       </c>
       <c r="C30" t="s">
@@ -1655,11 +1645,11 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31">
+    <row r="31" spans="1:7">
+      <c r="A31" t="n">
         <v>406</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="n">
         <v>1</v>
       </c>
       <c r="C31" t="s">
@@ -1675,11 +1665,11 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32">
+    <row r="32" spans="1:7">
+      <c r="A32" t="n">
         <v>411</v>
       </c>
-      <c r="B32">
+      <c r="B32" t="n">
         <v>1</v>
       </c>
       <c r="C32" t="s">
@@ -1695,11 +1685,11 @@
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33">
+    <row r="33" spans="1:7">
+      <c r="A33" t="n">
         <v>427</v>
       </c>
-      <c r="B33">
+      <c r="B33" t="n">
         <v>1</v>
       </c>
       <c r="C33" t="s">
@@ -1715,11 +1705,11 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34">
+    <row r="34" spans="1:7">
+      <c r="A34" t="n">
         <v>428</v>
       </c>
-      <c r="B34">
+      <c r="B34" t="n">
         <v>1</v>
       </c>
       <c r="C34" t="s">
@@ -1735,11 +1725,11 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35">
+    <row r="35" spans="1:7">
+      <c r="A35" t="n">
         <v>429</v>
       </c>
-      <c r="B35">
+      <c r="B35" t="n">
         <v>1</v>
       </c>
       <c r="C35" t="s">
@@ -1755,949 +1745,950 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36">
+    <row r="36" spans="1:7">
+      <c r="A36" t="n">
         <v>430</v>
       </c>
-      <c r="B36">
+      <c r="B36" t="n">
         <v>1</v>
       </c>
       <c r="C36" t="s">
         <v>7</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>182</v>
+        <v>82</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G36" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37">
+    <row r="37" spans="1:7">
+      <c r="A37" t="n">
         <v>477</v>
       </c>
-      <c r="B37">
+      <c r="B37" t="n">
         <v>1</v>
       </c>
       <c r="C37" t="s">
         <v>7</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G37" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="n">
         <v>478</v>
       </c>
-      <c r="B38">
+      <c r="B38" t="n">
         <v>1</v>
       </c>
       <c r="C38" t="s">
         <v>7</v>
       </c>
       <c r="D38" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G38" t="s">
         <v>86</v>
       </c>
-      <c r="E38" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G38" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39">
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="n">
         <v>479</v>
       </c>
-      <c r="B39">
+      <c r="B39" t="n">
         <v>1</v>
       </c>
       <c r="C39" t="s">
         <v>7</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G39" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="n">
         <v>480</v>
       </c>
-      <c r="B40">
+      <c r="B40" t="n">
         <v>1</v>
       </c>
       <c r="C40" t="s">
         <v>7</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G40" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="n">
         <v>481</v>
       </c>
-      <c r="B41">
+      <c r="B41" t="n">
         <v>1</v>
       </c>
       <c r="C41" t="s">
         <v>7</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G41" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="n">
         <v>482</v>
       </c>
-      <c r="B42">
+      <c r="B42" t="n">
         <v>1</v>
       </c>
       <c r="C42" t="s">
         <v>7</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G42" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="n">
         <v>483</v>
       </c>
-      <c r="B43">
+      <c r="B43" t="n">
         <v>1</v>
       </c>
       <c r="C43" t="s">
         <v>7</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G43" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="n">
         <v>484</v>
       </c>
-      <c r="B44">
+      <c r="B44" t="n">
         <v>1</v>
       </c>
       <c r="C44" t="s">
         <v>7</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G44" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="n">
         <v>485</v>
       </c>
-      <c r="B45">
+      <c r="B45" t="n">
         <v>1</v>
       </c>
       <c r="C45" t="s">
         <v>7</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G45" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A46">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="n">
         <v>486</v>
       </c>
-      <c r="B46">
+      <c r="B46" t="n">
         <v>1</v>
       </c>
       <c r="C46" t="s">
         <v>7</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G46" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A47">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="n">
         <v>487</v>
       </c>
-      <c r="B47">
+      <c r="B47" t="n">
         <v>1</v>
       </c>
       <c r="C47" t="s">
         <v>7</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G47" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A48">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="n">
         <v>508</v>
       </c>
-      <c r="B48">
+      <c r="B48" t="n">
         <v>1</v>
       </c>
       <c r="C48" t="s">
         <v>7</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G48" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A49">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="n">
         <v>509</v>
       </c>
-      <c r="B49">
+      <c r="B49" t="n">
         <v>1</v>
       </c>
       <c r="C49" t="s">
         <v>7</v>
       </c>
       <c r="D49" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G49" t="s">
         <v>109</v>
       </c>
-      <c r="E49" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="G49" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A50">
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="n">
         <v>510</v>
       </c>
-      <c r="B50">
+      <c r="B50" t="n">
         <v>1</v>
       </c>
       <c r="C50" t="s">
         <v>7</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G50" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A51">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="n">
         <v>511</v>
       </c>
-      <c r="B51">
+      <c r="B51" t="n">
         <v>1</v>
       </c>
       <c r="C51" t="s">
         <v>7</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G51" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A52">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="n">
         <v>512</v>
       </c>
-      <c r="B52">
+      <c r="B52" t="n">
         <v>1</v>
       </c>
       <c r="C52" t="s">
         <v>7</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G52" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A53">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="n">
         <v>513</v>
       </c>
-      <c r="B53">
+      <c r="B53" t="n">
         <v>1</v>
       </c>
       <c r="C53" t="s">
         <v>7</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G53" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A54">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" t="n">
         <v>514</v>
       </c>
-      <c r="B54">
+      <c r="B54" t="n">
         <v>1</v>
       </c>
       <c r="C54" t="s">
         <v>7</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G54" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A55">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" t="n">
         <v>515</v>
       </c>
-      <c r="B55">
+      <c r="B55" t="n">
         <v>1</v>
       </c>
       <c r="C55" t="s">
         <v>7</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G55" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A56">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" t="n">
         <v>571</v>
       </c>
-      <c r="B56">
+      <c r="B56" t="n">
         <v>1</v>
       </c>
       <c r="C56" t="s">
         <v>7</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G56" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A57">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" t="n">
         <v>516</v>
       </c>
-      <c r="B57">
+      <c r="B57" t="n">
         <v>1</v>
       </c>
       <c r="C57" t="s">
         <v>7</v>
       </c>
       <c r="D57" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G57" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" t="n">
+        <v>517</v>
+      </c>
+      <c r="B58" t="n">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="G58" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" t="n">
+        <v>518</v>
+      </c>
+      <c r="B59" t="n">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G59" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" t="n">
+        <v>519</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G60" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" t="n">
+        <v>550</v>
+      </c>
+      <c r="B61" t="n">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="G61" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" t="n">
+        <v>551</v>
+      </c>
+      <c r="B62" t="n">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="G62" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" t="n">
+        <v>552</v>
+      </c>
+      <c r="B63" t="n">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G63" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" t="n">
+        <v>553</v>
+      </c>
+      <c r="B64" t="n">
+        <v>1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="G64" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" t="n">
+        <v>554</v>
+      </c>
+      <c r="B65" t="n">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G65" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" t="n">
+        <v>555</v>
+      </c>
+      <c r="B66" t="n">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="G66" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" t="n">
+        <v>572</v>
+      </c>
+      <c r="B67" t="n">
+        <v>1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G67" t="s">
         <v>126</v>
       </c>
-      <c r="E57" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="G57" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A58">
-        <v>517</v>
-      </c>
-      <c r="B58">
-        <v>1</v>
-      </c>
-      <c r="C58" t="s">
-        <v>7</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G58" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A59">
-        <v>518</v>
-      </c>
-      <c r="B59">
-        <v>1</v>
-      </c>
-      <c r="C59" t="s">
-        <v>7</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="G59" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A60">
-        <v>519</v>
-      </c>
-      <c r="B60">
-        <v>1</v>
-      </c>
-      <c r="C60" t="s">
-        <v>7</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="G60" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A61">
-        <v>550</v>
-      </c>
-      <c r="B61">
-        <v>1</v>
-      </c>
-      <c r="C61" t="s">
-        <v>7</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="G61" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A62">
-        <v>551</v>
-      </c>
-      <c r="B62">
-        <v>1</v>
-      </c>
-      <c r="C62" t="s">
-        <v>7</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="G62" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A63">
-        <v>552</v>
-      </c>
-      <c r="B63">
-        <v>1</v>
-      </c>
-      <c r="C63" t="s">
-        <v>7</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="G63" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A64">
-        <v>553</v>
-      </c>
-      <c r="B64">
-        <v>1</v>
-      </c>
-      <c r="C64" t="s">
-        <v>7</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="G64" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A65">
-        <v>554</v>
-      </c>
-      <c r="B65">
-        <v>1</v>
-      </c>
-      <c r="C65" t="s">
-        <v>7</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="G65" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A66">
-        <v>555</v>
-      </c>
-      <c r="B66">
-        <v>1</v>
-      </c>
-      <c r="C66" t="s">
-        <v>7</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="G66" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A67">
-        <v>572</v>
-      </c>
-      <c r="B67">
-        <v>1</v>
-      </c>
-      <c r="C67" t="s">
-        <v>7</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="G67" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A68">
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" t="n">
         <v>586</v>
       </c>
-      <c r="B68">
+      <c r="B68" t="n">
         <v>1</v>
       </c>
       <c r="C68" t="s">
         <v>7</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G68" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A69">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" t="n">
         <v>587</v>
       </c>
-      <c r="B69">
+      <c r="B69" t="n">
         <v>1</v>
       </c>
       <c r="C69" t="s">
         <v>7</v>
       </c>
       <c r="D69" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="G69" t="s">
         <v>152</v>
       </c>
-      <c r="E69" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="G69" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A70">
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" t="n">
         <v>588</v>
       </c>
-      <c r="B70">
+      <c r="B70" t="n">
         <v>1</v>
       </c>
       <c r="C70" t="s">
         <v>7</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G70" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A71">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" t="n">
         <v>606</v>
       </c>
-      <c r="B71">
+      <c r="B71" t="n">
         <v>1</v>
       </c>
       <c r="C71" t="s">
         <v>7</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G71" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A72">
+    <row r="72" spans="1:7">
+      <c r="A72" t="n">
         <v>596</v>
       </c>
-      <c r="B72">
+      <c r="B72" t="n">
         <v>1</v>
       </c>
       <c r="C72" t="s">
         <v>7</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G72" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A73">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" t="n">
         <v>597</v>
       </c>
-      <c r="B73">
+      <c r="B73" t="n">
         <v>1</v>
       </c>
       <c r="C73" t="s">
         <v>7</v>
       </c>
       <c r="D73" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="G73" t="s">
         <v>161</v>
       </c>
-      <c r="E73" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="G73" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A74">
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" t="n">
         <v>613</v>
       </c>
-      <c r="B74">
+      <c r="B74" t="n">
         <v>1</v>
       </c>
       <c r="C74" t="s">
         <v>7</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G74" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A75">
+    <row r="75" spans="1:7">
+      <c r="A75" t="n">
         <v>614</v>
       </c>
-      <c r="B75">
+      <c r="B75" t="n">
         <v>1</v>
       </c>
       <c r="C75" t="s">
         <v>7</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G75" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A76">
+    <row r="76" spans="1:7">
+      <c r="A76" t="n">
         <v>615</v>
       </c>
-      <c r="B76">
+      <c r="B76" t="n">
         <v>1</v>
       </c>
       <c r="C76" t="s">
         <v>7</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G76" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A77">
+    <row r="77" spans="1:7">
+      <c r="A77" t="n">
         <v>616</v>
       </c>
-      <c r="B77">
+      <c r="B77" t="n">
         <v>1</v>
       </c>
       <c r="C77" t="s">
         <v>7</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G77" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A78">
+    <row r="78" spans="1:7">
+      <c r="A78" t="n">
         <v>617</v>
       </c>
-      <c r="B78">
+      <c r="B78" t="n">
         <v>1</v>
       </c>
       <c r="C78" t="s">
         <v>7</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G78" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A79">
+    <row r="79" spans="1:7">
+      <c r="A79" t="n">
         <v>626</v>
       </c>
-      <c r="B79">
+      <c r="B79" t="n">
         <v>1</v>
       </c>
       <c r="C79" t="s">
         <v>7</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G79" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A80">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" t="n">
         <v>627</v>
       </c>
-      <c r="B80">
+      <c r="B80" t="n">
         <v>1</v>
       </c>
       <c r="C80" t="s">
         <v>7</v>
       </c>
       <c r="D80" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="G80" t="s">
         <v>176</v>
       </c>
-      <c r="E80" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="G80" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A81">
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" t="n">
         <v>628</v>
       </c>
-      <c r="B81">
+      <c r="B81" t="n">
         <v>1</v>
       </c>
       <c r="C81" t="s">
         <v>7</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G81" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A82">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" t="n">
         <v>629</v>
       </c>
-      <c r="B82">
+      <c r="B82" t="n">
         <v>1</v>
       </c>
       <c r="C82" t="s">
         <v>7</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G82" t="s">
-        <v>175</v>
-      </c>
-    </row>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="6">
+    <cfRule priority="6" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2709,7 +2700,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="5">
+    <cfRule priority="5" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2721,7 +2712,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2732,7 +2723,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Popular 1000.xlsx
+++ b/Questions/English/Popular 1000.xlsx
@@ -465,11 +465,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G87"/>
+  <dimension ref="A1:G88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
@@ -1863,7 +1863,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>511</v>
+        <v>681</v>
       </c>
       <c r="B51" t="n">
         <v>1</v>
@@ -1875,23 +1875,23 @@
       </c>
       <c r="D51" s="5" t="inlineStr">
         <is>
-          <t>לחבב</t>
+          <t>כמו aXXX; lXXX; sXXX</t>
         </is>
       </c>
       <c r="E51" s="5" t="inlineStr">
         <is>
-          <t>to like</t>
+          <t>as; like; such</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>200519</t>
+          <t>200616</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B52" t="n">
         <v>1</v>
@@ -1903,12 +1903,12 @@
       </c>
       <c r="D52" s="5" t="inlineStr">
         <is>
-          <t>לדעת</t>
+          <t>לחבב</t>
         </is>
       </c>
       <c r="E52" s="5" t="inlineStr">
         <is>
-          <t>to know</t>
+          <t>to like</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -1919,7 +1919,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B53" t="n">
         <v>1</v>
@@ -1931,12 +1931,12 @@
       </c>
       <c r="D53" s="5" t="inlineStr">
         <is>
-          <t>אם *****i</t>
+          <t>לדעת</t>
         </is>
       </c>
       <c r="E53" s="5" t="inlineStr">
         <is>
-          <t>if</t>
+          <t>to know</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -1947,7 +1947,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B54" t="n">
         <v>1</v>
@@ -1959,12 +1959,12 @@
       </c>
       <c r="D54" s="5" t="inlineStr">
         <is>
-          <t>לי</t>
+          <t>אם *****i</t>
         </is>
       </c>
       <c r="E54" s="5" t="inlineStr">
         <is>
-          <t>me</t>
+          <t>if</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -1975,7 +1975,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B55" t="n">
         <v>1</v>
@@ -1987,12 +1987,12 @@
       </c>
       <c r="D55" s="5" t="inlineStr">
         <is>
-          <t>שלך r*****</t>
+          <t>לי</t>
         </is>
       </c>
       <c r="E55" s="5" t="inlineStr">
         <is>
-          <t>your</t>
+          <t>me</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -2003,7 +2003,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>571</v>
+        <v>515</v>
       </c>
       <c r="B56" t="n">
         <v>1</v>
@@ -2015,23 +2015,23 @@
       </c>
       <c r="D56" s="5" t="inlineStr">
         <is>
-          <t>שלך s*****</t>
+          <t>שלך r*****</t>
         </is>
       </c>
       <c r="E56" s="5" t="inlineStr">
         <is>
-          <t>yours</t>
+          <t>your</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>200524</t>
+          <t>200519</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>516</v>
+        <v>571</v>
       </c>
       <c r="B57" t="n">
         <v>1</v>
@@ -2043,23 +2043,23 @@
       </c>
       <c r="D57" s="5" t="inlineStr">
         <is>
-          <t>כל, כל אחד y*****</t>
+          <t>שלך s*****</t>
         </is>
       </c>
       <c r="E57" s="5" t="inlineStr">
         <is>
-          <t>every</t>
+          <t>yours</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>200519</t>
+          <t>200524</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B58" t="n">
         <v>1</v>
@@ -2071,12 +2071,12 @@
       </c>
       <c r="D58" s="5" t="inlineStr">
         <is>
-          <t>כל, כל אחד h*****</t>
+          <t>כל, כל אחד y*****</t>
         </is>
       </c>
       <c r="E58" s="5" t="inlineStr">
         <is>
-          <t>each</t>
+          <t>every</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -2087,7 +2087,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B59" t="n">
         <v>1</v>
@@ -2099,12 +2099,12 @@
       </c>
       <c r="D59" s="5" t="inlineStr">
         <is>
-          <t>כלשהו, איזשהו</t>
+          <t>כל, כל אחד h*****</t>
         </is>
       </c>
       <c r="E59" s="5" t="inlineStr">
         <is>
-          <t>any</t>
+          <t>each</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -2115,7 +2115,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B60" t="n">
         <v>1</v>
@@ -2127,12 +2127,12 @@
       </c>
       <c r="D60" s="5" t="inlineStr">
         <is>
-          <t>כל *****a</t>
+          <t>כלשהו, איזשהו</t>
         </is>
       </c>
       <c r="E60" s="5" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>any</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -2143,7 +2143,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>550</v>
+        <v>519</v>
       </c>
       <c r="B61" t="n">
         <v>1</v>
@@ -2155,23 +2155,23 @@
       </c>
       <c r="D61" s="5" t="inlineStr">
         <is>
-          <t>מי</t>
+          <t>כל *****a</t>
         </is>
       </c>
       <c r="E61" s="5" t="inlineStr">
         <is>
-          <t>who</t>
+          <t>all</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>200520</t>
+          <t>200519</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B62" t="n">
         <v>1</v>
@@ -2183,12 +2183,12 @@
       </c>
       <c r="D62" s="5" t="inlineStr">
         <is>
-          <t>אודות</t>
+          <t>מי</t>
         </is>
       </c>
       <c r="E62" s="5" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>who</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -2199,7 +2199,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B63" t="n">
         <v>1</v>
@@ -2211,12 +2211,12 @@
       </c>
       <c r="D63" s="5" t="inlineStr">
         <is>
-          <t>שלהם</t>
+          <t>אודות</t>
         </is>
       </c>
       <c r="E63" s="5" t="inlineStr">
         <is>
-          <t>their</t>
+          <t>about</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -2227,7 +2227,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B64" t="n">
         <v>1</v>
@@ -2239,12 +2239,12 @@
       </c>
       <c r="D64" s="5" t="inlineStr">
         <is>
-          <t>רצון</t>
+          <t>שלהם</t>
         </is>
       </c>
       <c r="E64" s="5" t="inlineStr">
         <is>
-          <t>will</t>
+          <t>their</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -2255,7 +2255,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B65" t="n">
         <v>1</v>
@@ -2267,12 +2267,12 @@
       </c>
       <c r="D65" s="5" t="inlineStr">
         <is>
-          <t>כל כך *****s</t>
+          <t>רצון</t>
         </is>
       </c>
       <c r="E65" s="5" t="inlineStr">
         <is>
-          <t>so</t>
+          <t>will</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -2283,7 +2283,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B66" t="n">
         <v>1</v>
@@ -2295,12 +2295,12 @@
       </c>
       <c r="D66" s="5" t="inlineStr">
         <is>
-          <t>לספר</t>
+          <t>כל כך *****s</t>
         </is>
       </c>
       <c r="E66" s="5" t="inlineStr">
         <is>
-          <t>to tell</t>
+          <t>so</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -2311,7 +2311,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>572</v>
+        <v>555</v>
       </c>
       <c r="B67" t="n">
         <v>1</v>
@@ -2323,23 +2323,23 @@
       </c>
       <c r="D67" s="5" t="inlineStr">
         <is>
-          <t>קו</t>
+          <t>לספר</t>
         </is>
       </c>
       <c r="E67" s="5" t="inlineStr">
         <is>
-          <t>line</t>
+          <t>to tell</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>200524</t>
+          <t>200520</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>586</v>
+        <v>572</v>
       </c>
       <c r="B68" t="n">
         <v>1</v>
@@ -2351,23 +2351,23 @@
       </c>
       <c r="D68" s="5" t="inlineStr">
         <is>
-          <t>שולחן</t>
+          <t>קו</t>
         </is>
       </c>
       <c r="E68" s="5" t="inlineStr">
         <is>
-          <t>table</t>
+          <t>line</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>200526</t>
+          <t>200524</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B69" t="n">
         <v>1</v>
@@ -2379,12 +2379,12 @@
       </c>
       <c r="D69" s="5" t="inlineStr">
         <is>
-          <t>ליפול</t>
+          <t>שולחן</t>
         </is>
       </c>
       <c r="E69" s="5" t="inlineStr">
         <is>
-          <t>to fall</t>
+          <t>table</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -2395,7 +2395,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B70" t="n">
         <v>1</v>
@@ -2407,12 +2407,12 @@
       </c>
       <c r="D70" s="5" t="inlineStr">
         <is>
-          <t>סתיו *****f</t>
+          <t>ליפול</t>
         </is>
       </c>
       <c r="E70" s="5" t="inlineStr">
         <is>
-          <t>fall</t>
+          <t>to fall</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -2423,7 +2423,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>606</v>
+        <v>588</v>
       </c>
       <c r="B71" t="n">
         <v>1</v>
@@ -2435,23 +2435,23 @@
       </c>
       <c r="D71" s="5" t="inlineStr">
         <is>
-          <t>סתיו aXXXXX, fXXXXX</t>
+          <t>סתיו *****f</t>
         </is>
       </c>
       <c r="E71" s="5" t="inlineStr">
         <is>
-          <t>autumn, fall</t>
+          <t>fall</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>200531</t>
+          <t>200526</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>596</v>
+        <v>606</v>
       </c>
       <c r="B72" t="n">
         <v>1</v>
@@ -2463,23 +2463,23 @@
       </c>
       <c r="D72" s="5" t="inlineStr">
         <is>
-          <t>היום</t>
+          <t>סתיו aXXXXX; fXXXXX</t>
         </is>
       </c>
       <c r="E72" s="5" t="inlineStr">
         <is>
-          <t>today</t>
+          <t>autumn; fall</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>200530</t>
+          <t>200531</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B73" t="n">
         <v>1</v>
@@ -2491,12 +2491,12 @@
       </c>
       <c r="D73" s="5" t="inlineStr">
         <is>
-          <t>ארוך</t>
+          <t>היום</t>
         </is>
       </c>
       <c r="E73" s="5" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>today</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -2507,7 +2507,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>613</v>
+        <v>597</v>
       </c>
       <c r="B74" t="n">
         <v>1</v>
@@ -2519,23 +2519,23 @@
       </c>
       <c r="D74" s="5" t="inlineStr">
         <is>
-          <t>ילד/ה *****c</t>
+          <t>ארוך</t>
         </is>
       </c>
       <c r="E74" s="5" t="inlineStr">
         <is>
-          <t>child</t>
+          <t>long</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>200531</t>
+          <t>200530</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B75" t="n">
         <v>1</v>
@@ -2547,12 +2547,12 @@
       </c>
       <c r="D75" s="5" t="inlineStr">
         <is>
-          <t>ילד/ה *****k</t>
+          <t>ילד/ה *****c</t>
         </is>
       </c>
       <c r="E75" s="5" t="inlineStr">
         <is>
-          <t>kid</t>
+          <t>child</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -2563,7 +2563,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B76" t="n">
         <v>1</v>
@@ -2575,12 +2575,12 @@
       </c>
       <c r="D76" s="5" t="inlineStr">
         <is>
-          <t>ילד/ה cxxxxx; kxxxxx</t>
+          <t>ילד/ה *****k</t>
         </is>
       </c>
       <c r="E76" s="5" t="inlineStr">
         <is>
-          <t>child; kid</t>
+          <t>kid</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -2591,7 +2591,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B77" t="n">
         <v>1</v>
@@ -2603,12 +2603,12 @@
       </c>
       <c r="D77" s="5" t="inlineStr">
         <is>
-          <t>ילד</t>
+          <t>ילד/ה cxxxxx; kxxxxx</t>
         </is>
       </c>
       <c r="E77" s="5" t="inlineStr">
         <is>
-          <t>boy</t>
+          <t>child; kid</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -2619,7 +2619,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B78" t="n">
         <v>1</v>
@@ -2631,12 +2631,12 @@
       </c>
       <c r="D78" s="5" t="inlineStr">
         <is>
-          <t>ילדה</t>
+          <t>ילד</t>
         </is>
       </c>
       <c r="E78" s="5" t="inlineStr">
         <is>
-          <t>girl</t>
+          <t>boy</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -2647,7 +2647,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="B79" t="n">
         <v>1</v>
@@ -2659,23 +2659,23 @@
       </c>
       <c r="D79" s="5" t="inlineStr">
         <is>
-          <t>יכולת *****a</t>
+          <t>ילדה</t>
         </is>
       </c>
       <c r="E79" s="5" t="inlineStr">
         <is>
-          <t>ability</t>
+          <t>girl</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>200608</t>
+          <t>200531</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B80" t="n">
         <v>1</v>
@@ -2687,12 +2687,12 @@
       </c>
       <c r="D80" s="5" t="inlineStr">
         <is>
-          <t>יכולת (פוטנציאל) *****c</t>
+          <t>יכולת *****a</t>
         </is>
       </c>
       <c r="E80" s="5" t="inlineStr">
         <is>
-          <t>capability</t>
+          <t>ability</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -2703,7 +2703,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B81" t="n">
         <v>1</v>
@@ -2715,12 +2715,12 @@
       </c>
       <c r="D81" s="5" t="inlineStr">
         <is>
-          <t>גבוה (לא בן אדם)</t>
+          <t>יכולת (פוטנציאל) *****c</t>
         </is>
       </c>
       <c r="E81" s="5" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>capability</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -2731,7 +2731,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B82" t="n">
         <v>1</v>
@@ -2743,12 +2743,12 @@
       </c>
       <c r="D82" s="5" t="inlineStr">
         <is>
-          <t>גבוה (בן אדם או חפץ גבוה ורזה)</t>
+          <t>גבוה (לא בן אדם)</t>
         </is>
       </c>
       <c r="E82" s="5" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>high</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -2759,7 +2759,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>659</v>
+        <v>629</v>
       </c>
       <c r="B83" t="n">
         <v>1</v>
@@ -2771,23 +2771,23 @@
       </c>
       <c r="D83" s="5" t="inlineStr">
         <is>
-          <t>לכרות (לחפור באדמה), למקש</t>
+          <t>גבוה (בן אדם או חפץ גבוה ורזה)</t>
         </is>
       </c>
       <c r="E83" s="5" t="inlineStr">
         <is>
-          <t>to mine</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>200615</t>
+          <t>200608</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B84" t="n">
         <v>1</v>
@@ -2799,12 +2799,12 @@
       </c>
       <c r="D84" s="5" t="inlineStr">
         <is>
-          <t>מוקש</t>
+          <t>לכרות (לחפור באדמה), למקש</t>
         </is>
       </c>
       <c r="E84" s="5" t="inlineStr">
         <is>
-          <t>mine</t>
+          <t>to mine</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -2815,7 +2815,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="B85" t="n">
         <v>1</v>
@@ -2827,12 +2827,12 @@
       </c>
       <c r="D85" s="5" t="inlineStr">
         <is>
-          <t>קצר</t>
+          <t>מוקש</t>
         </is>
       </c>
       <c r="E85" s="5" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>mine</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -2843,33 +2843,61 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
+        <v>664</v>
+      </c>
+      <c r="B86" t="n">
+        <v>1</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D86" s="5" t="inlineStr">
+        <is>
+          <t>קצר</t>
+        </is>
+      </c>
+      <c r="E86" s="5" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>200615</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
         <v>665</v>
       </c>
-      <c r="B86" t="n">
-        <v>1</v>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D86" s="5" t="inlineStr">
+      <c r="B87" t="n">
+        <v>1</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D87" s="5" t="inlineStr">
         <is>
           <t>מכנסיים קצרים *****</t>
         </is>
       </c>
-      <c r="E86" s="5" t="inlineStr">
+      <c r="E87" s="5" t="inlineStr">
         <is>
           <t>shorts</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>200615</t>
         </is>
       </c>
     </row>
-    <row r="87"/>
+    <row r="88"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="6">

--- a/Questions/English/Popular 1000.xlsx
+++ b/Questions/English/Popular 1000.xlsx
@@ -465,11 +465,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G88"/>
+  <dimension ref="A1:G97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E82" sqref="E82"/>
+      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
@@ -1004,86 +1004,90 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="n">
+      <c r="A20" t="n">
+        <v>709</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="inlineStr">
+        <is>
+          <t>לעשות, להכין to m</t>
+        </is>
+      </c>
+      <c r="E20" s="5" t="inlineStr">
+        <is>
+          <t>to make</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>200617</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="14.4" customHeight="1">
+      <c r="A21" s="3" t="n">
         <v>219</v>
       </c>
-      <c r="B20" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D20" s="5" t="inlineStr">
-        <is>
-          <t>לעשות</t>
-        </is>
-      </c>
-      <c r="E20" s="5" t="inlineStr">
+      <c r="B21" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D21" s="5" t="inlineStr">
+        <is>
+          <t>לעשות to d</t>
+        </is>
+      </c>
+      <c r="E21" s="5" t="inlineStr">
         <is>
           <t>to do</t>
         </is>
       </c>
-      <c r="G20" s="12" t="n">
+      <c r="G21" s="12" t="n">
         <v>210214</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="3" t="n">
-        <v>220</v>
-      </c>
-      <c r="B21" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D21" s="5" t="inlineStr">
-        <is>
-          <t>הוא</t>
-        </is>
-      </c>
-      <c r="E21" s="5" t="inlineStr">
-        <is>
-          <t>he</t>
-        </is>
-      </c>
-      <c r="G21" s="12" t="n">
-        <v>210218</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="3" t="n">
-        <v>221</v>
-      </c>
-      <c r="B22" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C22" s="8" t="inlineStr">
+    <row r="22" ht="14.4" customHeight="1">
+      <c r="A22" t="n">
+        <v>710</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
       <c r="D22" s="5" t="inlineStr">
         <is>
-          <t>עם ***w</t>
+          <t>לעשות to d; to m</t>
         </is>
       </c>
       <c r="E22" s="5" t="inlineStr">
         <is>
-          <t>with</t>
-        </is>
-      </c>
-      <c r="G22" s="12" t="n">
-        <v>210218</v>
+          <t>to do; to make</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>200617</t>
+        </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B23" s="8" t="n">
         <v>1</v>
@@ -1095,12 +1099,12 @@
       </c>
       <c r="D23" s="5" t="inlineStr">
         <is>
-          <t>על *o</t>
+          <t>הוא</t>
         </is>
       </c>
       <c r="E23" s="5" t="inlineStr">
         <is>
-          <t>on</t>
+          <t>he</t>
         </is>
       </c>
       <c r="G23" s="12" t="n">
@@ -1109,7 +1113,7 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B24" s="8" t="n">
         <v>1</v>
@@ -1121,12 +1125,12 @@
       </c>
       <c r="D24" s="5" t="inlineStr">
         <is>
-          <t>אנחנו</t>
+          <t>עם ***w</t>
         </is>
       </c>
       <c r="E24" s="5" t="inlineStr">
         <is>
-          <t>we</t>
+          <t>with</t>
         </is>
       </c>
       <c r="G24" s="12" t="n">
@@ -1134,64 +1138,60 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
-        <v>332</v>
-      </c>
-      <c r="B25" t="n">
-        <v>1</v>
-      </c>
-      <c r="C25" t="inlineStr">
+      <c r="A25" s="3" t="n">
+        <v>222</v>
+      </c>
+      <c r="B25" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" s="8" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
       <c r="D25" s="5" t="inlineStr">
         <is>
-          <t>אבל / אולם</t>
+          <t>על *o</t>
         </is>
       </c>
       <c r="E25" s="5" t="inlineStr">
         <is>
-          <t>but</t>
-        </is>
-      </c>
-      <c r="G25" s="13" t="inlineStr">
-        <is>
-          <t>200420</t>
-        </is>
+          <t>on</t>
+        </is>
+      </c>
+      <c r="G25" s="12" t="n">
+        <v>210218</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
-        <v>334</v>
-      </c>
-      <c r="B26" t="n">
-        <v>1</v>
-      </c>
-      <c r="C26" t="inlineStr">
+      <c r="A26" s="3" t="n">
+        <v>223</v>
+      </c>
+      <c r="B26" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" s="8" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
       <c r="D26" s="5" t="inlineStr">
         <is>
-          <t>הם</t>
+          <t>אנחנו</t>
         </is>
       </c>
       <c r="E26" s="5" t="inlineStr">
         <is>
-          <t>they</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>200420</t>
-        </is>
+          <t>we</t>
+        </is>
+      </c>
+      <c r="G26" s="12" t="n">
+        <v>210218</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>367</v>
+        <v>332</v>
       </c>
       <c r="B27" t="n">
         <v>1</v>
@@ -1203,23 +1203,23 @@
       </c>
       <c r="D27" s="5" t="inlineStr">
         <is>
-          <t>להגיד</t>
+          <t>אבל / אולם</t>
         </is>
       </c>
       <c r="E27" s="5" t="inlineStr">
         <is>
-          <t>to say</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>200503</t>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="G27" s="13" t="inlineStr">
+        <is>
+          <t>200420</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>368</v>
+        <v>334</v>
       </c>
       <c r="B28" t="n">
         <v>1</v>
@@ -1231,23 +1231,23 @@
       </c>
       <c r="D28" s="5" t="inlineStr">
         <is>
-          <t>מה</t>
+          <t>הם</t>
         </is>
       </c>
       <c r="E28" s="5" t="inlineStr">
         <is>
-          <t>what</t>
+          <t>they</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>200503</t>
+          <t>200420</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>394</v>
+        <v>367</v>
       </c>
       <c r="B29" t="n">
         <v>1</v>
@@ -1259,23 +1259,23 @@
       </c>
       <c r="D29" s="5" t="inlineStr">
         <is>
-          <t>רוב *****mo</t>
+          <t>להגיד</t>
         </is>
       </c>
       <c r="E29" s="5" t="inlineStr">
         <is>
-          <t>most</t>
+          <t>to say</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>200504</t>
+          <t>200503</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>395</v>
+        <v>368</v>
       </c>
       <c r="B30" t="n">
         <v>1</v>
@@ -1287,23 +1287,23 @@
       </c>
       <c r="D30" s="5" t="inlineStr">
         <is>
-          <t>רוב *****ma</t>
+          <t>מה</t>
         </is>
       </c>
       <c r="E30" s="5" t="inlineStr">
         <is>
-          <t>majority</t>
+          <t>what</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>200504</t>
+          <t>200503</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="B31" t="n">
         <v>1</v>
@@ -1315,12 +1315,12 @@
       </c>
       <c r="D31" s="5" t="inlineStr">
         <is>
-          <t>זמין</t>
+          <t>רוב *****mo</t>
         </is>
       </c>
       <c r="E31" s="5" t="inlineStr">
         <is>
-          <t>available</t>
+          <t>most</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1331,7 +1331,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="B32" t="n">
         <v>1</v>
@@ -1343,12 +1343,12 @@
       </c>
       <c r="D32" s="5" t="inlineStr">
         <is>
-          <t>תהליך</t>
+          <t>רוב *****ma</t>
         </is>
       </c>
       <c r="E32" s="5" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>majority</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1359,7 +1359,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="B33" t="n">
         <v>1</v>
@@ -1371,12 +1371,12 @@
       </c>
       <c r="D33" s="5" t="inlineStr">
         <is>
-          <t>ראשון</t>
+          <t>זמין</t>
         </is>
       </c>
       <c r="E33" s="5" t="inlineStr">
         <is>
-          <t>first</t>
+          <t>available</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1387,7 +1387,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="B34" t="n">
         <v>1</v>
@@ -1399,12 +1399,12 @@
       </c>
       <c r="D34" s="5" t="inlineStr">
         <is>
-          <t>דף, עמוד</t>
+          <t>תהליך</t>
         </is>
       </c>
       <c r="E34" s="5" t="inlineStr">
         <is>
-          <t>page</t>
+          <t>process</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -1415,7 +1415,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B35" t="n">
         <v>1</v>
@@ -1427,12 +1427,12 @@
       </c>
       <c r="D35" s="5" t="inlineStr">
         <is>
-          <t>מבנה *****s</t>
+          <t>ראשון</t>
         </is>
       </c>
       <c r="E35" s="5" t="inlineStr">
         <is>
-          <t>structure</t>
+          <t>first</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -1443,7 +1443,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B36" t="n">
         <v>1</v>
@@ -1455,12 +1455,12 @@
       </c>
       <c r="D36" s="5" t="inlineStr">
         <is>
-          <t>הכי ***** *****</t>
+          <t>דף, עמוד</t>
         </is>
       </c>
       <c r="E36" s="5" t="inlineStr">
         <is>
-          <t>the most</t>
+          <t>page</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -1471,7 +1471,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>477</v>
+        <v>429</v>
       </c>
       <c r="B37" t="n">
         <v>1</v>
@@ -1483,23 +1483,23 @@
       </c>
       <c r="D37" s="5" t="inlineStr">
         <is>
-          <t>שלו</t>
+          <t>מבנה *****s</t>
         </is>
       </c>
       <c r="E37" s="5" t="inlineStr">
         <is>
-          <t>his</t>
+          <t>structure</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>200505</t>
+          <t>200504</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>478</v>
+        <v>430</v>
       </c>
       <c r="B38" t="n">
         <v>1</v>
@@ -1511,23 +1511,23 @@
       </c>
       <c r="D38" s="5" t="inlineStr">
         <is>
-          <t>מ</t>
+          <t>הכי ***** *****</t>
         </is>
       </c>
       <c r="E38" s="5" t="inlineStr">
         <is>
-          <t>from</t>
+          <t>the most</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>200505</t>
+          <t>200504</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B39" t="n">
         <v>1</v>
@@ -1539,12 +1539,12 @@
       </c>
       <c r="D39" s="5" t="inlineStr">
         <is>
-          <t>ללכת to g</t>
+          <t>שלו</t>
         </is>
       </c>
       <c r="E39" s="5" t="inlineStr">
         <is>
-          <t>to go</t>
+          <t>his</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -1555,7 +1555,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B40" t="n">
         <v>1</v>
@@ -1567,12 +1567,12 @@
       </c>
       <c r="D40" s="5" t="inlineStr">
         <is>
-          <t>ללכת to w</t>
+          <t>מ</t>
         </is>
       </c>
       <c r="E40" s="5" t="inlineStr">
         <is>
-          <t>to walk</t>
+          <t>from</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -1583,7 +1583,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B41" t="n">
         <v>1</v>
@@ -1595,12 +1595,12 @@
       </c>
       <c r="D41" s="5" t="inlineStr">
         <is>
-          <t>או</t>
+          <t>ללכת to g</t>
         </is>
       </c>
       <c r="E41" s="5" t="inlineStr">
         <is>
-          <t>or</t>
+          <t>to go</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -1611,7 +1611,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B42" t="n">
         <v>1</v>
@@ -1623,12 +1623,12 @@
       </c>
       <c r="D42" s="5" t="inlineStr">
         <is>
-          <t>על ידי</t>
+          <t>ללכת to w</t>
         </is>
       </c>
       <c r="E42" s="5" t="inlineStr">
         <is>
-          <t>by</t>
+          <t>to walk</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -1639,7 +1639,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B43" t="n">
         <v>1</v>
@@ -1651,12 +1651,12 @@
       </c>
       <c r="D43" s="5" t="inlineStr">
         <is>
-          <t>לקבל (להשיג) to g</t>
+          <t>או</t>
         </is>
       </c>
       <c r="E43" s="5" t="inlineStr">
         <is>
-          <t>to get</t>
+          <t>or</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -1667,7 +1667,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B44" t="n">
         <v>1</v>
@@ -1679,12 +1679,12 @@
       </c>
       <c r="D44" s="5" t="inlineStr">
         <is>
-          <t>לקבל (ממישהו) to r</t>
+          <t>על ידי</t>
         </is>
       </c>
       <c r="E44" s="5" t="inlineStr">
         <is>
-          <t>to receive</t>
+          <t>by</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -1695,7 +1695,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B45" t="n">
         <v>1</v>
@@ -1707,12 +1707,12 @@
       </c>
       <c r="D45" s="5" t="inlineStr">
         <is>
-          <t>היא</t>
+          <t>לקבל (להשיג) to g</t>
         </is>
       </c>
       <c r="E45" s="5" t="inlineStr">
         <is>
-          <t>she</t>
+          <t>to get</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -1723,7 +1723,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B46" t="n">
         <v>1</v>
@@ -1735,12 +1735,12 @@
       </c>
       <c r="D46" s="5" t="inlineStr">
         <is>
-          <t>שלי y*****</t>
+          <t>לקבל (ממישהו) to r</t>
         </is>
       </c>
       <c r="E46" s="5" t="inlineStr">
         <is>
-          <t>my</t>
+          <t>to receive</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -1751,7 +1751,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B47" t="n">
         <v>1</v>
@@ -1763,12 +1763,12 @@
       </c>
       <c r="D47" s="5" t="inlineStr">
         <is>
-          <t>שלי e*****</t>
+          <t>היא</t>
         </is>
       </c>
       <c r="E47" s="5" t="inlineStr">
         <is>
-          <t>mine</t>
+          <t>she</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -1779,7 +1779,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>508</v>
+        <v>486</v>
       </c>
       <c r="B48" t="n">
         <v>1</v>
@@ -1791,23 +1791,23 @@
       </c>
       <c r="D48" s="5" t="inlineStr">
         <is>
-          <t>כמו *****a</t>
+          <t>שלי y*****</t>
         </is>
       </c>
       <c r="E48" s="5" t="inlineStr">
         <is>
-          <t>as</t>
+          <t>my</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>200519</t>
+          <t>200505</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>509</v>
+        <v>487</v>
       </c>
       <c r="B49" t="n">
         <v>1</v>
@@ -1819,23 +1819,23 @@
       </c>
       <c r="D49" s="5" t="inlineStr">
         <is>
-          <t>כמו *****s</t>
+          <t>שלי e*****</t>
         </is>
       </c>
       <c r="E49" s="5" t="inlineStr">
         <is>
-          <t>such</t>
+          <t>mine</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>200519</t>
+          <t>200505</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B50" t="n">
         <v>1</v>
@@ -1847,12 +1847,12 @@
       </c>
       <c r="D50" s="5" t="inlineStr">
         <is>
-          <t>כמו *****l</t>
+          <t>כמו *****a</t>
         </is>
       </c>
       <c r="E50" s="5" t="inlineStr">
         <is>
-          <t>like</t>
+          <t>as</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -1863,7 +1863,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>681</v>
+        <v>509</v>
       </c>
       <c r="B51" t="n">
         <v>1</v>
@@ -1875,23 +1875,23 @@
       </c>
       <c r="D51" s="5" t="inlineStr">
         <is>
-          <t>כמו aXXX; lXXX; sXXX</t>
+          <t>כמו *****s</t>
         </is>
       </c>
       <c r="E51" s="5" t="inlineStr">
         <is>
-          <t>as; like; such</t>
+          <t>such</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>200616</t>
+          <t>200519</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B52" t="n">
         <v>1</v>
@@ -1903,12 +1903,12 @@
       </c>
       <c r="D52" s="5" t="inlineStr">
         <is>
-          <t>לחבב</t>
+          <t>כמו *****l</t>
         </is>
       </c>
       <c r="E52" s="5" t="inlineStr">
         <is>
-          <t>to like</t>
+          <t>like</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -1919,7 +1919,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>512</v>
+        <v>681</v>
       </c>
       <c r="B53" t="n">
         <v>1</v>
@@ -1931,23 +1931,23 @@
       </c>
       <c r="D53" s="5" t="inlineStr">
         <is>
-          <t>לדעת</t>
+          <t>כמו aXXX; lXXX; sXXX</t>
         </is>
       </c>
       <c r="E53" s="5" t="inlineStr">
         <is>
-          <t>to know</t>
+          <t>as; like; such</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>200519</t>
+          <t>200616</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B54" t="n">
         <v>1</v>
@@ -1959,12 +1959,12 @@
       </c>
       <c r="D54" s="5" t="inlineStr">
         <is>
-          <t>אם *****i</t>
+          <t>לחבב</t>
         </is>
       </c>
       <c r="E54" s="5" t="inlineStr">
         <is>
-          <t>if</t>
+          <t>to like</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -1975,7 +1975,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B55" t="n">
         <v>1</v>
@@ -1987,12 +1987,12 @@
       </c>
       <c r="D55" s="5" t="inlineStr">
         <is>
-          <t>לי</t>
+          <t>לדעת</t>
         </is>
       </c>
       <c r="E55" s="5" t="inlineStr">
         <is>
-          <t>me</t>
+          <t>to know</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -2003,7 +2003,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B56" t="n">
         <v>1</v>
@@ -2015,12 +2015,12 @@
       </c>
       <c r="D56" s="5" t="inlineStr">
         <is>
-          <t>שלך r*****</t>
+          <t>אם *****i</t>
         </is>
       </c>
       <c r="E56" s="5" t="inlineStr">
         <is>
-          <t>your</t>
+          <t>if</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -2031,7 +2031,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>571</v>
+        <v>514</v>
       </c>
       <c r="B57" t="n">
         <v>1</v>
@@ -2043,23 +2043,23 @@
       </c>
       <c r="D57" s="5" t="inlineStr">
         <is>
-          <t>שלך s*****</t>
+          <t>לי</t>
         </is>
       </c>
       <c r="E57" s="5" t="inlineStr">
         <is>
-          <t>yours</t>
+          <t>me</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>200524</t>
+          <t>200519</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B58" t="n">
         <v>1</v>
@@ -2071,12 +2071,12 @@
       </c>
       <c r="D58" s="5" t="inlineStr">
         <is>
-          <t>כל, כל אחד y*****</t>
+          <t>שלך r*****</t>
         </is>
       </c>
       <c r="E58" s="5" t="inlineStr">
         <is>
-          <t>every</t>
+          <t>your</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -2087,7 +2087,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>517</v>
+        <v>571</v>
       </c>
       <c r="B59" t="n">
         <v>1</v>
@@ -2099,23 +2099,23 @@
       </c>
       <c r="D59" s="5" t="inlineStr">
         <is>
-          <t>כל, כל אחד h*****</t>
+          <t>שלך s*****</t>
         </is>
       </c>
       <c r="E59" s="5" t="inlineStr">
         <is>
-          <t>each</t>
+          <t>yours</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>200519</t>
+          <t>200524</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B60" t="n">
         <v>1</v>
@@ -2127,12 +2127,12 @@
       </c>
       <c r="D60" s="5" t="inlineStr">
         <is>
-          <t>כלשהו, איזשהו</t>
+          <t>כל, כל אחד y*****</t>
         </is>
       </c>
       <c r="E60" s="5" t="inlineStr">
         <is>
-          <t>any</t>
+          <t>every</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -2143,7 +2143,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B61" t="n">
         <v>1</v>
@@ -2155,12 +2155,12 @@
       </c>
       <c r="D61" s="5" t="inlineStr">
         <is>
-          <t>כל *****a</t>
+          <t>כל, כל אחד h*****</t>
         </is>
       </c>
       <c r="E61" s="5" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>each</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -2171,7 +2171,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>550</v>
+        <v>518</v>
       </c>
       <c r="B62" t="n">
         <v>1</v>
@@ -2183,23 +2183,23 @@
       </c>
       <c r="D62" s="5" t="inlineStr">
         <is>
-          <t>מי</t>
+          <t>כלשהו, איזשהו</t>
         </is>
       </c>
       <c r="E62" s="5" t="inlineStr">
         <is>
-          <t>who</t>
+          <t>any</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>200520</t>
+          <t>200519</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>551</v>
+        <v>519</v>
       </c>
       <c r="B63" t="n">
         <v>1</v>
@@ -2211,23 +2211,23 @@
       </c>
       <c r="D63" s="5" t="inlineStr">
         <is>
-          <t>אודות</t>
+          <t>כל *****a</t>
         </is>
       </c>
       <c r="E63" s="5" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>all</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>200520</t>
+          <t>200519</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B64" t="n">
         <v>1</v>
@@ -2239,12 +2239,12 @@
       </c>
       <c r="D64" s="5" t="inlineStr">
         <is>
-          <t>שלהם</t>
+          <t>מי</t>
         </is>
       </c>
       <c r="E64" s="5" t="inlineStr">
         <is>
-          <t>their</t>
+          <t>who</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -2255,7 +2255,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B65" t="n">
         <v>1</v>
@@ -2267,12 +2267,12 @@
       </c>
       <c r="D65" s="5" t="inlineStr">
         <is>
-          <t>רצון</t>
+          <t>אודות</t>
         </is>
       </c>
       <c r="E65" s="5" t="inlineStr">
         <is>
-          <t>will</t>
+          <t>about</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -2283,7 +2283,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B66" t="n">
         <v>1</v>
@@ -2295,12 +2295,12 @@
       </c>
       <c r="D66" s="5" t="inlineStr">
         <is>
-          <t>כל כך *****s</t>
+          <t>שלהם</t>
         </is>
       </c>
       <c r="E66" s="5" t="inlineStr">
         <is>
-          <t>so</t>
+          <t>their</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -2311,7 +2311,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B67" t="n">
         <v>1</v>
@@ -2323,12 +2323,12 @@
       </c>
       <c r="D67" s="5" t="inlineStr">
         <is>
-          <t>לספר</t>
+          <t>רצון</t>
         </is>
       </c>
       <c r="E67" s="5" t="inlineStr">
         <is>
-          <t>to tell</t>
+          <t>will</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -2339,7 +2339,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>572</v>
+        <v>554</v>
       </c>
       <c r="B68" t="n">
         <v>1</v>
@@ -2351,23 +2351,23 @@
       </c>
       <c r="D68" s="5" t="inlineStr">
         <is>
-          <t>קו</t>
+          <t>כל כך *****s</t>
         </is>
       </c>
       <c r="E68" s="5" t="inlineStr">
         <is>
-          <t>line</t>
+          <t>so</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>200524</t>
+          <t>200520</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>586</v>
+        <v>555</v>
       </c>
       <c r="B69" t="n">
         <v>1</v>
@@ -2379,23 +2379,23 @@
       </c>
       <c r="D69" s="5" t="inlineStr">
         <is>
-          <t>שולחן</t>
+          <t>לספר</t>
         </is>
       </c>
       <c r="E69" s="5" t="inlineStr">
         <is>
-          <t>table</t>
+          <t>to tell</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>200526</t>
+          <t>200520</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>587</v>
+        <v>572</v>
       </c>
       <c r="B70" t="n">
         <v>1</v>
@@ -2407,23 +2407,23 @@
       </c>
       <c r="D70" s="5" t="inlineStr">
         <is>
-          <t>ליפול</t>
+          <t>קו</t>
         </is>
       </c>
       <c r="E70" s="5" t="inlineStr">
         <is>
-          <t>to fall</t>
+          <t>line</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>200526</t>
+          <t>200524</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B71" t="n">
         <v>1</v>
@@ -2435,12 +2435,12 @@
       </c>
       <c r="D71" s="5" t="inlineStr">
         <is>
-          <t>סתיו *****f</t>
+          <t>שולחן *****t</t>
         </is>
       </c>
       <c r="E71" s="5" t="inlineStr">
         <is>
-          <t>fall</t>
+          <t>table</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -2451,7 +2451,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>606</v>
+        <v>711</v>
       </c>
       <c r="B72" t="n">
         <v>1</v>
@@ -2463,26 +2463,26 @@
       </c>
       <c r="D72" s="5" t="inlineStr">
         <is>
-          <t>סתיו aXXXXX; fXXXXX</t>
+          <t>טבלה</t>
         </is>
       </c>
       <c r="E72" s="5" t="inlineStr">
         <is>
-          <t>autumn; fall</t>
+          <t>table</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>200531</t>
+          <t>200617</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>596</v>
+        <v>712</v>
       </c>
       <c r="B73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -2491,23 +2491,23 @@
       </c>
       <c r="D73" s="5" t="inlineStr">
         <is>
-          <t>היום</t>
+          <t>שולחן; טבלה</t>
         </is>
       </c>
       <c r="E73" s="5" t="inlineStr">
         <is>
-          <t>today</t>
+          <t>table; table</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>200530</t>
+          <t>200617</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>597</v>
+        <v>714</v>
       </c>
       <c r="B74" t="n">
         <v>1</v>
@@ -2519,23 +2519,23 @@
       </c>
       <c r="D74" s="5" t="inlineStr">
         <is>
-          <t>ארוך</t>
+          <t>שולחן כתיבה *****d</t>
         </is>
       </c>
       <c r="E74" s="5" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>desk</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>200530</t>
+          <t>200617</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>613</v>
+        <v>715</v>
       </c>
       <c r="B75" t="n">
         <v>1</v>
@@ -2547,23 +2547,23 @@
       </c>
       <c r="D75" s="5" t="inlineStr">
         <is>
-          <t>ילד/ה *****c</t>
+          <t>שולחן; שולחן כתיבה tXXXXX, dXXXXX</t>
         </is>
       </c>
       <c r="E75" s="5" t="inlineStr">
         <is>
-          <t>child</t>
+          <t>table; desk</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>200531</t>
+          <t>200617</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>614</v>
+        <v>587</v>
       </c>
       <c r="B76" t="n">
         <v>1</v>
@@ -2575,23 +2575,23 @@
       </c>
       <c r="D76" s="5" t="inlineStr">
         <is>
-          <t>ילד/ה *****k</t>
+          <t>ליפול</t>
         </is>
       </c>
       <c r="E76" s="5" t="inlineStr">
         <is>
-          <t>kid</t>
+          <t>to fall</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>200531</t>
+          <t>200526</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>615</v>
+        <v>588</v>
       </c>
       <c r="B77" t="n">
         <v>1</v>
@@ -2603,23 +2603,23 @@
       </c>
       <c r="D77" s="5" t="inlineStr">
         <is>
-          <t>ילד/ה cxxxxx; kxxxxx</t>
+          <t>סתיו *****f</t>
         </is>
       </c>
       <c r="E77" s="5" t="inlineStr">
         <is>
-          <t>child; kid</t>
+          <t>fall</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>200531</t>
+          <t>200526</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="B78" t="n">
         <v>1</v>
@@ -2631,12 +2631,12 @@
       </c>
       <c r="D78" s="5" t="inlineStr">
         <is>
-          <t>ילד</t>
+          <t>סתיו aXXXXX; fXXXXX</t>
         </is>
       </c>
       <c r="E78" s="5" t="inlineStr">
         <is>
-          <t>boy</t>
+          <t>autumn; fall</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -2647,7 +2647,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>617</v>
+        <v>596</v>
       </c>
       <c r="B79" t="n">
         <v>1</v>
@@ -2659,23 +2659,23 @@
       </c>
       <c r="D79" s="5" t="inlineStr">
         <is>
-          <t>ילדה</t>
+          <t>היום</t>
         </is>
       </c>
       <c r="E79" s="5" t="inlineStr">
         <is>
-          <t>girl</t>
+          <t>today</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>200531</t>
+          <t>200530</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>626</v>
+        <v>597</v>
       </c>
       <c r="B80" t="n">
         <v>1</v>
@@ -2687,23 +2687,23 @@
       </c>
       <c r="D80" s="5" t="inlineStr">
         <is>
-          <t>יכולת *****a</t>
+          <t>ארוך</t>
         </is>
       </c>
       <c r="E80" s="5" t="inlineStr">
         <is>
-          <t>ability</t>
+          <t>long</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>200608</t>
+          <t>200530</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>627</v>
+        <v>613</v>
       </c>
       <c r="B81" t="n">
         <v>1</v>
@@ -2715,23 +2715,23 @@
       </c>
       <c r="D81" s="5" t="inlineStr">
         <is>
-          <t>יכולת (פוטנציאל) *****c</t>
+          <t>ילד/ה *****c</t>
         </is>
       </c>
       <c r="E81" s="5" t="inlineStr">
         <is>
-          <t>capability</t>
+          <t>child</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>200608</t>
+          <t>200531</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>628</v>
+        <v>614</v>
       </c>
       <c r="B82" t="n">
         <v>1</v>
@@ -2743,23 +2743,23 @@
       </c>
       <c r="D82" s="5" t="inlineStr">
         <is>
-          <t>גבוה (לא בן אדם)</t>
+          <t>ילד/ה *****k</t>
         </is>
       </c>
       <c r="E82" s="5" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>kid</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>200608</t>
+          <t>200531</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>629</v>
+        <v>615</v>
       </c>
       <c r="B83" t="n">
         <v>1</v>
@@ -2771,23 +2771,23 @@
       </c>
       <c r="D83" s="5" t="inlineStr">
         <is>
-          <t>גבוה (בן אדם או חפץ גבוה ורזה)</t>
+          <t>ילד/ה cxxxxx; kxxxxx</t>
         </is>
       </c>
       <c r="E83" s="5" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>child; kid</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>200608</t>
+          <t>200531</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>659</v>
+        <v>616</v>
       </c>
       <c r="B84" t="n">
         <v>1</v>
@@ -2799,23 +2799,23 @@
       </c>
       <c r="D84" s="5" t="inlineStr">
         <is>
-          <t>לכרות (לחפור באדמה), למקש</t>
+          <t>ילד</t>
         </is>
       </c>
       <c r="E84" s="5" t="inlineStr">
         <is>
-          <t>to mine</t>
+          <t>boy</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>200615</t>
+          <t>200531</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>660</v>
+        <v>617</v>
       </c>
       <c r="B85" t="n">
         <v>1</v>
@@ -2827,23 +2827,23 @@
       </c>
       <c r="D85" s="5" t="inlineStr">
         <is>
-          <t>מוקש</t>
+          <t>ילדה</t>
         </is>
       </c>
       <c r="E85" s="5" t="inlineStr">
         <is>
-          <t>mine</t>
+          <t>girl</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>200615</t>
+          <t>200531</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>664</v>
+        <v>626</v>
       </c>
       <c r="B86" t="n">
         <v>1</v>
@@ -2855,49 +2855,301 @@
       </c>
       <c r="D86" s="5" t="inlineStr">
         <is>
-          <t>קצר</t>
+          <t>יכולת *****a</t>
         </is>
       </c>
       <c r="E86" s="5" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>ability</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>200615</t>
+          <t>200608</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
+        <v>627</v>
+      </c>
+      <c r="B87" t="n">
+        <v>1</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D87" s="5" t="inlineStr">
+        <is>
+          <t>יכולת (פוטנציאל) *****c</t>
+        </is>
+      </c>
+      <c r="E87" s="5" t="inlineStr">
+        <is>
+          <t>capability</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>200608</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>628</v>
+      </c>
+      <c r="B88" t="n">
+        <v>1</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D88" s="5" t="inlineStr">
+        <is>
+          <t>גבוה (לא בן אדם)</t>
+        </is>
+      </c>
+      <c r="E88" s="5" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>200608</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>629</v>
+      </c>
+      <c r="B89" t="n">
+        <v>1</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D89" s="5" t="inlineStr">
+        <is>
+          <t>גבוה (בן אדם או חפץ גבוה ורזה)</t>
+        </is>
+      </c>
+      <c r="E89" s="5" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>200608</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>659</v>
+      </c>
+      <c r="B90" t="n">
+        <v>1</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D90" s="5" t="inlineStr">
+        <is>
+          <t>לכרות (לחפור באדמה), למקש</t>
+        </is>
+      </c>
+      <c r="E90" s="5" t="inlineStr">
+        <is>
+          <t>to mine</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>200615</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>660</v>
+      </c>
+      <c r="B91" t="n">
+        <v>1</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D91" s="5" t="inlineStr">
+        <is>
+          <t>מוקש</t>
+        </is>
+      </c>
+      <c r="E91" s="5" t="inlineStr">
+        <is>
+          <t>mine</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>200615</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>664</v>
+      </c>
+      <c r="B92" t="n">
+        <v>1</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D92" s="5" t="inlineStr">
+        <is>
+          <t>קצר</t>
+        </is>
+      </c>
+      <c r="E92" s="5" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>200615</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
         <v>665</v>
       </c>
-      <c r="B87" t="n">
-        <v>1</v>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D87" s="5" t="inlineStr">
+      <c r="B93" t="n">
+        <v>1</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D93" s="5" t="inlineStr">
         <is>
           <t>מכנסיים קצרים *****</t>
         </is>
       </c>
-      <c r="E87" s="5" t="inlineStr">
+      <c r="E93" s="5" t="inlineStr">
         <is>
           <t>shorts</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>200615</t>
         </is>
       </c>
     </row>
-    <row r="88"/>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>719</v>
+      </c>
+      <c r="B94" t="n">
+        <v>1</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D94" s="5" t="inlineStr">
+        <is>
+          <t>כאן, פה</t>
+        </is>
+      </c>
+      <c r="E94" s="5" t="inlineStr">
+        <is>
+          <t>here</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>200617</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>733</v>
+      </c>
+      <c r="B95" t="n">
+        <v>1</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D95" s="5" t="inlineStr">
+        <is>
+          <t>רגע</t>
+        </is>
+      </c>
+      <c r="E95" s="5" t="inlineStr">
+        <is>
+          <t>moment</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>200617</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>734</v>
+      </c>
+      <c r="B96" t="n">
+        <v>1</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D96" s="5" t="inlineStr">
+        <is>
+          <t>זמן</t>
+        </is>
+      </c>
+      <c r="E96" s="5" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>200617</t>
+        </is>
+      </c>
+    </row>
+    <row r="97"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="6">

--- a/Questions/English/Popular 1000.xlsx
+++ b/Questions/English/Popular 1000.xlsx
@@ -465,11 +465,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G97"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D97" sqref="D97"/>
+      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D104" sqref="D104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
@@ -3149,7 +3149,203 @@
         </is>
       </c>
     </row>
-    <row r="97"/>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>778</v>
+      </c>
+      <c r="B97" t="n">
+        <v>1</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D97" s="5" t="inlineStr">
+        <is>
+          <t>מערכת</t>
+        </is>
+      </c>
+      <c r="E97" s="5" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>200623</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>779</v>
+      </c>
+      <c r="B98" t="n">
+        <v>1</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D98" s="5" t="inlineStr">
+        <is>
+          <t>ביחד</t>
+        </is>
+      </c>
+      <c r="E98" s="5" t="inlineStr">
+        <is>
+          <t>together</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>200623</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>780</v>
+      </c>
+      <c r="B99" t="n">
+        <v>1</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D99" s="5" t="inlineStr">
+        <is>
+          <t>רק *****o</t>
+        </is>
+      </c>
+      <c r="E99" s="5" t="inlineStr">
+        <is>
+          <t>only</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>200623</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>781</v>
+      </c>
+      <c r="B100" t="n">
+        <v>1</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D100" s="5" t="inlineStr">
+        <is>
+          <t>רק *****j</t>
+        </is>
+      </c>
+      <c r="E100" s="5" t="inlineStr">
+        <is>
+          <t>just</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>200623</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>782</v>
+      </c>
+      <c r="B101" t="n">
+        <v>1</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D101" s="5" t="inlineStr">
+        <is>
+          <t>רק oXXXXX; jXXXXX</t>
+        </is>
+      </c>
+      <c r="E101" s="5" t="inlineStr">
+        <is>
+          <t>only; just</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>200623</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>783</v>
+      </c>
+      <c r="B102" t="n">
+        <v>1</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D102" s="5" t="inlineStr">
+        <is>
+          <t>מבוגר</t>
+        </is>
+      </c>
+      <c r="E102" s="5" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>200623</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>784</v>
+      </c>
+      <c r="B103" t="n">
+        <v>1</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D103" s="5" t="inlineStr">
+        <is>
+          <t>שונה</t>
+        </is>
+      </c>
+      <c r="E103" s="5" t="inlineStr">
+        <is>
+          <t>different</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>200623</t>
+        </is>
+      </c>
+    </row>
+    <row r="104"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="6">

--- a/Questions/English/Popular 1000.xlsx
+++ b/Questions/English/Popular 1000.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,52 +149,120 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -467,22 +535,22 @@
   </sheetPr>
   <dimension ref="A1:G104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D104" sqref="D104"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A34" ySplit="1"/>
+      <selection activeCell="D45" pane="bottomLeft" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="3.8984375" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="3.8984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -548,7 +616,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3">
       <c r="A3" s="3" t="n">
         <v>203</v>
       </c>
@@ -577,7 +645,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="4">
       <c r="A4" s="3" t="n">
         <v>204</v>
       </c>
@@ -606,7 +674,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="5">
       <c r="A5" s="3" t="n">
         <v>205</v>
       </c>
@@ -635,7 +703,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="6">
       <c r="A6" s="3" t="n">
         <v>206</v>
       </c>
@@ -1031,7 +1099,7 @@
         </is>
       </c>
     </row>
-    <row r="21" ht="14.4" customHeight="1">
+    <row customHeight="1" ht="14.4" r="21">
       <c r="A21" s="3" t="n">
         <v>219</v>
       </c>
@@ -1057,7 +1125,7 @@
         <v>210214</v>
       </c>
     </row>
-    <row r="22" ht="14.4" customHeight="1">
+    <row customHeight="1" ht="14.4" r="22">
       <c r="A22" t="n">
         <v>710</v>
       </c>
@@ -1679,7 +1747,7 @@
       </c>
       <c r="D44" s="5" t="inlineStr">
         <is>
-          <t>על ידי</t>
+          <t>על ידי *****</t>
         </is>
       </c>
       <c r="E44" s="5" t="inlineStr">
@@ -3348,7 +3416,7 @@
     <row r="104"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="6">
+    <cfRule priority="6" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3360,7 +3428,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="5">
+    <cfRule priority="5" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3372,7 +3440,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3383,7 +3451,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Popular 1000.xlsx
+++ b/Questions/English/Popular 1000.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,120 +149,52 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -535,22 +467,22 @@
   </sheetPr>
   <dimension ref="A1:G104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A34" ySplit="1"/>
-      <selection activeCell="D45" pane="bottomLeft" sqref="D45"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="3.8984375"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
+    <col width="3.8984375" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -616,7 +548,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3">
+    <row r="3" ht="27.6" customHeight="1">
       <c r="A3" s="3" t="n">
         <v>203</v>
       </c>
@@ -645,7 +577,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="4">
+    <row r="4" ht="27.6" customHeight="1">
       <c r="A4" s="3" t="n">
         <v>204</v>
       </c>
@@ -674,7 +606,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="5">
+    <row r="5" ht="27.6" customHeight="1">
       <c r="A5" s="3" t="n">
         <v>205</v>
       </c>
@@ -703,7 +635,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="6">
+    <row r="6" ht="27.6" customHeight="1">
       <c r="A6" s="3" t="n">
         <v>206</v>
       </c>
@@ -1099,7 +1031,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="14.4" r="21">
+    <row r="21" ht="14.4" customHeight="1">
       <c r="A21" s="3" t="n">
         <v>219</v>
       </c>
@@ -1125,7 +1057,7 @@
         <v>210214</v>
       </c>
     </row>
-    <row customHeight="1" ht="14.4" r="22">
+    <row r="22" ht="14.4" customHeight="1">
       <c r="A22" t="n">
         <v>710</v>
       </c>
@@ -2615,7 +2547,7 @@
       </c>
       <c r="D75" s="5" t="inlineStr">
         <is>
-          <t>שולחן; שולחן כתיבה tXXXXX, dXXXXX</t>
+          <t>שולחן; שולחן כתיבה tXXXXX; dXXXXX</t>
         </is>
       </c>
       <c r="E75" s="5" t="inlineStr">
@@ -3416,7 +3348,7 @@
     <row r="104"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="6" type="colorScale">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3428,7 +3360,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="5" type="colorScale">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3440,7 +3372,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3451,7 +3383,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Popular 1000.xlsx
+++ b/Questions/English/Popular 1000.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,52 +149,120 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -467,22 +535,22 @@
   </sheetPr>
   <dimension ref="A1:G104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D76" sqref="D76"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A64" ySplit="1"/>
+      <selection activeCell="D76" pane="bottomLeft" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="3.8984375" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="3.8984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -548,7 +616,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3">
       <c r="A3" s="3" t="n">
         <v>203</v>
       </c>
@@ -577,7 +645,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="4">
       <c r="A4" s="3" t="n">
         <v>204</v>
       </c>
@@ -606,7 +674,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="5">
       <c r="A5" s="3" t="n">
         <v>205</v>
       </c>
@@ -635,7 +703,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="6">
       <c r="A6" s="3" t="n">
         <v>206</v>
       </c>
@@ -1031,7 +1099,7 @@
         </is>
       </c>
     </row>
-    <row r="21" ht="14.4" customHeight="1">
+    <row customHeight="1" ht="14.4" r="21">
       <c r="A21" s="3" t="n">
         <v>219</v>
       </c>
@@ -1057,7 +1125,7 @@
         <v>210214</v>
       </c>
     </row>
-    <row r="22" ht="14.4" customHeight="1">
+    <row customHeight="1" ht="14.4" r="22">
       <c r="A22" t="n">
         <v>710</v>
       </c>
@@ -3348,7 +3416,7 @@
     <row r="104"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="6">
+    <cfRule priority="6" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3360,7 +3428,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="5">
+    <cfRule priority="5" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3372,7 +3440,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3383,7 +3451,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Popular 1000.xlsx
+++ b/Questions/English/Popular 1000.xlsx
@@ -465,11 +465,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G122"/>
+  <dimension ref="A1:G130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D113" sqref="D113"/>
+      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E130" sqref="E130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
@@ -729,12 +729,12 @@
       </c>
       <c r="D9" s="5" t="inlineStr">
         <is>
-          <t>זה ixxxxx, xxxixxx, xxxaxxx</t>
+          <t>זה ixxxxx; xxxixxx; xxxaxxx</t>
         </is>
       </c>
       <c r="E9" s="5" t="inlineStr">
         <is>
-          <t>it, this, that</t>
+          <t>it; this; that</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -3849,7 +3849,231 @@
         </is>
       </c>
     </row>
-    <row r="122"/>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>913</v>
+      </c>
+      <c r="B122" t="n">
+        <v>1</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D122" s="5" t="inlineStr">
+        <is>
+          <t>שם *****t</t>
+        </is>
+      </c>
+      <c r="E122" s="5" t="inlineStr">
+        <is>
+          <t>there</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>200721</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>914</v>
+      </c>
+      <c r="B123" t="n">
+        <v>1</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D123" s="5" t="inlineStr">
+        <is>
+          <t>לראות to s</t>
+        </is>
+      </c>
+      <c r="E123" s="5" t="inlineStr">
+        <is>
+          <t>to see</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>200721</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>915</v>
+      </c>
+      <c r="B124" t="n">
+        <v>1</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D124" s="5" t="inlineStr">
+        <is>
+          <t>לראות to l</t>
+        </is>
+      </c>
+      <c r="E124" s="5" t="inlineStr">
+        <is>
+          <t>to look</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>200721</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>916</v>
+      </c>
+      <c r="B125" t="n">
+        <v>1</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D125" s="5" t="inlineStr">
+        <is>
+          <t>לראות to v</t>
+        </is>
+      </c>
+      <c r="E125" s="5" t="inlineStr">
+        <is>
+          <t>to view</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>200721</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>917</v>
+      </c>
+      <c r="B126" t="n">
+        <v>1</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D126" s="5" t="inlineStr">
+        <is>
+          <t>לראות to s; to l; to v</t>
+        </is>
+      </c>
+      <c r="E126" s="5" t="inlineStr">
+        <is>
+          <t>to see; to look; to view</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>200721</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>926</v>
+      </c>
+      <c r="B127" t="n">
+        <v>1</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D127" s="5" t="inlineStr">
+        <is>
+          <t>בדיוק *****e</t>
+        </is>
+      </c>
+      <c r="E127" s="5" t="inlineStr">
+        <is>
+          <t>exactly</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>200728</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>927</v>
+      </c>
+      <c r="B128" t="n">
+        <v>1</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D128" s="5" t="inlineStr">
+        <is>
+          <t>בדיוק *****p</t>
+        </is>
+      </c>
+      <c r="E128" s="5" t="inlineStr">
+        <is>
+          <t>precisely</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>200728</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>928</v>
+      </c>
+      <c r="B129" t="n">
+        <v>1</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D129" s="5" t="inlineStr">
+        <is>
+          <t>נתונים</t>
+        </is>
+      </c>
+      <c r="E129" s="5" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>200728</t>
+        </is>
+      </c>
+    </row>
+    <row r="130"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="6">

--- a/Questions/English/Popular 1000.xlsx
+++ b/Questions/English/Popular 1000.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,52 +149,120 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -465,24 +533,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G130"/>
+  <dimension ref="A1:G129"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E130" sqref="E130"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A124" ySplit="1"/>
+      <selection activeCell="E130" pane="bottomLeft" sqref="E130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="3.8984375" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="3.8984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -548,7 +616,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3">
       <c r="A3" s="3" t="n">
         <v>203</v>
       </c>
@@ -577,7 +645,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="4">
       <c r="A4" s="3" t="n">
         <v>204</v>
       </c>
@@ -606,7 +674,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="5">
       <c r="A5" s="3" t="n">
         <v>205</v>
       </c>
@@ -635,7 +703,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="6">
       <c r="A6" s="3" t="n">
         <v>206</v>
       </c>
@@ -1031,7 +1099,7 @@
         </is>
       </c>
     </row>
-    <row r="21" ht="14.4" customHeight="1">
+    <row customHeight="1" ht="14.4" r="21">
       <c r="A21" s="3" t="n">
         <v>219</v>
       </c>
@@ -1057,7 +1125,7 @@
         <v>210214</v>
       </c>
     </row>
-    <row r="22" ht="14.4" customHeight="1">
+    <row customHeight="1" ht="14.4" r="22">
       <c r="A22" t="n">
         <v>710</v>
       </c>
@@ -4073,10 +4141,9 @@
         </is>
       </c>
     </row>
-    <row r="130"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="6">
+    <cfRule priority="6" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4088,7 +4155,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="5">
+    <cfRule priority="5" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4100,7 +4167,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4111,7 +4178,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Popular 1000.xlsx
+++ b/Questions/English/Popular 1000.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,120 +149,52 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -533,24 +465,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G129"/>
+  <dimension ref="A1:G130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A124" ySplit="1"/>
-      <selection activeCell="E130" pane="bottomLeft" sqref="E130"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E130" sqref="E130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="3.8984375"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
+    <col width="3.8984375" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -616,7 +548,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3">
+    <row r="3" ht="27.6" customHeight="1">
       <c r="A3" s="3" t="n">
         <v>203</v>
       </c>
@@ -645,7 +577,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="4">
+    <row r="4" ht="27.6" customHeight="1">
       <c r="A4" s="3" t="n">
         <v>204</v>
       </c>
@@ -674,7 +606,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="5">
+    <row r="5" ht="27.6" customHeight="1">
       <c r="A5" s="3" t="n">
         <v>205</v>
       </c>
@@ -703,7 +635,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="6">
+    <row r="6" ht="27.6" customHeight="1">
       <c r="A6" s="3" t="n">
         <v>206</v>
       </c>
@@ -1099,7 +1031,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="14.4" r="21">
+    <row r="21" ht="14.4" customHeight="1">
       <c r="A21" s="3" t="n">
         <v>219</v>
       </c>
@@ -1125,7 +1057,7 @@
         <v>210214</v>
       </c>
     </row>
-    <row customHeight="1" ht="14.4" r="22">
+    <row r="22" ht="14.4" customHeight="1">
       <c r="A22" t="n">
         <v>710</v>
       </c>
@@ -4141,9 +4073,10 @@
         </is>
       </c>
     </row>
+    <row r="130"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="6" type="colorScale">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4155,7 +4088,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="5" type="colorScale">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4167,7 +4100,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4178,7 +4111,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Popular 1000.xlsx
+++ b/Questions/English/Popular 1000.xlsx
@@ -465,11 +465,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G130"/>
+  <dimension ref="A1:G134"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E130" sqref="E130"/>
+      <selection pane="bottomLeft" activeCell="E134" sqref="E134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
@@ -4073,7 +4073,119 @@
         </is>
       </c>
     </row>
-    <row r="130"/>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>1032</v>
+      </c>
+      <c r="B130" t="n">
+        <v>1</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D130" s="5" t="inlineStr">
+        <is>
+          <t>גורם *****f</t>
+        </is>
+      </c>
+      <c r="E130" s="5" t="inlineStr">
+        <is>
+          <t>factor</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>200812</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>1033</v>
+      </c>
+      <c r="B131" t="n">
+        <v>1</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D131" s="5" t="inlineStr">
+        <is>
+          <t>גורם *****c</t>
+        </is>
+      </c>
+      <c r="E131" s="5" t="inlineStr">
+        <is>
+          <t>cause</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>200812</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>1034</v>
+      </c>
+      <c r="B132" t="n">
+        <v>1</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D132" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">f****; c***** גורם </t>
+        </is>
+      </c>
+      <c r="E132" s="5" t="inlineStr">
+        <is>
+          <t>factor; cause</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>200812</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>1035</v>
+      </c>
+      <c r="B133" t="n">
+        <v>1</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D133" s="5" t="inlineStr">
+        <is>
+          <t>לה, שלה, אותה</t>
+        </is>
+      </c>
+      <c r="E133" s="5" t="inlineStr">
+        <is>
+          <t>her</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>200812</t>
+        </is>
+      </c>
+    </row>
+    <row r="134"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="6">

--- a/Questions/English/Popular 1000.xlsx
+++ b/Questions/English/Popular 1000.xlsx
@@ -195,6 +195,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -465,11 +533,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G150"/>
+  <dimension ref="A1:G154"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D117" sqref="D117"/>
+      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D155" sqref="D155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
@@ -4633,7 +4701,146 @@
         </is>
       </c>
     </row>
-    <row r="150"/>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>1153</v>
+      </c>
+      <c r="B150" t="n">
+        <v>1</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D150" s="5" t="inlineStr">
+        <is>
+          <t>לקחת</t>
+        </is>
+      </c>
+      <c r="E150" s="5" t="inlineStr">
+        <is>
+          <t>to take</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>200822</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>1160</v>
+      </c>
+      <c r="B151" t="n">
+        <v>1</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D151" s="5" t="inlineStr">
+        <is>
+          <t>אולי *****p</t>
+        </is>
+      </c>
+      <c r="E151" s="5" t="inlineStr">
+        <is>
+          <t>perhaps</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>200822</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>1161</v>
+      </c>
+      <c r="B152" t="n">
+        <v>1</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D152" s="5" t="inlineStr">
+        <is>
+          <t>אולי *****m</t>
+        </is>
+      </c>
+      <c r="E152" s="5" t="inlineStr">
+        <is>
+          <t>maybe</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>200822</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>1162</v>
+      </c>
+      <c r="B153" t="n">
+        <v>1</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D153" s="5" t="inlineStr">
+        <is>
+          <t>אולי pXXXXX; mXXXXX</t>
+        </is>
+      </c>
+      <c r="E153" s="5" t="inlineStr">
+        <is>
+          <t>perhaps, maybe</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>200822</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>1163</v>
+      </c>
+      <c r="B154" t="n">
+        <v>1</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D154" s="5" t="inlineStr">
+        <is>
+          <t>אופציה</t>
+        </is>
+      </c>
+      <c r="E154" s="5" t="inlineStr">
+        <is>
+          <t>option</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>200822</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="6">

--- a/Questions/English/Popular 1000.xlsx
+++ b/Questions/English/Popular 1000.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myq\Questions\English\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{254C6E85-5958-486E-A2F6-72BAFA365ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD65CE0-35AC-4ED1-8FBB-F7FE22B46FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="341">
   <si>
     <t>Id</t>
   </si>
@@ -883,9 +883,6 @@
     <t>cause</t>
   </si>
   <si>
-    <t xml:space="preserve">f****; c***** גורם </t>
-  </si>
-  <si>
     <t>factor; cause</t>
   </si>
   <si>
@@ -970,9 +967,6 @@
     <t>to move</t>
   </si>
   <si>
-    <t>מהלך</t>
-  </si>
-  <si>
     <t>move</t>
   </si>
   <si>
@@ -1036,10 +1030,19 @@
     <t>option</t>
   </si>
   <si>
+    <t>שנה</t>
+  </si>
+  <si>
     <t>year</t>
   </si>
   <si>
-    <t>שנה</t>
+    <t>200826</t>
+  </si>
+  <si>
+    <t>גורם fXXXXX; cXXXXX</t>
+  </si>
+  <si>
+    <t>מהלך *****m</t>
   </si>
 </sst>
 </file>
@@ -1503,8 +1506,8 @@
   <dimension ref="A1:G155"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D156" sqref="D156"/>
+      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D146" sqref="D146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4157,10 +4160,10 @@
         <v>7</v>
       </c>
       <c r="D132" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="E132" s="5" t="s">
         <v>287</v>
-      </c>
-      <c r="E132" s="5" t="s">
-        <v>288</v>
       </c>
       <c r="G132" t="s">
         <v>284</v>
@@ -4177,10 +4180,10 @@
         <v>7</v>
       </c>
       <c r="D133" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="E133" s="5" t="s">
         <v>289</v>
-      </c>
-      <c r="E133" s="5" t="s">
-        <v>290</v>
       </c>
       <c r="G133" t="s">
         <v>284</v>
@@ -4197,13 +4200,13 @@
         <v>7</v>
       </c>
       <c r="D134" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="E134" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="E134" s="5" t="s">
+      <c r="G134" t="s">
         <v>292</v>
-      </c>
-      <c r="G134" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
@@ -4217,13 +4220,13 @@
         <v>7</v>
       </c>
       <c r="D135" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="E135" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="E135" s="5" t="s">
-        <v>295</v>
-      </c>
       <c r="G135" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
@@ -4237,13 +4240,13 @@
         <v>7</v>
       </c>
       <c r="D136" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="E136" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="E136" s="5" t="s">
+      <c r="G136" t="s">
         <v>297</v>
-      </c>
-      <c r="G136" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
@@ -4257,13 +4260,13 @@
         <v>7</v>
       </c>
       <c r="D137" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="E137" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="E137" s="5" t="s">
-        <v>300</v>
-      </c>
       <c r="G137" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -4277,13 +4280,13 @@
         <v>7</v>
       </c>
       <c r="D138" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="E138" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="E138" s="5" t="s">
-        <v>302</v>
-      </c>
       <c r="G138" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
@@ -4297,13 +4300,13 @@
         <v>7</v>
       </c>
       <c r="D139" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="E139" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="E139" s="5" t="s">
-        <v>304</v>
-      </c>
       <c r="G139" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -4317,13 +4320,13 @@
         <v>7</v>
       </c>
       <c r="D140" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="E140" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="E140" s="5" t="s">
-        <v>306</v>
-      </c>
       <c r="G140" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
@@ -4337,13 +4340,13 @@
         <v>7</v>
       </c>
       <c r="D141" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="E141" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="E141" s="5" t="s">
-        <v>308</v>
-      </c>
       <c r="G141" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
@@ -4357,13 +4360,13 @@
         <v>7</v>
       </c>
       <c r="D142" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="E142" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="E142" s="5" t="s">
-        <v>310</v>
-      </c>
       <c r="G142" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
@@ -4377,13 +4380,13 @@
         <v>7</v>
       </c>
       <c r="D143" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="E143" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="E143" s="5" t="s">
+      <c r="G143" t="s">
         <v>312</v>
-      </c>
-      <c r="G143" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
@@ -4397,13 +4400,13 @@
         <v>7</v>
       </c>
       <c r="D144" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="E144" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="E144" s="5" t="s">
-        <v>315</v>
-      </c>
       <c r="G144" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -4417,13 +4420,13 @@
         <v>7</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>316</v>
+        <v>340</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G145" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
@@ -4437,13 +4440,13 @@
         <v>7</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G146" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -4457,13 +4460,13 @@
         <v>7</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G147" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
@@ -4477,13 +4480,13 @@
         <v>7</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G148" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
@@ -4497,13 +4500,13 @@
         <v>7</v>
       </c>
       <c r="D149" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="E149" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="G149" t="s">
         <v>324</v>
-      </c>
-      <c r="E149" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="G149" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
@@ -4517,13 +4520,13 @@
         <v>7</v>
       </c>
       <c r="D150" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="E150" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="G150" t="s">
         <v>327</v>
-      </c>
-      <c r="E150" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="G150" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
@@ -4537,13 +4540,13 @@
         <v>7</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G151" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
@@ -4557,13 +4560,13 @@
         <v>7</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G152" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
@@ -4577,13 +4580,13 @@
         <v>7</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E153" s="5" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="G153" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
@@ -4597,20 +4600,32 @@
         <v>7</v>
       </c>
       <c r="D154" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="E154" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="G154" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>1176</v>
+      </c>
+      <c r="B155">
+        <v>1</v>
+      </c>
+      <c r="C155" t="s">
+        <v>7</v>
+      </c>
+      <c r="D155" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="E154" s="5" t="s">
+      <c r="E155" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="G154" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D155" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="E155" s="5" t="s">
+      <c r="G155" t="s">
         <v>338</v>
       </c>
     </row>

--- a/Questions/English/Popular 1000.xlsx
+++ b/Questions/English/Popular 1000.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myq\Questions\English\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD65CE0-35AC-4ED1-8FBB-F7FE22B46FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="341">
   <si>
     <t>Id</t>
   </si>
@@ -883,6 +877,9 @@
     <t>cause</t>
   </si>
   <si>
+    <t>גורם fXXXXX; cXXXXX</t>
+  </si>
+  <si>
     <t>factor; cause</t>
   </si>
   <si>
@@ -967,6 +964,9 @@
     <t>to move</t>
   </si>
   <si>
+    <t>מהלך *****m</t>
+  </si>
+  <si>
     <t>move</t>
   </si>
   <si>
@@ -1037,38 +1037,33 @@
   </si>
   <si>
     <t>200826</t>
-  </si>
-  <si>
-    <t>גורם fXXXXX; cXXXXX</t>
-  </si>
-  <si>
-    <t>מהלך *****m</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -1182,61 +1177,52 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -1502,25 +1488,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G155"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G156"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D146" sqref="D146"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A134" ySplit="1"/>
+      <selection activeCell="D146" pane="bottomLeft" sqref="D146"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="3.8984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.09765625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="2.19921875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="37.796875" style="5" customWidth="1"/>
-    <col min="5" max="6" width="23.69921875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="12.59765625" style="12" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="3.8984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" spans="1:7" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1543,11 +1533,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+    <row r="2" spans="1:7">
+      <c r="A2" s="3" t="n">
         <v>202</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="8" t="n">
         <v>1</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -1559,16 +1549,16 @@
       <c r="E2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="6"/>
+      <c r="F2" s="6" t="n"/>
       <c r="G2" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+    <row customHeight="1" ht="27.6" r="3" spans="1:7">
+      <c r="A3" s="3" t="n">
         <v>203</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="8" t="n">
         <v>1</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -1580,16 +1570,16 @@
       <c r="E3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="6"/>
+      <c r="F3" s="6" t="n"/>
       <c r="G3" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+    <row customHeight="1" ht="27.6" r="4" spans="1:7">
+      <c r="A4" s="3" t="n">
         <v>204</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="8" t="n">
         <v>1</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -1601,16 +1591,16 @@
       <c r="E4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="9"/>
+      <c r="F4" s="9" t="n"/>
       <c r="G4" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+    <row customHeight="1" ht="27.6" r="5" spans="1:7">
+      <c r="A5" s="3" t="n">
         <v>205</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="8" t="n">
         <v>1</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -1622,16 +1612,16 @@
       <c r="E5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="9"/>
+      <c r="F5" s="9" t="n"/>
       <c r="G5" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+    <row customHeight="1" ht="27.6" r="6" spans="1:7">
+      <c r="A6" s="3" t="n">
         <v>206</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="8" t="n">
         <v>1</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -1643,16 +1633,16 @@
       <c r="E6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="12">
+      <c r="F6" s="6" t="n"/>
+      <c r="G6" s="12" t="n">
         <v>210120</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+    <row r="7" spans="1:7">
+      <c r="A7" s="3" t="n">
         <v>207</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="8" t="n">
         <v>1</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -1664,16 +1654,16 @@
       <c r="E7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="12">
+      <c r="F7" s="6" t="n"/>
+      <c r="G7" s="12" t="n">
         <v>210120</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+    <row r="8" spans="1:7">
+      <c r="A8" s="3" t="n">
         <v>208</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="8" t="n">
         <v>1</v>
       </c>
       <c r="C8" s="8" t="s">
@@ -1685,15 +1675,15 @@
       <c r="E8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="12" t="n">
         <v>210120</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9" spans="1:7">
+      <c r="A9" t="n">
         <v>605</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>1</v>
       </c>
       <c r="C9" t="s">
@@ -1709,11 +1699,11 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+    <row r="10" spans="1:7">
+      <c r="A10" s="3" t="n">
         <v>209</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="8" t="n">
         <v>1</v>
       </c>
       <c r="C10" s="8" t="s">
@@ -1725,15 +1715,15 @@
       <c r="E10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="12" t="n">
         <v>210120</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+    <row r="11" spans="1:7">
+      <c r="A11" s="3" t="n">
         <v>210</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="8" t="n">
         <v>1</v>
       </c>
       <c r="C11" s="8" t="s">
@@ -1745,15 +1735,15 @@
       <c r="E11" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="12" t="n">
         <v>210120</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+    <row r="12" spans="1:7">
+      <c r="A12" s="3" t="n">
         <v>211</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="8" t="n">
         <v>1</v>
       </c>
       <c r="C12" s="8" t="s">
@@ -1765,15 +1755,15 @@
       <c r="E12" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="12" t="n">
         <v>210120</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+    <row r="13" spans="1:7">
+      <c r="A13" s="3" t="n">
         <v>212</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="8" t="n">
         <v>1</v>
       </c>
       <c r="C13" s="8" t="s">
@@ -1785,15 +1775,15 @@
       <c r="E13" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="12" t="n">
         <v>210120</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+    <row r="14" spans="1:7">
+      <c r="A14" s="3" t="n">
         <v>213</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="8" t="n">
         <v>1</v>
       </c>
       <c r="C14" s="8" t="s">
@@ -1805,15 +1795,15 @@
       <c r="E14" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="12" t="n">
         <v>210122</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+    <row r="15" spans="1:7">
+      <c r="A15" s="3" t="n">
         <v>214</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="8" t="n">
         <v>1</v>
       </c>
       <c r="C15" s="8" t="s">
@@ -1825,15 +1815,15 @@
       <c r="E15" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="12" t="n">
         <v>210122</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+    <row r="16" spans="1:7">
+      <c r="A16" s="3" t="n">
         <v>215</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="8" t="n">
         <v>1</v>
       </c>
       <c r="C16" s="8" t="s">
@@ -1845,15 +1835,15 @@
       <c r="E16" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="12" t="n">
         <v>210122</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+    <row r="17" spans="1:7">
+      <c r="A17" s="3" t="n">
         <v>216</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="8" t="n">
         <v>1</v>
       </c>
       <c r="C17" s="8" t="s">
@@ -1865,15 +1855,15 @@
       <c r="E17" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="12" t="n">
         <v>210123</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+    <row r="18" spans="1:7">
+      <c r="A18" s="3" t="n">
         <v>217</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="8" t="n">
         <v>1</v>
       </c>
       <c r="C18" s="8" t="s">
@@ -1885,15 +1875,15 @@
       <c r="E18" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="12" t="n">
         <v>210123</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+    <row r="19" spans="1:7">
+      <c r="A19" s="3" t="n">
         <v>218</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="8" t="n">
         <v>1</v>
       </c>
       <c r="C19" s="8" t="s">
@@ -1905,15 +1895,15 @@
       <c r="E19" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="12" t="n">
         <v>210214</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="20" spans="1:7">
+      <c r="A20" t="n">
         <v>709</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="n">
         <v>1</v>
       </c>
       <c r="C20" t="s">
@@ -1929,11 +1919,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+    <row customHeight="1" ht="14.4" r="21" spans="1:7">
+      <c r="A21" s="3" t="n">
         <v>219</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="8" t="n">
         <v>1</v>
       </c>
       <c r="C21" s="8" t="s">
@@ -1945,15 +1935,15 @@
       <c r="E21" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G21" s="12" t="n">
         <v>210214</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22">
+    <row customHeight="1" ht="14.4" r="22" spans="1:7">
+      <c r="A22" t="n">
         <v>710</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="n">
         <v>1</v>
       </c>
       <c r="C22" t="s">
@@ -1969,11 +1959,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+    <row r="23" spans="1:7">
+      <c r="A23" s="3" t="n">
         <v>220</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="8" t="n">
         <v>1</v>
       </c>
       <c r="C23" s="8" t="s">
@@ -1985,15 +1975,15 @@
       <c r="E23" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="G23" s="12">
+      <c r="G23" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+    <row r="24" spans="1:7">
+      <c r="A24" s="3" t="n">
         <v>221</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="8" t="n">
         <v>1</v>
       </c>
       <c r="C24" s="8" t="s">
@@ -2005,15 +1995,15 @@
       <c r="E24" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G24" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+    <row r="25" spans="1:7">
+      <c r="A25" s="3" t="n">
         <v>222</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25" s="8" t="n">
         <v>1</v>
       </c>
       <c r="C25" s="8" t="s">
@@ -2025,15 +2015,15 @@
       <c r="E25" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G25" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+    <row r="26" spans="1:7">
+      <c r="A26" s="3" t="n">
         <v>223</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26" s="8" t="n">
         <v>1</v>
       </c>
       <c r="C26" s="8" t="s">
@@ -2045,15 +2035,15 @@
       <c r="E26" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G26" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27">
+    <row r="27" spans="1:7">
+      <c r="A27" t="n">
         <v>332</v>
       </c>
-      <c r="B27">
+      <c r="B27" t="n">
         <v>1</v>
       </c>
       <c r="C27" t="s">
@@ -2069,11 +2059,11 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28">
+    <row r="28" spans="1:7">
+      <c r="A28" t="n">
         <v>334</v>
       </c>
-      <c r="B28">
+      <c r="B28" t="n">
         <v>1</v>
       </c>
       <c r="C28" t="s">
@@ -2089,11 +2079,11 @@
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29">
+    <row r="29" spans="1:7">
+      <c r="A29" t="n">
         <v>367</v>
       </c>
-      <c r="B29">
+      <c r="B29" t="n">
         <v>1</v>
       </c>
       <c r="C29" t="s">
@@ -2109,11 +2099,11 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30">
+    <row r="30" spans="1:7">
+      <c r="A30" t="n">
         <v>368</v>
       </c>
-      <c r="B30">
+      <c r="B30" t="n">
         <v>1</v>
       </c>
       <c r="C30" t="s">
@@ -2129,11 +2119,11 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31">
+    <row r="31" spans="1:7">
+      <c r="A31" t="n">
         <v>394</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="n">
         <v>1</v>
       </c>
       <c r="C31" t="s">
@@ -2149,11 +2139,11 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32">
+    <row r="32" spans="1:7">
+      <c r="A32" t="n">
         <v>395</v>
       </c>
-      <c r="B32">
+      <c r="B32" t="n">
         <v>1</v>
       </c>
       <c r="C32" t="s">
@@ -2169,11 +2159,11 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33">
+    <row r="33" spans="1:7">
+      <c r="A33" t="n">
         <v>406</v>
       </c>
-      <c r="B33">
+      <c r="B33" t="n">
         <v>1</v>
       </c>
       <c r="C33" t="s">
@@ -2189,11 +2179,11 @@
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34">
+    <row r="34" spans="1:7">
+      <c r="A34" t="n">
         <v>411</v>
       </c>
-      <c r="B34">
+      <c r="B34" t="n">
         <v>1</v>
       </c>
       <c r="C34" t="s">
@@ -2209,11 +2199,11 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35">
+    <row r="35" spans="1:7">
+      <c r="A35" t="n">
         <v>427</v>
       </c>
-      <c r="B35">
+      <c r="B35" t="n">
         <v>1</v>
       </c>
       <c r="C35" t="s">
@@ -2229,11 +2219,11 @@
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36">
+    <row r="36" spans="1:7">
+      <c r="A36" t="n">
         <v>428</v>
       </c>
-      <c r="B36">
+      <c r="B36" t="n">
         <v>1</v>
       </c>
       <c r="C36" t="s">
@@ -2249,11 +2239,11 @@
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37">
+    <row r="37" spans="1:7">
+      <c r="A37" t="n">
         <v>429</v>
       </c>
-      <c r="B37">
+      <c r="B37" t="n">
         <v>1</v>
       </c>
       <c r="C37" t="s">
@@ -2269,11 +2259,11 @@
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38">
+    <row r="38" spans="1:7">
+      <c r="A38" t="n">
         <v>430</v>
       </c>
-      <c r="B38">
+      <c r="B38" t="n">
         <v>1</v>
       </c>
       <c r="C38" t="s">
@@ -2289,11 +2279,11 @@
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39">
+    <row r="39" spans="1:7">
+      <c r="A39" t="n">
         <v>477</v>
       </c>
-      <c r="B39">
+      <c r="B39" t="n">
         <v>1</v>
       </c>
       <c r="C39" t="s">
@@ -2309,11 +2299,11 @@
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40">
+    <row r="40" spans="1:7">
+      <c r="A40" t="n">
         <v>478</v>
       </c>
-      <c r="B40">
+      <c r="B40" t="n">
         <v>1</v>
       </c>
       <c r="C40" t="s">
@@ -2329,11 +2319,11 @@
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41">
+    <row r="41" spans="1:7">
+      <c r="A41" t="n">
         <v>479</v>
       </c>
-      <c r="B41">
+      <c r="B41" t="n">
         <v>1</v>
       </c>
       <c r="C41" t="s">
@@ -2349,11 +2339,11 @@
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42">
+    <row r="42" spans="1:7">
+      <c r="A42" t="n">
         <v>480</v>
       </c>
-      <c r="B42">
+      <c r="B42" t="n">
         <v>1</v>
       </c>
       <c r="C42" t="s">
@@ -2369,11 +2359,11 @@
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43">
+    <row r="43" spans="1:7">
+      <c r="A43" t="n">
         <v>481</v>
       </c>
-      <c r="B43">
+      <c r="B43" t="n">
         <v>1</v>
       </c>
       <c r="C43" t="s">
@@ -2389,11 +2379,11 @@
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44">
+    <row r="44" spans="1:7">
+      <c r="A44" t="n">
         <v>482</v>
       </c>
-      <c r="B44">
+      <c r="B44" t="n">
         <v>1</v>
       </c>
       <c r="C44" t="s">
@@ -2409,11 +2399,11 @@
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45">
+    <row r="45" spans="1:7">
+      <c r="A45" t="n">
         <v>483</v>
       </c>
-      <c r="B45">
+      <c r="B45" t="n">
         <v>1</v>
       </c>
       <c r="C45" t="s">
@@ -2429,11 +2419,11 @@
         <v>91</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46">
+    <row r="46" spans="1:7">
+      <c r="A46" t="n">
         <v>484</v>
       </c>
-      <c r="B46">
+      <c r="B46" t="n">
         <v>1</v>
       </c>
       <c r="C46" t="s">
@@ -2449,11 +2439,11 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47">
+    <row r="47" spans="1:7">
+      <c r="A47" t="n">
         <v>485</v>
       </c>
-      <c r="B47">
+      <c r="B47" t="n">
         <v>1</v>
       </c>
       <c r="C47" t="s">
@@ -2469,11 +2459,11 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48">
+    <row r="48" spans="1:7">
+      <c r="A48" t="n">
         <v>486</v>
       </c>
-      <c r="B48">
+      <c r="B48" t="n">
         <v>1</v>
       </c>
       <c r="C48" t="s">
@@ -2489,11 +2479,11 @@
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49">
+    <row r="49" spans="1:7">
+      <c r="A49" t="n">
         <v>487</v>
       </c>
-      <c r="B49">
+      <c r="B49" t="n">
         <v>1</v>
       </c>
       <c r="C49" t="s">
@@ -2509,11 +2499,11 @@
         <v>91</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50">
+    <row r="50" spans="1:7">
+      <c r="A50" t="n">
         <v>508</v>
       </c>
-      <c r="B50">
+      <c r="B50" t="n">
         <v>1</v>
       </c>
       <c r="C50" t="s">
@@ -2529,11 +2519,11 @@
         <v>114</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51">
+    <row r="51" spans="1:7">
+      <c r="A51" t="n">
         <v>509</v>
       </c>
-      <c r="B51">
+      <c r="B51" t="n">
         <v>1</v>
       </c>
       <c r="C51" t="s">
@@ -2549,11 +2539,11 @@
         <v>114</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52">
+    <row r="52" spans="1:7">
+      <c r="A52" t="n">
         <v>510</v>
       </c>
-      <c r="B52">
+      <c r="B52" t="n">
         <v>1</v>
       </c>
       <c r="C52" t="s">
@@ -2569,11 +2559,11 @@
         <v>114</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53">
+    <row r="53" spans="1:7">
+      <c r="A53" t="n">
         <v>681</v>
       </c>
-      <c r="B53">
+      <c r="B53" t="n">
         <v>1</v>
       </c>
       <c r="C53" t="s">
@@ -2589,11 +2579,11 @@
         <v>121</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54">
+    <row r="54" spans="1:7">
+      <c r="A54" t="n">
         <v>511</v>
       </c>
-      <c r="B54">
+      <c r="B54" t="n">
         <v>1</v>
       </c>
       <c r="C54" t="s">
@@ -2609,11 +2599,11 @@
         <v>114</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55">
+    <row r="55" spans="1:7">
+      <c r="A55" t="n">
         <v>512</v>
       </c>
-      <c r="B55">
+      <c r="B55" t="n">
         <v>1</v>
       </c>
       <c r="C55" t="s">
@@ -2629,11 +2619,11 @@
         <v>114</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56">
+    <row r="56" spans="1:7">
+      <c r="A56" t="n">
         <v>513</v>
       </c>
-      <c r="B56">
+      <c r="B56" t="n">
         <v>1</v>
       </c>
       <c r="C56" t="s">
@@ -2649,11 +2639,11 @@
         <v>114</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57">
+    <row r="57" spans="1:7">
+      <c r="A57" t="n">
         <v>514</v>
       </c>
-      <c r="B57">
+      <c r="B57" t="n">
         <v>1</v>
       </c>
       <c r="C57" t="s">
@@ -2669,11 +2659,11 @@
         <v>114</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58">
+    <row r="58" spans="1:7">
+      <c r="A58" t="n">
         <v>515</v>
       </c>
-      <c r="B58">
+      <c r="B58" t="n">
         <v>1</v>
       </c>
       <c r="C58" t="s">
@@ -2689,11 +2679,11 @@
         <v>114</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59">
+    <row r="59" spans="1:7">
+      <c r="A59" t="n">
         <v>571</v>
       </c>
-      <c r="B59">
+      <c r="B59" t="n">
         <v>1</v>
       </c>
       <c r="C59" t="s">
@@ -2709,11 +2699,11 @@
         <v>134</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60">
+    <row r="60" spans="1:7">
+      <c r="A60" t="n">
         <v>516</v>
       </c>
-      <c r="B60">
+      <c r="B60" t="n">
         <v>1</v>
       </c>
       <c r="C60" t="s">
@@ -2729,11 +2719,11 @@
         <v>114</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61">
+    <row r="61" spans="1:7">
+      <c r="A61" t="n">
         <v>517</v>
       </c>
-      <c r="B61">
+      <c r="B61" t="n">
         <v>1</v>
       </c>
       <c r="C61" t="s">
@@ -2749,11 +2739,11 @@
         <v>114</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62">
+    <row r="62" spans="1:7">
+      <c r="A62" t="n">
         <v>518</v>
       </c>
-      <c r="B62">
+      <c r="B62" t="n">
         <v>1</v>
       </c>
       <c r="C62" t="s">
@@ -2769,11 +2759,11 @@
         <v>114</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63">
+    <row r="63" spans="1:7">
+      <c r="A63" t="n">
         <v>519</v>
       </c>
-      <c r="B63">
+      <c r="B63" t="n">
         <v>1</v>
       </c>
       <c r="C63" t="s">
@@ -2789,11 +2779,11 @@
         <v>114</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64">
+    <row r="64" spans="1:7">
+      <c r="A64" t="n">
         <v>550</v>
       </c>
-      <c r="B64">
+      <c r="B64" t="n">
         <v>1</v>
       </c>
       <c r="C64" t="s">
@@ -2809,11 +2799,11 @@
         <v>145</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65">
+    <row r="65" spans="1:7">
+      <c r="A65" t="n">
         <v>551</v>
       </c>
-      <c r="B65">
+      <c r="B65" t="n">
         <v>1</v>
       </c>
       <c r="C65" t="s">
@@ -2829,11 +2819,11 @@
         <v>145</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66">
+    <row r="66" spans="1:7">
+      <c r="A66" t="n">
         <v>552</v>
       </c>
-      <c r="B66">
+      <c r="B66" t="n">
         <v>1</v>
       </c>
       <c r="C66" t="s">
@@ -2849,11 +2839,11 @@
         <v>145</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67">
+    <row r="67" spans="1:7">
+      <c r="A67" t="n">
         <v>553</v>
       </c>
-      <c r="B67">
+      <c r="B67" t="n">
         <v>1</v>
       </c>
       <c r="C67" t="s">
@@ -2869,11 +2859,11 @@
         <v>145</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68">
+    <row r="68" spans="1:7">
+      <c r="A68" t="n">
         <v>554</v>
       </c>
-      <c r="B68">
+      <c r="B68" t="n">
         <v>1</v>
       </c>
       <c r="C68" t="s">
@@ -2889,11 +2879,11 @@
         <v>145</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69">
+    <row r="69" spans="1:7">
+      <c r="A69" t="n">
         <v>555</v>
       </c>
-      <c r="B69">
+      <c r="B69" t="n">
         <v>1</v>
       </c>
       <c r="C69" t="s">
@@ -2909,11 +2899,11 @@
         <v>145</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70">
+    <row r="70" spans="1:7">
+      <c r="A70" t="n">
         <v>572</v>
       </c>
-      <c r="B70">
+      <c r="B70" t="n">
         <v>1</v>
       </c>
       <c r="C70" t="s">
@@ -2929,11 +2919,11 @@
         <v>134</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71">
+    <row r="71" spans="1:7">
+      <c r="A71" t="n">
         <v>586</v>
       </c>
-      <c r="B71">
+      <c r="B71" t="n">
         <v>1</v>
       </c>
       <c r="C71" t="s">
@@ -2949,11 +2939,11 @@
         <v>160</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72">
+    <row r="72" spans="1:7">
+      <c r="A72" t="n">
         <v>711</v>
       </c>
-      <c r="B72">
+      <c r="B72" t="n">
         <v>1</v>
       </c>
       <c r="C72" t="s">
@@ -2969,11 +2959,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73">
+    <row r="73" spans="1:7">
+      <c r="A73" t="n">
         <v>712</v>
       </c>
-      <c r="B73">
+      <c r="B73" t="n">
         <v>0</v>
       </c>
       <c r="C73" t="s">
@@ -2989,11 +2979,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74">
+    <row r="74" spans="1:7">
+      <c r="A74" t="n">
         <v>714</v>
       </c>
-      <c r="B74">
+      <c r="B74" t="n">
         <v>1</v>
       </c>
       <c r="C74" t="s">
@@ -3009,11 +2999,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75">
+    <row r="75" spans="1:7">
+      <c r="A75" t="n">
         <v>715</v>
       </c>
-      <c r="B75">
+      <c r="B75" t="n">
         <v>1</v>
       </c>
       <c r="C75" t="s">
@@ -3029,11 +3019,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76">
+    <row r="76" spans="1:7">
+      <c r="A76" t="n">
         <v>587</v>
       </c>
-      <c r="B76">
+      <c r="B76" t="n">
         <v>1</v>
       </c>
       <c r="C76" t="s">
@@ -3049,11 +3039,11 @@
         <v>160</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77">
+    <row r="77" spans="1:7">
+      <c r="A77" t="n">
         <v>588</v>
       </c>
-      <c r="B77">
+      <c r="B77" t="n">
         <v>1</v>
       </c>
       <c r="C77" t="s">
@@ -3069,11 +3059,11 @@
         <v>160</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78">
+    <row r="78" spans="1:7">
+      <c r="A78" t="n">
         <v>606</v>
       </c>
-      <c r="B78">
+      <c r="B78" t="n">
         <v>1</v>
       </c>
       <c r="C78" t="s">
@@ -3089,11 +3079,11 @@
         <v>26</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79">
+    <row r="79" spans="1:7">
+      <c r="A79" t="n">
         <v>596</v>
       </c>
-      <c r="B79">
+      <c r="B79" t="n">
         <v>1</v>
       </c>
       <c r="C79" t="s">
@@ -3109,11 +3099,11 @@
         <v>176</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80">
+    <row r="80" spans="1:7">
+      <c r="A80" t="n">
         <v>597</v>
       </c>
-      <c r="B80">
+      <c r="B80" t="n">
         <v>1</v>
       </c>
       <c r="C80" t="s">
@@ -3129,11 +3119,11 @@
         <v>176</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81">
+    <row r="81" spans="1:7">
+      <c r="A81" t="n">
         <v>613</v>
       </c>
-      <c r="B81">
+      <c r="B81" t="n">
         <v>1</v>
       </c>
       <c r="C81" t="s">
@@ -3149,11 +3139,11 @@
         <v>26</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82">
+    <row r="82" spans="1:7">
+      <c r="A82" t="n">
         <v>614</v>
       </c>
-      <c r="B82">
+      <c r="B82" t="n">
         <v>1</v>
       </c>
       <c r="C82" t="s">
@@ -3169,11 +3159,11 @@
         <v>26</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83">
+    <row r="83" spans="1:7">
+      <c r="A83" t="n">
         <v>615</v>
       </c>
-      <c r="B83">
+      <c r="B83" t="n">
         <v>1</v>
       </c>
       <c r="C83" t="s">
@@ -3189,11 +3179,11 @@
         <v>26</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84">
+    <row r="84" spans="1:7">
+      <c r="A84" t="n">
         <v>616</v>
       </c>
-      <c r="B84">
+      <c r="B84" t="n">
         <v>1</v>
       </c>
       <c r="C84" t="s">
@@ -3209,11 +3199,11 @@
         <v>26</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85">
+    <row r="85" spans="1:7">
+      <c r="A85" t="n">
         <v>617</v>
       </c>
-      <c r="B85">
+      <c r="B85" t="n">
         <v>1</v>
       </c>
       <c r="C85" t="s">
@@ -3229,11 +3219,11 @@
         <v>26</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86">
+    <row r="86" spans="1:7">
+      <c r="A86" t="n">
         <v>626</v>
       </c>
-      <c r="B86">
+      <c r="B86" t="n">
         <v>1</v>
       </c>
       <c r="C86" t="s">
@@ -3249,11 +3239,11 @@
         <v>191</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87">
+    <row r="87" spans="1:7">
+      <c r="A87" t="n">
         <v>627</v>
       </c>
-      <c r="B87">
+      <c r="B87" t="n">
         <v>1</v>
       </c>
       <c r="C87" t="s">
@@ -3269,11 +3259,11 @@
         <v>191</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88">
+    <row r="88" spans="1:7">
+      <c r="A88" t="n">
         <v>628</v>
       </c>
-      <c r="B88">
+      <c r="B88" t="n">
         <v>1</v>
       </c>
       <c r="C88" t="s">
@@ -3289,11 +3279,11 @@
         <v>191</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89">
+    <row r="89" spans="1:7">
+      <c r="A89" t="n">
         <v>629</v>
       </c>
-      <c r="B89">
+      <c r="B89" t="n">
         <v>1</v>
       </c>
       <c r="C89" t="s">
@@ -3309,11 +3299,11 @@
         <v>191</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90">
+    <row r="90" spans="1:7">
+      <c r="A90" t="n">
         <v>659</v>
       </c>
-      <c r="B90">
+      <c r="B90" t="n">
         <v>1</v>
       </c>
       <c r="C90" t="s">
@@ -3329,11 +3319,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91">
+    <row r="91" spans="1:7">
+      <c r="A91" t="n">
         <v>660</v>
       </c>
-      <c r="B91">
+      <c r="B91" t="n">
         <v>1</v>
       </c>
       <c r="C91" t="s">
@@ -3349,11 +3339,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92">
+    <row r="92" spans="1:7">
+      <c r="A92" t="n">
         <v>664</v>
       </c>
-      <c r="B92">
+      <c r="B92" t="n">
         <v>1</v>
       </c>
       <c r="C92" t="s">
@@ -3369,11 +3359,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93">
+    <row r="93" spans="1:7">
+      <c r="A93" t="n">
         <v>665</v>
       </c>
-      <c r="B93">
+      <c r="B93" t="n">
         <v>1</v>
       </c>
       <c r="C93" t="s">
@@ -3389,11 +3379,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94">
+    <row r="94" spans="1:7">
+      <c r="A94" t="n">
         <v>719</v>
       </c>
-      <c r="B94">
+      <c r="B94" t="n">
         <v>1</v>
       </c>
       <c r="C94" t="s">
@@ -3409,11 +3399,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95">
+    <row r="95" spans="1:7">
+      <c r="A95" t="n">
         <v>733</v>
       </c>
-      <c r="B95">
+      <c r="B95" t="n">
         <v>1</v>
       </c>
       <c r="C95" t="s">
@@ -3429,11 +3419,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96">
+    <row r="96" spans="1:7">
+      <c r="A96" t="n">
         <v>734</v>
       </c>
-      <c r="B96">
+      <c r="B96" t="n">
         <v>1</v>
       </c>
       <c r="C96" t="s">
@@ -3449,11 +3439,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97">
+    <row r="97" spans="1:7">
+      <c r="A97" t="n">
         <v>778</v>
       </c>
-      <c r="B97">
+      <c r="B97" t="n">
         <v>1</v>
       </c>
       <c r="C97" t="s">
@@ -3469,11 +3459,11 @@
         <v>214</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98">
+    <row r="98" spans="1:7">
+      <c r="A98" t="n">
         <v>779</v>
       </c>
-      <c r="B98">
+      <c r="B98" t="n">
         <v>1</v>
       </c>
       <c r="C98" t="s">
@@ -3489,11 +3479,11 @@
         <v>214</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99">
+    <row r="99" spans="1:7">
+      <c r="A99" t="n">
         <v>780</v>
       </c>
-      <c r="B99">
+      <c r="B99" t="n">
         <v>1</v>
       </c>
       <c r="C99" t="s">
@@ -3509,11 +3499,11 @@
         <v>214</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100">
+    <row r="100" spans="1:7">
+      <c r="A100" t="n">
         <v>781</v>
       </c>
-      <c r="B100">
+      <c r="B100" t="n">
         <v>1</v>
       </c>
       <c r="C100" t="s">
@@ -3529,11 +3519,11 @@
         <v>214</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101">
+    <row r="101" spans="1:7">
+      <c r="A101" t="n">
         <v>782</v>
       </c>
-      <c r="B101">
+      <c r="B101" t="n">
         <v>1</v>
       </c>
       <c r="C101" t="s">
@@ -3549,11 +3539,11 @@
         <v>214</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102">
+    <row r="102" spans="1:7">
+      <c r="A102" t="n">
         <v>783</v>
       </c>
-      <c r="B102">
+      <c r="B102" t="n">
         <v>1</v>
       </c>
       <c r="C102" t="s">
@@ -3569,11 +3559,11 @@
         <v>214</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103">
+    <row r="103" spans="1:7">
+      <c r="A103" t="n">
         <v>784</v>
       </c>
-      <c r="B103">
+      <c r="B103" t="n">
         <v>1</v>
       </c>
       <c r="C103" t="s">
@@ -3589,11 +3579,11 @@
         <v>214</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104">
+    <row r="104" spans="1:7">
+      <c r="A104" t="n">
         <v>810</v>
       </c>
-      <c r="B104">
+      <c r="B104" t="n">
         <v>1</v>
       </c>
       <c r="C104" t="s">
@@ -3609,11 +3599,11 @@
         <v>229</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105">
+    <row r="105" spans="1:7">
+      <c r="A105" t="n">
         <v>811</v>
       </c>
-      <c r="B105">
+      <c r="B105" t="n">
         <v>1</v>
       </c>
       <c r="C105" t="s">
@@ -3629,11 +3619,11 @@
         <v>229</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106">
+    <row r="106" spans="1:7">
+      <c r="A106" t="n">
         <v>812</v>
       </c>
-      <c r="B106">
+      <c r="B106" t="n">
         <v>1</v>
       </c>
       <c r="C106" t="s">
@@ -3649,11 +3639,11 @@
         <v>229</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107">
+    <row r="107" spans="1:7">
+      <c r="A107" t="n">
         <v>825</v>
       </c>
-      <c r="B107">
+      <c r="B107" t="n">
         <v>1</v>
       </c>
       <c r="C107" t="s">
@@ -3669,11 +3659,11 @@
         <v>236</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108">
+    <row r="108" spans="1:7">
+      <c r="A108" t="n">
         <v>826</v>
       </c>
-      <c r="B108">
+      <c r="B108" t="n">
         <v>1</v>
       </c>
       <c r="C108" t="s">
@@ -3689,11 +3679,11 @@
         <v>236</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109">
+    <row r="109" spans="1:7">
+      <c r="A109" t="n">
         <v>844</v>
       </c>
-      <c r="B109">
+      <c r="B109" t="n">
         <v>1</v>
       </c>
       <c r="C109" t="s">
@@ -3709,11 +3699,11 @@
         <v>236</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110">
+    <row r="110" spans="1:7">
+      <c r="A110" t="n">
         <v>845</v>
       </c>
-      <c r="B110">
+      <c r="B110" t="n">
         <v>1</v>
       </c>
       <c r="C110" t="s">
@@ -3729,11 +3719,11 @@
         <v>236</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111">
+    <row r="111" spans="1:7">
+      <c r="A111" t="n">
         <v>846</v>
       </c>
-      <c r="B111">
+      <c r="B111" t="n">
         <v>1</v>
       </c>
       <c r="C111" t="s">
@@ -3749,11 +3739,11 @@
         <v>236</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112">
+    <row r="112" spans="1:7">
+      <c r="A112" t="n">
         <v>847</v>
       </c>
-      <c r="B112">
+      <c r="B112" t="n">
         <v>1</v>
       </c>
       <c r="C112" t="s">
@@ -3769,11 +3759,11 @@
         <v>236</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113">
+    <row r="113" spans="1:7">
+      <c r="A113" t="n">
         <v>848</v>
       </c>
-      <c r="B113">
+      <c r="B113" t="n">
         <v>1</v>
       </c>
       <c r="C113" t="s">
@@ -3789,11 +3779,11 @@
         <v>236</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114">
+    <row r="114" spans="1:7">
+      <c r="A114" t="n">
         <v>849</v>
       </c>
-      <c r="B114">
+      <c r="B114" t="n">
         <v>1</v>
       </c>
       <c r="C114" t="s">
@@ -3809,11 +3799,11 @@
         <v>236</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115">
+    <row r="115" spans="1:7">
+      <c r="A115" t="n">
         <v>850</v>
       </c>
-      <c r="B115">
+      <c r="B115" t="n">
         <v>1</v>
       </c>
       <c r="C115" t="s">
@@ -3829,11 +3819,11 @@
         <v>236</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116">
+    <row r="116" spans="1:7">
+      <c r="A116" t="n">
         <v>851</v>
       </c>
-      <c r="B116">
+      <c r="B116" t="n">
         <v>1</v>
       </c>
       <c r="C116" t="s">
@@ -3849,11 +3839,11 @@
         <v>236</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117">
+    <row r="117" spans="1:7">
+      <c r="A117" t="n">
         <v>852</v>
       </c>
-      <c r="B117">
+      <c r="B117" t="n">
         <v>1</v>
       </c>
       <c r="C117" t="s">
@@ -3869,11 +3859,11 @@
         <v>236</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118">
+    <row r="118" spans="1:7">
+      <c r="A118" t="n">
         <v>853</v>
       </c>
-      <c r="B118">
+      <c r="B118" t="n">
         <v>1</v>
       </c>
       <c r="C118" t="s">
@@ -3889,11 +3879,11 @@
         <v>236</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119">
+    <row r="119" spans="1:7">
+      <c r="A119" t="n">
         <v>854</v>
       </c>
-      <c r="B119">
+      <c r="B119" t="n">
         <v>1</v>
       </c>
       <c r="C119" t="s">
@@ -3909,11 +3899,11 @@
         <v>236</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120">
+    <row r="120" spans="1:7">
+      <c r="A120" t="n">
         <v>855</v>
       </c>
-      <c r="B120">
+      <c r="B120" t="n">
         <v>1</v>
       </c>
       <c r="C120" t="s">
@@ -3929,11 +3919,11 @@
         <v>236</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121">
+    <row r="121" spans="1:7">
+      <c r="A121" t="n">
         <v>856</v>
       </c>
-      <c r="B121">
+      <c r="B121" t="n">
         <v>1</v>
       </c>
       <c r="C121" t="s">
@@ -3949,11 +3939,11 @@
         <v>236</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122">
+    <row r="122" spans="1:7">
+      <c r="A122" t="n">
         <v>913</v>
       </c>
-      <c r="B122">
+      <c r="B122" t="n">
         <v>1</v>
       </c>
       <c r="C122" t="s">
@@ -3969,11 +3959,11 @@
         <v>266</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123">
+    <row r="123" spans="1:7">
+      <c r="A123" t="n">
         <v>914</v>
       </c>
-      <c r="B123">
+      <c r="B123" t="n">
         <v>1</v>
       </c>
       <c r="C123" t="s">
@@ -3989,11 +3979,11 @@
         <v>266</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124">
+    <row r="124" spans="1:7">
+      <c r="A124" t="n">
         <v>915</v>
       </c>
-      <c r="B124">
+      <c r="B124" t="n">
         <v>1</v>
       </c>
       <c r="C124" t="s">
@@ -4009,11 +3999,11 @@
         <v>266</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125">
+    <row r="125" spans="1:7">
+      <c r="A125" t="n">
         <v>916</v>
       </c>
-      <c r="B125">
+      <c r="B125" t="n">
         <v>1</v>
       </c>
       <c r="C125" t="s">
@@ -4029,11 +4019,11 @@
         <v>266</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126">
+    <row r="126" spans="1:7">
+      <c r="A126" t="n">
         <v>917</v>
       </c>
-      <c r="B126">
+      <c r="B126" t="n">
         <v>1</v>
       </c>
       <c r="C126" t="s">
@@ -4049,11 +4039,11 @@
         <v>266</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127">
+    <row r="127" spans="1:7">
+      <c r="A127" t="n">
         <v>926</v>
       </c>
-      <c r="B127">
+      <c r="B127" t="n">
         <v>1</v>
       </c>
       <c r="C127" t="s">
@@ -4069,11 +4059,11 @@
         <v>277</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128">
+    <row r="128" spans="1:7">
+      <c r="A128" t="n">
         <v>927</v>
       </c>
-      <c r="B128">
+      <c r="B128" t="n">
         <v>1</v>
       </c>
       <c r="C128" t="s">
@@ -4089,11 +4079,11 @@
         <v>277</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129">
+    <row r="129" spans="1:7">
+      <c r="A129" t="n">
         <v>928</v>
       </c>
-      <c r="B129">
+      <c r="B129" t="n">
         <v>1</v>
       </c>
       <c r="C129" t="s">
@@ -4109,11 +4099,11 @@
         <v>277</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130">
+    <row r="130" spans="1:7">
+      <c r="A130" t="n">
         <v>1032</v>
       </c>
-      <c r="B130">
+      <c r="B130" t="n">
         <v>1</v>
       </c>
       <c r="C130" t="s">
@@ -4129,11 +4119,11 @@
         <v>284</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131">
+    <row r="131" spans="1:7">
+      <c r="A131" t="n">
         <v>1033</v>
       </c>
-      <c r="B131">
+      <c r="B131" t="n">
         <v>1</v>
       </c>
       <c r="C131" t="s">
@@ -4149,489 +4139,490 @@
         <v>284</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132">
+    <row r="132" spans="1:7">
+      <c r="A132" t="n">
         <v>1034</v>
       </c>
-      <c r="B132">
+      <c r="B132" t="n">
         <v>1</v>
       </c>
       <c r="C132" t="s">
         <v>7</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>339</v>
+        <v>287</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G132" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133">
+    <row r="133" spans="1:7">
+      <c r="A133" t="n">
         <v>1035</v>
       </c>
-      <c r="B133">
+      <c r="B133" t="n">
         <v>1</v>
       </c>
       <c r="C133" t="s">
         <v>7</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G133" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134">
+    <row r="134" spans="1:7">
+      <c r="A134" t="n">
         <v>1041</v>
       </c>
-      <c r="B134">
+      <c r="B134" t="n">
         <v>1</v>
       </c>
       <c r="C134" t="s">
         <v>7</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G134" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" t="n">
         <v>1042</v>
       </c>
-      <c r="B135">
+      <c r="B135" t="n">
         <v>1</v>
       </c>
       <c r="C135" t="s">
         <v>7</v>
       </c>
       <c r="D135" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="E135" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="G135" t="s">
         <v>293</v>
       </c>
-      <c r="E135" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="G135" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136">
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" t="n">
         <v>1062</v>
       </c>
-      <c r="B136">
+      <c r="B136" t="n">
         <v>1</v>
       </c>
       <c r="C136" t="s">
         <v>7</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G136" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" t="n">
         <v>1063</v>
       </c>
-      <c r="B137">
+      <c r="B137" t="n">
         <v>1</v>
       </c>
       <c r="C137" t="s">
         <v>7</v>
       </c>
       <c r="D137" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="E137" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="G137" t="s">
         <v>298</v>
       </c>
-      <c r="E137" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="G137" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138">
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" t="n">
         <v>1064</v>
       </c>
-      <c r="B138">
+      <c r="B138" t="n">
         <v>1</v>
       </c>
       <c r="C138" t="s">
         <v>7</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G138" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" t="n">
         <v>1065</v>
       </c>
-      <c r="B139">
+      <c r="B139" t="n">
         <v>1</v>
       </c>
       <c r="C139" t="s">
         <v>7</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G139" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" t="n">
         <v>1066</v>
       </c>
-      <c r="B140">
+      <c r="B140" t="n">
         <v>1</v>
       </c>
       <c r="C140" t="s">
         <v>7</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G140" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" t="n">
         <v>1067</v>
       </c>
-      <c r="B141">
+      <c r="B141" t="n">
         <v>1</v>
       </c>
       <c r="C141" t="s">
         <v>7</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G141" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" t="n">
         <v>1068</v>
       </c>
-      <c r="B142">
+      <c r="B142" t="n">
         <v>1</v>
       </c>
       <c r="C142" t="s">
         <v>7</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G142" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" t="n">
         <v>1109</v>
       </c>
-      <c r="B143">
+      <c r="B143" t="n">
         <v>1</v>
       </c>
       <c r="C143" t="s">
         <v>7</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G143" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" t="n">
         <v>1110</v>
       </c>
-      <c r="B144">
+      <c r="B144" t="n">
         <v>1</v>
       </c>
       <c r="C144" t="s">
         <v>7</v>
       </c>
       <c r="D144" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="E144" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="G144" t="s">
         <v>313</v>
       </c>
-      <c r="E144" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="G144" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145">
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" t="n">
         <v>1111</v>
       </c>
-      <c r="B145">
+      <c r="B145" t="n">
         <v>1</v>
       </c>
       <c r="C145" t="s">
         <v>7</v>
       </c>
       <c r="D145" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="E145" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="G145" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" t="n">
+        <v>1112</v>
+      </c>
+      <c r="B146" t="n">
+        <v>1</v>
+      </c>
+      <c r="C146" t="s">
+        <v>7</v>
+      </c>
+      <c r="D146" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="E146" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="G146" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" t="n">
+        <v>1113</v>
+      </c>
+      <c r="B147" t="n">
+        <v>1</v>
+      </c>
+      <c r="C147" t="s">
+        <v>7</v>
+      </c>
+      <c r="D147" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="E147" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="G147" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" t="n">
+        <v>1114</v>
+      </c>
+      <c r="B148" t="n">
+        <v>1</v>
+      </c>
+      <c r="C148" t="s">
+        <v>7</v>
+      </c>
+      <c r="D148" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="E148" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="G148" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" t="n">
+        <v>1118</v>
+      </c>
+      <c r="B149" t="n">
+        <v>1</v>
+      </c>
+      <c r="C149" t="s">
+        <v>7</v>
+      </c>
+      <c r="D149" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="E149" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="G149" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" t="n">
+        <v>1153</v>
+      </c>
+      <c r="B150" t="n">
+        <v>1</v>
+      </c>
+      <c r="C150" t="s">
+        <v>7</v>
+      </c>
+      <c r="D150" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="E150" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="G150" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" t="n">
+        <v>1160</v>
+      </c>
+      <c r="B151" t="n">
+        <v>1</v>
+      </c>
+      <c r="C151" t="s">
+        <v>7</v>
+      </c>
+      <c r="D151" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="E151" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="G151" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" t="n">
+        <v>1161</v>
+      </c>
+      <c r="B152" t="n">
+        <v>1</v>
+      </c>
+      <c r="C152" t="s">
+        <v>7</v>
+      </c>
+      <c r="D152" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="E152" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="G152" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" t="n">
+        <v>1162</v>
+      </c>
+      <c r="B153" t="n">
+        <v>1</v>
+      </c>
+      <c r="C153" t="s">
+        <v>7</v>
+      </c>
+      <c r="D153" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="E153" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="G153" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" t="n">
+        <v>1163</v>
+      </c>
+      <c r="B154" t="n">
+        <v>1</v>
+      </c>
+      <c r="C154" t="s">
+        <v>7</v>
+      </c>
+      <c r="D154" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="E154" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="G154" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" t="n">
+        <v>1176</v>
+      </c>
+      <c r="B155" t="n">
+        <v>1</v>
+      </c>
+      <c r="C155" t="s">
+        <v>7</v>
+      </c>
+      <c r="D155" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="E155" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="G155" t="s">
         <v>340</v>
       </c>
-      <c r="E145" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="G145" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146">
-        <v>1112</v>
-      </c>
-      <c r="B146">
-        <v>1</v>
-      </c>
-      <c r="C146" t="s">
-        <v>7</v>
-      </c>
-      <c r="D146" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="E146" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="G146" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147">
-        <v>1113</v>
-      </c>
-      <c r="B147">
-        <v>1</v>
-      </c>
-      <c r="C147" t="s">
-        <v>7</v>
-      </c>
-      <c r="D147" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="E147" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="G147" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148">
-        <v>1114</v>
-      </c>
-      <c r="B148">
-        <v>1</v>
-      </c>
-      <c r="C148" t="s">
-        <v>7</v>
-      </c>
-      <c r="D148" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="E148" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="G148" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149">
-        <v>1118</v>
-      </c>
-      <c r="B149">
-        <v>1</v>
-      </c>
-      <c r="C149" t="s">
-        <v>7</v>
-      </c>
-      <c r="D149" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="E149" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="G149" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150">
-        <v>1153</v>
-      </c>
-      <c r="B150">
-        <v>1</v>
-      </c>
-      <c r="C150" t="s">
-        <v>7</v>
-      </c>
-      <c r="D150" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="E150" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="G150" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151">
-        <v>1160</v>
-      </c>
-      <c r="B151">
-        <v>1</v>
-      </c>
-      <c r="C151" t="s">
-        <v>7</v>
-      </c>
-      <c r="D151" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="E151" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="G151" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152">
-        <v>1161</v>
-      </c>
-      <c r="B152">
-        <v>1</v>
-      </c>
-      <c r="C152" t="s">
-        <v>7</v>
-      </c>
-      <c r="D152" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="E152" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="G152" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153">
-        <v>1162</v>
-      </c>
-      <c r="B153">
-        <v>1</v>
-      </c>
-      <c r="C153" t="s">
-        <v>7</v>
-      </c>
-      <c r="D153" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="E153" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="G153" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154">
-        <v>1163</v>
-      </c>
-      <c r="B154">
-        <v>1</v>
-      </c>
-      <c r="C154" t="s">
-        <v>7</v>
-      </c>
-      <c r="D154" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="E154" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="G154" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155">
-        <v>1176</v>
-      </c>
-      <c r="B155">
-        <v>1</v>
-      </c>
-      <c r="C155" t="s">
-        <v>7</v>
-      </c>
-      <c r="D155" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="E155" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="G155" t="s">
-        <v>338</v>
-      </c>
-    </row>
+    </row>
+    <row r="156" spans="1:7"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="6">
+    <cfRule priority="6" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4643,7 +4634,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="5">
+    <cfRule priority="5" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4655,7 +4646,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4666,7 +4657,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Popular 1000.xlsx
+++ b/Questions/English/Popular 1000.xlsx
@@ -195,74 +195,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -533,11 +465,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G157"/>
+  <dimension ref="A1:G158"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D157" sqref="D157"/>
+      <selection pane="bottomLeft" activeCell="D158" sqref="D158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
@@ -4897,7 +4829,35 @@
         </is>
       </c>
     </row>
-    <row r="157"/>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>1225</v>
+      </c>
+      <c r="B157" t="n">
+        <v>1</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D157" s="5" t="inlineStr">
+        <is>
+          <t>הורה</t>
+        </is>
+      </c>
+      <c r="E157" s="5" t="inlineStr">
+        <is>
+          <t>parent</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>200913</t>
+        </is>
+      </c>
+    </row>
+    <row r="158"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="6">

--- a/Questions/English/Popular 1000.xlsx
+++ b/Questions/English/Popular 1000.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myq\Questions\English\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53711E37-45ED-41DE-83CA-D23B87541F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{595D70AB-16C5-477C-A842-AD3890543DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -757,6 +757,9 @@
     <t>more</t>
   </si>
   <si>
+    <t>מאשר, מן *****t</t>
+  </si>
+  <si>
     <t>than</t>
   </si>
   <si>
@@ -1024,9 +1027,6 @@
     <t>אולי pXXXXX; mXXXXX</t>
   </si>
   <si>
-    <t>perhaps, maybe</t>
-  </si>
-  <si>
     <t>אופציה</t>
   </si>
   <si>
@@ -1087,7 +1087,7 @@
     <t>to lead</t>
   </si>
   <si>
-    <t>מאשר, מן *****t</t>
+    <t>perhaps; maybe</t>
   </si>
 </sst>
 </file>
@@ -1551,8 +1551,8 @@
   <dimension ref="A1:G161"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D113" sqref="D113"/>
+      <pane ySplit="1" topLeftCell="A141" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E154" sqref="E154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3805,10 +3805,10 @@
         <v>7</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>355</v>
+        <v>245</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G112" t="s">
         <v>236</v>
@@ -3825,10 +3825,10 @@
         <v>7</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G113" t="s">
         <v>236</v>
@@ -3845,10 +3845,10 @@
         <v>7</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G114" t="s">
         <v>236</v>
@@ -3865,10 +3865,10 @@
         <v>7</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G115" t="s">
         <v>236</v>
@@ -3885,10 +3885,10 @@
         <v>7</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G116" t="s">
         <v>236</v>
@@ -3905,10 +3905,10 @@
         <v>7</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G117" t="s">
         <v>236</v>
@@ -3925,10 +3925,10 @@
         <v>7</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G118" t="s">
         <v>236</v>
@@ -3945,10 +3945,10 @@
         <v>7</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G119" t="s">
         <v>236</v>
@@ -3965,10 +3965,10 @@
         <v>7</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G120" t="s">
         <v>236</v>
@@ -3985,10 +3985,10 @@
         <v>7</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G121" t="s">
         <v>236</v>
@@ -4005,13 +4005,13 @@
         <v>7</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G122" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
@@ -4025,13 +4025,13 @@
         <v>7</v>
       </c>
       <c r="D123" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="G123" t="s">
         <v>266</v>
-      </c>
-      <c r="E123" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="G123" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
@@ -4045,13 +4045,13 @@
         <v>7</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G124" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
@@ -4065,13 +4065,13 @@
         <v>7</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G125" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
@@ -4085,13 +4085,13 @@
         <v>7</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G126" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
@@ -4105,13 +4105,13 @@
         <v>7</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G127" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
@@ -4125,13 +4125,13 @@
         <v>7</v>
       </c>
       <c r="D128" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="E128" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="G128" t="s">
         <v>277</v>
-      </c>
-      <c r="E128" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="G128" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
@@ -4145,13 +4145,13 @@
         <v>7</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G129" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
@@ -4165,13 +4165,13 @@
         <v>7</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G130" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
@@ -4185,13 +4185,13 @@
         <v>7</v>
       </c>
       <c r="D131" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="E131" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="G131" t="s">
         <v>284</v>
-      </c>
-      <c r="E131" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="G131" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -4205,13 +4205,13 @@
         <v>7</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G132" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -4225,13 +4225,13 @@
         <v>7</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G133" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -4245,13 +4245,13 @@
         <v>7</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G134" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
@@ -4265,13 +4265,13 @@
         <v>7</v>
       </c>
       <c r="D135" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="E135" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="G135" t="s">
         <v>293</v>
-      </c>
-      <c r="E135" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="G135" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
@@ -4285,13 +4285,13 @@
         <v>7</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G136" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
@@ -4305,13 +4305,13 @@
         <v>7</v>
       </c>
       <c r="D137" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="E137" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="G137" t="s">
         <v>298</v>
-      </c>
-      <c r="E137" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="G137" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -4325,13 +4325,13 @@
         <v>7</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G138" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
@@ -4345,13 +4345,13 @@
         <v>7</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G139" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -4365,13 +4365,13 @@
         <v>7</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G140" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
@@ -4385,13 +4385,13 @@
         <v>7</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G141" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
@@ -4405,13 +4405,13 @@
         <v>7</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G142" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
@@ -4425,13 +4425,13 @@
         <v>7</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G143" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
@@ -4445,13 +4445,13 @@
         <v>7</v>
       </c>
       <c r="D144" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="E144" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="G144" t="s">
         <v>313</v>
-      </c>
-      <c r="E144" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="G144" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -4465,13 +4465,13 @@
         <v>7</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G145" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
@@ -4485,13 +4485,13 @@
         <v>7</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G146" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -4505,13 +4505,13 @@
         <v>7</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G147" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
@@ -4525,13 +4525,13 @@
         <v>7</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G148" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
@@ -4545,13 +4545,13 @@
         <v>7</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G149" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
@@ -4565,13 +4565,13 @@
         <v>7</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G150" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
@@ -4585,13 +4585,13 @@
         <v>7</v>
       </c>
       <c r="D151" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="E151" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="G151" t="s">
         <v>329</v>
-      </c>
-      <c r="E151" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="G151" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
@@ -4605,13 +4605,13 @@
         <v>7</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G152" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
@@ -4625,13 +4625,13 @@
         <v>7</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E153" s="5" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="G153" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
@@ -4651,7 +4651,7 @@
         <v>336</v>
       </c>
       <c r="G154" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">

--- a/Questions/English/Popular 1000.xlsx
+++ b/Questions/English/Popular 1000.xlsx
@@ -465,11 +465,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G162"/>
+  <dimension ref="A1:G167"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A141" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E154" sqref="E154"/>
+      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E167" sqref="E167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
@@ -4969,7 +4969,147 @@
         </is>
       </c>
     </row>
-    <row r="162"/>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>1281</v>
+      </c>
+      <c r="B162" t="n">
+        <v>1</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D162" s="5" t="inlineStr">
+        <is>
+          <t>עדיין</t>
+        </is>
+      </c>
+      <c r="E162" s="5" t="inlineStr">
+        <is>
+          <t>still</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>200923</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>1282</v>
+      </c>
+      <c r="B163" t="n">
+        <v>1</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D163" s="5" t="inlineStr">
+        <is>
+          <t>צעיר</t>
+        </is>
+      </c>
+      <c r="E163" s="5" t="inlineStr">
+        <is>
+          <t>young</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>200923</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>1283</v>
+      </c>
+      <c r="B164" t="n">
+        <v>1</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D164" s="5" t="inlineStr">
+        <is>
+          <t>אני</t>
+        </is>
+      </c>
+      <c r="E164" s="5" t="inlineStr">
+        <is>
+          <t>i</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>200923</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>1284</v>
+      </c>
+      <c r="B165" t="n">
+        <v>1</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D165" s="5" t="inlineStr">
+        <is>
+          <t>איש</t>
+        </is>
+      </c>
+      <c r="E165" s="5" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>200923</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>1285</v>
+      </c>
+      <c r="B166" t="n">
+        <v>1</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D166" s="5" t="inlineStr">
+        <is>
+          <t>אישה XXXXXn; XXXXXe</t>
+        </is>
+      </c>
+      <c r="E166" s="5" t="inlineStr">
+        <is>
+          <t>woman; wife</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>200923</t>
+        </is>
+      </c>
+    </row>
+    <row r="167"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="6">

--- a/Questions/English/Popular 1000.xlsx
+++ b/Questions/English/Popular 1000.xlsx
@@ -465,11 +465,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G167"/>
+  <dimension ref="A1:G172"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E167" sqref="E167"/>
+      <selection pane="bottomLeft" activeCell="E172" sqref="E172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
@@ -5109,7 +5109,147 @@
         </is>
       </c>
     </row>
-    <row r="167"/>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>1300</v>
+      </c>
+      <c r="B167" t="n">
+        <v>1</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D167" s="5" t="inlineStr">
+        <is>
+          <t>אתה</t>
+        </is>
+      </c>
+      <c r="E167" s="5" t="inlineStr">
+        <is>
+          <t>you</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>200926</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>1301</v>
+      </c>
+      <c r="B168" t="n">
+        <v>1</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D168" s="5" t="inlineStr">
+        <is>
+          <t>לו, אותו</t>
+        </is>
+      </c>
+      <c r="E168" s="5" t="inlineStr">
+        <is>
+          <t>him</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>200926</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>1302</v>
+      </c>
+      <c r="B169" t="n">
+        <v>1</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D169" s="5" t="inlineStr">
+        <is>
+          <t>לה, אותה, שלה</t>
+        </is>
+      </c>
+      <c r="E169" s="5" t="inlineStr">
+        <is>
+          <t>her</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>200926</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>1303</v>
+      </c>
+      <c r="B170" t="n">
+        <v>1</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D170" s="5" t="inlineStr">
+        <is>
+          <t>אותם, להם</t>
+        </is>
+      </c>
+      <c r="E170" s="5" t="inlineStr">
+        <is>
+          <t>them</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>200926</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>1304</v>
+      </c>
+      <c r="B171" t="n">
+        <v>1</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D171" s="5" t="inlineStr">
+        <is>
+          <t>לקחתי אותם</t>
+        </is>
+      </c>
+      <c r="E171" s="5" t="inlineStr">
+        <is>
+          <t>i took them</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>200926</t>
+        </is>
+      </c>
+    </row>
+    <row r="172"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="6">

--- a/Questions/English/Popular 1000.xlsx
+++ b/Questions/English/Popular 1000.xlsx
@@ -195,6 +195,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -465,7 +533,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G172"/>
+  <dimension ref="A1:G171"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
@@ -5249,7 +5317,6 @@
         </is>
       </c>
     </row>
-    <row r="172"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="6">

--- a/Questions/English/Popular 1000.xlsx
+++ b/Questions/English/Popular 1000.xlsx
@@ -195,74 +195,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -533,7 +465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G171"/>
+  <dimension ref="A1:G172"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
@@ -5317,6 +5249,7 @@
         </is>
       </c>
     </row>
+    <row r="172"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="6">

--- a/Questions/English/Popular 1000.xlsx
+++ b/Questions/English/Popular 1000.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myq\Questions\English\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF215FE-AA7E-4747-885A-984D2A1BC1FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E909C340-DE52-49F3-8867-6A9BE14DDFE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -577,9 +577,6 @@
     <t>child; kid</t>
   </si>
   <si>
-    <t>ילד</t>
-  </si>
-  <si>
     <t>boy</t>
   </si>
   <si>
@@ -862,6 +859,12 @@
     <t>precisely</t>
   </si>
   <si>
+    <t>בדיוק e; p</t>
+  </si>
+  <si>
+    <t>exactly; precisely</t>
+  </si>
+  <si>
     <t>נתונים</t>
   </si>
   <si>
@@ -949,6 +952,9 @@
     <t>fight</t>
   </si>
   <si>
+    <t>אחד *****o</t>
+  </si>
+  <si>
     <t>one</t>
   </si>
   <si>
@@ -1138,13 +1144,7 @@
     <t>i took them</t>
   </si>
   <si>
-    <t>בדיוק e; p</t>
-  </si>
-  <si>
-    <t>exactly; precisely</t>
-  </si>
-  <si>
-    <t>אחד *****o</t>
+    <t>ילד *****b</t>
   </si>
 </sst>
 </file>
@@ -1608,8 +1608,8 @@
   <dimension ref="A1:G172"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A133" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D144" sqref="D144"/>
+      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3302,10 +3302,10 @@
         <v>7</v>
       </c>
       <c r="D84" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="E84" s="5" t="s">
         <v>185</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>186</v>
       </c>
       <c r="G84" t="s">
         <v>26</v>
@@ -3322,10 +3322,10 @@
         <v>7</v>
       </c>
       <c r="D85" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E85" s="5" t="s">
         <v>187</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>188</v>
       </c>
       <c r="G85" t="s">
         <v>26</v>
@@ -3342,13 +3342,13 @@
         <v>7</v>
       </c>
       <c r="D86" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E86" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="E86" s="5" t="s">
+      <c r="G86" t="s">
         <v>190</v>
-      </c>
-      <c r="G86" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -3362,13 +3362,13 @@
         <v>7</v>
       </c>
       <c r="D87" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E87" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="E87" s="5" t="s">
-        <v>193</v>
-      </c>
       <c r="G87" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -3382,13 +3382,13 @@
         <v>7</v>
       </c>
       <c r="D88" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="E88" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="E88" s="5" t="s">
-        <v>195</v>
-      </c>
       <c r="G88" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -3402,13 +3402,13 @@
         <v>7</v>
       </c>
       <c r="D89" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="E89" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="E89" s="5" t="s">
-        <v>197</v>
-      </c>
       <c r="G89" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -3422,13 +3422,13 @@
         <v>7</v>
       </c>
       <c r="D90" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="E90" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="E90" s="5" t="s">
+      <c r="G90" t="s">
         <v>199</v>
-      </c>
-      <c r="G90" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -3442,13 +3442,13 @@
         <v>7</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E91" s="5" t="s">
         <v>111</v>
       </c>
       <c r="G91" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -3462,13 +3462,13 @@
         <v>7</v>
       </c>
       <c r="D92" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E92" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="E92" s="5" t="s">
-        <v>203</v>
-      </c>
       <c r="G92" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -3482,13 +3482,13 @@
         <v>7</v>
       </c>
       <c r="D93" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E93" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="E93" s="5" t="s">
-        <v>205</v>
-      </c>
       <c r="G93" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -3502,10 +3502,10 @@
         <v>7</v>
       </c>
       <c r="D94" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E94" s="5" t="s">
         <v>206</v>
-      </c>
-      <c r="E94" s="5" t="s">
-        <v>207</v>
       </c>
       <c r="G94" t="s">
         <v>49</v>
@@ -3522,10 +3522,10 @@
         <v>7</v>
       </c>
       <c r="D95" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="E95" s="5" t="s">
         <v>208</v>
-      </c>
-      <c r="E95" s="5" t="s">
-        <v>209</v>
       </c>
       <c r="G95" t="s">
         <v>49</v>
@@ -3542,10 +3542,10 @@
         <v>7</v>
       </c>
       <c r="D96" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="E96" s="5" t="s">
         <v>210</v>
-      </c>
-      <c r="E96" s="5" t="s">
-        <v>211</v>
       </c>
       <c r="G96" t="s">
         <v>49</v>
@@ -3562,13 +3562,13 @@
         <v>7</v>
       </c>
       <c r="D97" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E97" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="E97" s="5" t="s">
+      <c r="G97" t="s">
         <v>213</v>
-      </c>
-      <c r="G97" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -3582,13 +3582,13 @@
         <v>7</v>
       </c>
       <c r="D98" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="E98" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="E98" s="5" t="s">
-        <v>216</v>
-      </c>
       <c r="G98" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -3602,13 +3602,13 @@
         <v>7</v>
       </c>
       <c r="D99" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="E99" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="E99" s="5" t="s">
-        <v>218</v>
-      </c>
       <c r="G99" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -3622,13 +3622,13 @@
         <v>7</v>
       </c>
       <c r="D100" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E100" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="E100" s="5" t="s">
-        <v>220</v>
-      </c>
       <c r="G100" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -3642,13 +3642,13 @@
         <v>7</v>
       </c>
       <c r="D101" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E101" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="E101" s="5" t="s">
-        <v>222</v>
-      </c>
       <c r="G101" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -3662,13 +3662,13 @@
         <v>7</v>
       </c>
       <c r="D102" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E102" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="E102" s="5" t="s">
-        <v>224</v>
-      </c>
       <c r="G102" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -3682,13 +3682,13 @@
         <v>7</v>
       </c>
       <c r="D103" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E103" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="E103" s="5" t="s">
-        <v>226</v>
-      </c>
       <c r="G103" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -3702,13 +3702,13 @@
         <v>7</v>
       </c>
       <c r="D104" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="E104" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="E104" s="5" t="s">
+      <c r="G104" t="s">
         <v>228</v>
-      </c>
-      <c r="G104" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -3722,13 +3722,13 @@
         <v>7</v>
       </c>
       <c r="D105" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E105" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="E105" s="5" t="s">
-        <v>231</v>
-      </c>
       <c r="G105" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -3742,13 +3742,13 @@
         <v>7</v>
       </c>
       <c r="D106" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="E106" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="E106" s="5" t="s">
-        <v>233</v>
-      </c>
       <c r="G106" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -3762,13 +3762,13 @@
         <v>7</v>
       </c>
       <c r="D107" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="E107" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="E107" s="5" t="s">
+      <c r="G107" t="s">
         <v>235</v>
-      </c>
-      <c r="G107" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -3782,13 +3782,13 @@
         <v>7</v>
       </c>
       <c r="D108" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="E108" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="E108" s="5" t="s">
-        <v>238</v>
-      </c>
       <c r="G108" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -3802,13 +3802,13 @@
         <v>7</v>
       </c>
       <c r="D109" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="E109" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="E109" s="5" t="s">
-        <v>240</v>
-      </c>
       <c r="G109" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -3822,13 +3822,13 @@
         <v>7</v>
       </c>
       <c r="D110" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="E110" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="E110" s="5" t="s">
-        <v>242</v>
-      </c>
       <c r="G110" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -3842,13 +3842,13 @@
         <v>7</v>
       </c>
       <c r="D111" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="E111" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="E111" s="5" t="s">
-        <v>244</v>
-      </c>
       <c r="G111" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -3862,13 +3862,13 @@
         <v>7</v>
       </c>
       <c r="D112" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E112" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="E112" s="5" t="s">
-        <v>246</v>
-      </c>
       <c r="G112" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -3882,13 +3882,13 @@
         <v>7</v>
       </c>
       <c r="D113" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="E113" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="E113" s="5" t="s">
-        <v>248</v>
-      </c>
       <c r="G113" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -3902,13 +3902,13 @@
         <v>7</v>
       </c>
       <c r="D114" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="E114" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="E114" s="5" t="s">
-        <v>250</v>
-      </c>
       <c r="G114" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
@@ -3922,13 +3922,13 @@
         <v>7</v>
       </c>
       <c r="D115" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="E115" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="E115" s="5" t="s">
-        <v>252</v>
-      </c>
       <c r="G115" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -3942,13 +3942,13 @@
         <v>7</v>
       </c>
       <c r="D116" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="E116" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="E116" s="5" t="s">
-        <v>254</v>
-      </c>
       <c r="G116" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -3962,13 +3962,13 @@
         <v>7</v>
       </c>
       <c r="D117" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="E117" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="E117" s="5" t="s">
-        <v>256</v>
-      </c>
       <c r="G117" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -3982,13 +3982,13 @@
         <v>7</v>
       </c>
       <c r="D118" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="E118" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="E118" s="5" t="s">
-        <v>258</v>
-      </c>
       <c r="G118" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
@@ -4002,13 +4002,13 @@
         <v>7</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G119" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
@@ -4022,13 +4022,13 @@
         <v>7</v>
       </c>
       <c r="D120" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="E120" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="E120" s="5" t="s">
-        <v>261</v>
-      </c>
       <c r="G120" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -4042,13 +4042,13 @@
         <v>7</v>
       </c>
       <c r="D121" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="E121" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="E121" s="5" t="s">
-        <v>263</v>
-      </c>
       <c r="G121" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
@@ -4062,13 +4062,13 @@
         <v>7</v>
       </c>
       <c r="D122" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="E122" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="E122" s="5" t="s">
+      <c r="G122" t="s">
         <v>265</v>
-      </c>
-      <c r="G122" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
@@ -4082,13 +4082,13 @@
         <v>7</v>
       </c>
       <c r="D123" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="E123" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="E123" s="5" t="s">
-        <v>268</v>
-      </c>
       <c r="G123" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
@@ -4102,13 +4102,13 @@
         <v>7</v>
       </c>
       <c r="D124" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="E124" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="E124" s="5" t="s">
-        <v>270</v>
-      </c>
       <c r="G124" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
@@ -4122,13 +4122,13 @@
         <v>7</v>
       </c>
       <c r="D125" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="E125" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="E125" s="5" t="s">
-        <v>272</v>
-      </c>
       <c r="G125" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
@@ -4142,13 +4142,13 @@
         <v>7</v>
       </c>
       <c r="D126" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="E126" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="E126" s="5" t="s">
-        <v>274</v>
-      </c>
       <c r="G126" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
@@ -4162,13 +4162,13 @@
         <v>7</v>
       </c>
       <c r="D127" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="E127" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="E127" s="5" t="s">
+      <c r="G127" t="s">
         <v>276</v>
-      </c>
-      <c r="G127" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
@@ -4182,26 +4182,22 @@
         <v>7</v>
       </c>
       <c r="D128" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="E128" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="E128" s="5" t="s">
+      <c r="G128" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D129" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="G128" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129"/>
-      <c r="B129"/>
-      <c r="C129"/>
-      <c r="D129" s="5" t="s">
-        <v>372</v>
-      </c>
       <c r="E129" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="G129"/>
+        <v>280</v>
+      </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130">
@@ -4214,13 +4210,13 @@
         <v>7</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G130" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
@@ -4234,13 +4230,13 @@
         <v>7</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G131" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -4254,13 +4250,13 @@
         <v>7</v>
       </c>
       <c r="D132" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="E132" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="G132" t="s">
         <v>285</v>
-      </c>
-      <c r="E132" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="G132" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -4274,13 +4270,13 @@
         <v>7</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G133" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -4294,13 +4290,13 @@
         <v>7</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G134" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
@@ -4314,13 +4310,13 @@
         <v>7</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G135" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
@@ -4334,13 +4330,13 @@
         <v>7</v>
       </c>
       <c r="D136" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="E136" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="G136" t="s">
         <v>294</v>
-      </c>
-      <c r="E136" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="G136" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
@@ -4354,13 +4350,13 @@
         <v>7</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G137" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -4374,13 +4370,13 @@
         <v>7</v>
       </c>
       <c r="D138" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="E138" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="G138" t="s">
         <v>299</v>
-      </c>
-      <c r="E138" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="G138" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
@@ -4394,13 +4390,13 @@
         <v>7</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G139" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -4414,13 +4410,13 @@
         <v>7</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G140" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
@@ -4434,13 +4430,13 @@
         <v>7</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G141" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
@@ -4454,13 +4450,13 @@
         <v>7</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G142" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
@@ -4474,13 +4470,13 @@
         <v>7</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>374</v>
+        <v>310</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G143" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
@@ -4494,13 +4490,13 @@
         <v>7</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="G144" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -4514,13 +4510,13 @@
         <v>7</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E145" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="G145" t="s">
         <v>314</v>
-      </c>
-      <c r="G145" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
@@ -4534,13 +4530,13 @@
         <v>7</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G146" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -4554,13 +4550,13 @@
         <v>7</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G147" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
@@ -4574,13 +4570,13 @@
         <v>7</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="G148" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
@@ -4594,13 +4590,13 @@
         <v>7</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="G149" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
@@ -4614,13 +4610,13 @@
         <v>7</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="G150" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
@@ -4634,13 +4630,13 @@
         <v>7</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="G151" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
@@ -4654,13 +4650,13 @@
         <v>7</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E152" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="G152" t="s">
         <v>330</v>
-      </c>
-      <c r="G152" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
@@ -4674,13 +4670,13 @@
         <v>7</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E153" s="5" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="G153" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
@@ -4694,13 +4690,13 @@
         <v>7</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E154" s="5" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="G154" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
@@ -4714,13 +4710,13 @@
         <v>7</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="G155" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
@@ -4734,13 +4730,13 @@
         <v>7</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="G156" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
@@ -4754,13 +4750,13 @@
         <v>7</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="G157" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
@@ -4774,13 +4770,13 @@
         <v>7</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E158" s="5" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="G158" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
@@ -4794,13 +4790,13 @@
         <v>7</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="E159" s="5" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="G159" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
@@ -4814,13 +4810,13 @@
         <v>7</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="E160" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="G160" t="s">
         <v>350</v>
-      </c>
-      <c r="G160" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
@@ -4834,13 +4830,13 @@
         <v>7</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="G161" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
@@ -4854,13 +4850,13 @@
         <v>7</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="G162" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
@@ -4874,13 +4870,13 @@
         <v>7</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E163" s="5" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="G163" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
@@ -4894,13 +4890,13 @@
         <v>7</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E164" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="G164" t="s">
         <v>359</v>
-      </c>
-      <c r="G164" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
@@ -4920,7 +4916,7 @@
         <v>42</v>
       </c>
       <c r="G165" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
@@ -4934,13 +4930,13 @@
         <v>7</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E166" s="5" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="G166" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
@@ -4954,13 +4950,13 @@
         <v>7</v>
       </c>
       <c r="D167" s="5" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="E167" s="5" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="G167" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
@@ -4980,7 +4976,7 @@
         <v>44</v>
       </c>
       <c r="G168" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
@@ -4994,13 +4990,13 @@
         <v>7</v>
       </c>
       <c r="D169" s="5" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="E169" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="G169" t="s">
         <v>366</v>
-      </c>
-      <c r="G169" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
@@ -5014,13 +5010,13 @@
         <v>7</v>
       </c>
       <c r="D170" s="5" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="E170" s="5" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G170" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
@@ -5034,13 +5030,13 @@
         <v>7</v>
       </c>
       <c r="D171" s="5" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="E171" s="5" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="G171" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
@@ -5054,13 +5050,13 @@
         <v>7</v>
       </c>
       <c r="D172" s="5" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E172" s="5" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="G172" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>

--- a/Questions/English/Popular 1000.xlsx
+++ b/Questions/English/Popular 1000.xlsx
@@ -536,8 +536,8 @@
   <dimension ref="A1:G172"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D85" sqref="D85"/>
+      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D167" sqref="D167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
@@ -5163,7 +5163,7 @@
       </c>
       <c r="D166" s="5" t="inlineStr">
         <is>
-          <t>איש</t>
+          <t>איש *****m</t>
         </is>
       </c>
       <c r="E166" s="5" t="inlineStr">

--- a/Questions/English/Popular 1000.xlsx
+++ b/Questions/English/Popular 1000.xlsx
@@ -195,74 +195,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -533,7 +465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G172"/>
+  <dimension ref="A1:G173"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
@@ -5345,6 +5277,7 @@
         </is>
       </c>
     </row>
+    <row r="173"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="6">

--- a/Questions/English/Popular 1000.xlsx
+++ b/Questions/English/Popular 1000.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -195,6 +195,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -468,8 +536,8 @@
   <dimension ref="A1:G174"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D174" sqref="D174"/>
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
@@ -620,7 +688,7 @@
       </c>
       <c r="D5" s="6" t="inlineStr">
         <is>
-          <t>לבסוף, בסופו של דבר *****f</t>
+          <t>ל******ף, בסופו של דבר *****f</t>
         </is>
       </c>
       <c r="E5" s="9" t="inlineStr">
@@ -913,7 +981,7 @@
       </c>
       <c r="D16" s="5" t="inlineStr">
         <is>
-          <t>בתוך e*****</t>
+          <t>ב***** e*****</t>
         </is>
       </c>
       <c r="E16" s="5" t="inlineStr">
@@ -1315,7 +1383,7 @@
       </c>
       <c r="D31" s="5" t="inlineStr">
         <is>
-          <t>רוב *****mo</t>
+          <t>רוב **mo</t>
         </is>
       </c>
       <c r="E31" s="5" t="inlineStr">
@@ -1343,7 +1411,7 @@
       </c>
       <c r="D32" s="5" t="inlineStr">
         <is>
-          <t>רוב *****ma</t>
+          <t>ר************ma</t>
         </is>
       </c>
       <c r="E32" s="5" t="inlineStr">
@@ -1483,7 +1551,7 @@
       </c>
       <c r="D37" s="5" t="inlineStr">
         <is>
-          <t>מבנה *****s</t>
+          <t>מ******** *****s</t>
         </is>
       </c>
       <c r="E37" s="5" t="inlineStr">
@@ -1679,7 +1747,7 @@
       </c>
       <c r="D44" s="5" t="inlineStr">
         <is>
-          <t>על ידי *****</t>
+          <t>על ידי **</t>
         </is>
       </c>
       <c r="E44" s="5" t="inlineStr">
@@ -1791,7 +1859,7 @@
       </c>
       <c r="D48" s="5" t="inlineStr">
         <is>
-          <t>שלי y*****</t>
+          <t>שלי y*</t>
         </is>
       </c>
       <c r="E48" s="5" t="inlineStr">
@@ -1819,7 +1887,7 @@
       </c>
       <c r="D49" s="5" t="inlineStr">
         <is>
-          <t>שלי e*****</t>
+          <t>שלי e***</t>
         </is>
       </c>
       <c r="E49" s="5" t="inlineStr">
@@ -1847,7 +1915,7 @@
       </c>
       <c r="D50" s="5" t="inlineStr">
         <is>
-          <t>כמו *****a</t>
+          <t>כ******a</t>
         </is>
       </c>
       <c r="E50" s="5" t="inlineStr">
@@ -1875,7 +1943,7 @@
       </c>
       <c r="D51" s="5" t="inlineStr">
         <is>
-          <t>כמו *****s</t>
+          <t>כ********s</t>
         </is>
       </c>
       <c r="E51" s="5" t="inlineStr">
@@ -1903,7 +1971,7 @@
       </c>
       <c r="D52" s="5" t="inlineStr">
         <is>
-          <t>כמו *****l</t>
+          <t>כ********l</t>
         </is>
       </c>
       <c r="E52" s="5" t="inlineStr">
@@ -2015,7 +2083,7 @@
       </c>
       <c r="D56" s="5" t="inlineStr">
         <is>
-          <t>אם *****i</t>
+          <t>א*****i</t>
         </is>
       </c>
       <c r="E56" s="5" t="inlineStr">
@@ -2043,7 +2111,7 @@
       </c>
       <c r="D57" s="5" t="inlineStr">
         <is>
-          <t>לי *****</t>
+          <t>לי **</t>
         </is>
       </c>
       <c r="E57" s="5" t="inlineStr">
@@ -2071,7 +2139,7 @@
       </c>
       <c r="D58" s="5" t="inlineStr">
         <is>
-          <t>שלך r*****</t>
+          <t>שלך r***</t>
         </is>
       </c>
       <c r="E58" s="5" t="inlineStr">
@@ -2099,7 +2167,7 @@
       </c>
       <c r="D59" s="5" t="inlineStr">
         <is>
-          <t>שלך s*****</t>
+          <t>שלך s****</t>
         </is>
       </c>
       <c r="E59" s="5" t="inlineStr">
@@ -2127,7 +2195,7 @@
       </c>
       <c r="D60" s="5" t="inlineStr">
         <is>
-          <t>כל, כל אחד y*****</t>
+          <t>כל, כל אחד y****</t>
         </is>
       </c>
       <c r="E60" s="5" t="inlineStr">
@@ -2155,7 +2223,7 @@
       </c>
       <c r="D61" s="5" t="inlineStr">
         <is>
-          <t>כל, כל אחד h*****</t>
+          <t>כל, כל אחד h***</t>
         </is>
       </c>
       <c r="E61" s="5" t="inlineStr">
@@ -2211,7 +2279,7 @@
       </c>
       <c r="D63" s="5" t="inlineStr">
         <is>
-          <t>כל *****a</t>
+          <t>כ******a</t>
         </is>
       </c>
       <c r="E63" s="5" t="inlineStr">
@@ -2351,7 +2419,7 @@
       </c>
       <c r="D68" s="5" t="inlineStr">
         <is>
-          <t>כל כך *****s</t>
+          <t>כ*ך *****s</t>
         </is>
       </c>
       <c r="E68" s="5" t="inlineStr">
@@ -2435,7 +2503,7 @@
       </c>
       <c r="D71" s="5" t="inlineStr">
         <is>
-          <t>שולחן *****t</t>
+          <t>ש****ן *****t</t>
         </is>
       </c>
       <c r="E71" s="5" t="inlineStr">
@@ -2519,7 +2587,7 @@
       </c>
       <c r="D74" s="5" t="inlineStr">
         <is>
-          <t>שולחן כתיבה *****d</t>
+          <t>ש***ן כתיבה *****d</t>
         </is>
       </c>
       <c r="E74" s="5" t="inlineStr">
@@ -2603,7 +2671,7 @@
       </c>
       <c r="D77" s="5" t="inlineStr">
         <is>
-          <t>סתיו *****f</t>
+          <t>ס*** *****f</t>
         </is>
       </c>
       <c r="E77" s="5" t="inlineStr">
@@ -2715,7 +2783,7 @@
       </c>
       <c r="D81" s="5" t="inlineStr">
         <is>
-          <t>ילד/ה *****c</t>
+          <t>י****ה *****c</t>
         </is>
       </c>
       <c r="E81" s="5" t="inlineStr">
@@ -2743,7 +2811,7 @@
       </c>
       <c r="D82" s="5" t="inlineStr">
         <is>
-          <t>ילד/ה *****k</t>
+          <t>י**ה *****k</t>
         </is>
       </c>
       <c r="E82" s="5" t="inlineStr">
@@ -2799,7 +2867,7 @@
       </c>
       <c r="D84" s="5" t="inlineStr">
         <is>
-          <t>ילד *****b</t>
+          <t>י*******b</t>
         </is>
       </c>
       <c r="E84" s="5" t="inlineStr">
@@ -2855,7 +2923,7 @@
       </c>
       <c r="D86" s="5" t="inlineStr">
         <is>
-          <t>יכולת *****a</t>
+          <t>י******ת *****a</t>
         </is>
       </c>
       <c r="E86" s="5" t="inlineStr">
@@ -2883,7 +2951,7 @@
       </c>
       <c r="D87" s="5" t="inlineStr">
         <is>
-          <t>יכולת (פוטנציאל) *****c</t>
+          <t>י*********ת (פוטנציאל) *****c</t>
         </is>
       </c>
       <c r="E87" s="5" t="inlineStr">
@@ -3051,7 +3119,7 @@
       </c>
       <c r="D93" s="5" t="inlineStr">
         <is>
-          <t>מכנסיים קצרים *****</t>
+          <t>מ*****יים קצרים *******</t>
         </is>
       </c>
       <c r="E93" s="5" t="inlineStr">
@@ -3219,7 +3287,7 @@
       </c>
       <c r="D99" s="5" t="inlineStr">
         <is>
-          <t>רק *****o</t>
+          <t>ר*******o</t>
         </is>
       </c>
       <c r="E99" s="5" t="inlineStr">
@@ -3247,7 +3315,7 @@
       </c>
       <c r="D100" s="5" t="inlineStr">
         <is>
-          <t>רק *****j</t>
+          <t>ר*******j</t>
         </is>
       </c>
       <c r="E100" s="5" t="inlineStr">
@@ -3583,7 +3651,7 @@
       </c>
       <c r="D112" s="5" t="inlineStr">
         <is>
-          <t>מאשר, מן *****t</t>
+          <t>מ***, מן *****t</t>
         </is>
       </c>
       <c r="E112" s="5" t="inlineStr">
@@ -3639,7 +3707,7 @@
       </c>
       <c r="D114" s="5" t="inlineStr">
         <is>
-          <t>סוג *****t</t>
+          <t>ס********t</t>
         </is>
       </c>
       <c r="E114" s="5" t="inlineStr">
@@ -3667,7 +3735,7 @@
       </c>
       <c r="D115" s="5" t="inlineStr">
         <is>
-          <t>סוג *****k</t>
+          <t>ס********k</t>
         </is>
       </c>
       <c r="E115" s="5" t="inlineStr">
@@ -3695,7 +3763,7 @@
       </c>
       <c r="D116" s="5" t="inlineStr">
         <is>
-          <t>סוג *****s</t>
+          <t>ס********s</t>
         </is>
       </c>
       <c r="E116" s="5" t="inlineStr">
@@ -3779,7 +3847,7 @@
       </c>
       <c r="D119" s="5" t="inlineStr">
         <is>
-          <t>אדיב *****k</t>
+          <t>א*** *****k</t>
         </is>
       </c>
       <c r="E119" s="5" t="inlineStr">
@@ -3863,7 +3931,7 @@
       </c>
       <c r="D122" s="5" t="inlineStr">
         <is>
-          <t>שם *****t</t>
+          <t>ש********t</t>
         </is>
       </c>
       <c r="E122" s="5" t="inlineStr">
@@ -4003,7 +4071,7 @@
       </c>
       <c r="D127" s="5" t="inlineStr">
         <is>
-          <t>בדיוק *****e</t>
+          <t>ב******ק *****e</t>
         </is>
       </c>
       <c r="E127" s="5" t="inlineStr">
@@ -4031,7 +4099,7 @@
       </c>
       <c r="D128" s="5" t="inlineStr">
         <is>
-          <t>בדיוק *****p</t>
+          <t>ב********ק *****p</t>
         </is>
       </c>
       <c r="E128" s="5" t="inlineStr">
@@ -4115,7 +4183,7 @@
       </c>
       <c r="D131" s="5" t="inlineStr">
         <is>
-          <t>גורם *****f</t>
+          <t>ג***** *****f</t>
         </is>
       </c>
       <c r="E131" s="5" t="inlineStr">
@@ -4143,7 +4211,7 @@
       </c>
       <c r="D132" s="5" t="inlineStr">
         <is>
-          <t>גורם *****c</t>
+          <t>ג**** *****c</t>
         </is>
       </c>
       <c r="E132" s="5" t="inlineStr">
@@ -4255,7 +4323,7 @@
       </c>
       <c r="D136" s="5" t="inlineStr">
         <is>
-          <t>החוצה, מחוץ ל t*****</t>
+          <t>החוצה, מחוץ ל t**</t>
         </is>
       </c>
       <c r="E136" s="5" t="inlineStr">
@@ -4311,7 +4379,7 @@
       </c>
       <c r="D138" s="5" t="inlineStr">
         <is>
-          <t>ללא מאמץ ss*****</t>
+          <t>ללא מאמץ ss*****************</t>
         </is>
       </c>
       <c r="E138" s="5" t="inlineStr">
@@ -4423,7 +4491,7 @@
       </c>
       <c r="D142" s="5" t="inlineStr">
         <is>
-          <t>קרב *****f</t>
+          <t>ק*********f</t>
         </is>
       </c>
       <c r="E142" s="5" t="inlineStr">
@@ -4451,7 +4519,7 @@
       </c>
       <c r="D143" s="5" t="inlineStr">
         <is>
-          <t>אחד *****o</t>
+          <t>א*******o</t>
         </is>
       </c>
       <c r="E143" s="5" t="inlineStr">
@@ -4535,7 +4603,7 @@
       </c>
       <c r="D146" s="5" t="inlineStr">
         <is>
-          <t>מהלך *****m</t>
+          <t>מ*** *****m</t>
         </is>
       </c>
       <c r="E146" s="5" t="inlineStr">
@@ -4563,7 +4631,7 @@
       </c>
       <c r="D147" s="5" t="inlineStr">
         <is>
-          <t>תנועה t*****</t>
+          <t>ת*******ה t*********</t>
         </is>
       </c>
       <c r="E147" s="5" t="inlineStr">
@@ -4591,7 +4659,7 @@
       </c>
       <c r="D148" s="5" t="inlineStr">
         <is>
-          <t>תנועה n*****</t>
+          <t>ת*****ה n*****</t>
         </is>
       </c>
       <c r="E148" s="5" t="inlineStr">
@@ -4703,7 +4771,7 @@
       </c>
       <c r="D152" s="5" t="inlineStr">
         <is>
-          <t>אולי *****p</t>
+          <t>א****** *****p</t>
         </is>
       </c>
       <c r="E152" s="5" t="inlineStr">
@@ -4731,7 +4799,7 @@
       </c>
       <c r="D153" s="5" t="inlineStr">
         <is>
-          <t>אולי *****m</t>
+          <t>א**** *****m</t>
         </is>
       </c>
       <c r="E153" s="5" t="inlineStr">
@@ -4843,7 +4911,7 @@
       </c>
       <c r="D157" s="5" t="inlineStr">
         <is>
-          <t>חלק *****p</t>
+          <t>ח********p</t>
         </is>
       </c>
       <c r="E157" s="5" t="inlineStr">
@@ -4955,7 +5023,7 @@
       </c>
       <c r="D161" s="5" t="inlineStr">
         <is>
-          <t>אדם *****p</t>
+          <t>א**********p</t>
         </is>
       </c>
       <c r="E161" s="5" t="inlineStr">
@@ -5095,7 +5163,7 @@
       </c>
       <c r="D166" s="5" t="inlineStr">
         <is>
-          <t>איש *****m</t>
+          <t>א*******m</t>
         </is>
       </c>
       <c r="E166" s="5" t="inlineStr">

--- a/Questions/English/Popular 1000.xlsx
+++ b/Questions/English/Popular 1000.xlsx
@@ -195,74 +195,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -536,8 +468,8 @@
   <dimension ref="A1:G174"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
+      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D175" sqref="D175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
@@ -688,7 +620,7 @@
       </c>
       <c r="D5" s="6" t="inlineStr">
         <is>
-          <t>ל******ף, בסופו של דבר *****f</t>
+          <t>ל*****ף, בסופו של דבר *****f</t>
         </is>
       </c>
       <c r="E5" s="9" t="inlineStr">
@@ -1411,7 +1343,7 @@
       </c>
       <c r="D32" s="5" t="inlineStr">
         <is>
-          <t>ר************ma</t>
+          <t>ר *****ma</t>
         </is>
       </c>
       <c r="E32" s="5" t="inlineStr">
@@ -1551,7 +1483,7 @@
       </c>
       <c r="D37" s="5" t="inlineStr">
         <is>
-          <t>מ******** *****s</t>
+          <t>מבנה</t>
         </is>
       </c>
       <c r="E37" s="5" t="inlineStr">
@@ -1915,7 +1847,7 @@
       </c>
       <c r="D50" s="5" t="inlineStr">
         <is>
-          <t>כ******a</t>
+          <t>כמו *a</t>
         </is>
       </c>
       <c r="E50" s="5" t="inlineStr">
@@ -1943,7 +1875,7 @@
       </c>
       <c r="D51" s="5" t="inlineStr">
         <is>
-          <t>כ********s</t>
+          <t>כמו ***s</t>
         </is>
       </c>
       <c r="E51" s="5" t="inlineStr">
@@ -1971,7 +1903,7 @@
       </c>
       <c r="D52" s="5" t="inlineStr">
         <is>
-          <t>כ********l</t>
+          <t>כמו ***l</t>
         </is>
       </c>
       <c r="E52" s="5" t="inlineStr">
@@ -1999,7 +1931,7 @@
       </c>
       <c r="D53" s="5" t="inlineStr">
         <is>
-          <t>כמו aXXX; lXXX; sXXX</t>
+          <t>כמו a; l; s</t>
         </is>
       </c>
       <c r="E53" s="5" t="inlineStr">
@@ -2083,7 +2015,7 @@
       </c>
       <c r="D56" s="5" t="inlineStr">
         <is>
-          <t>א*****i</t>
+          <t>אם *i</t>
         </is>
       </c>
       <c r="E56" s="5" t="inlineStr">
@@ -2279,7 +2211,7 @@
       </c>
       <c r="D63" s="5" t="inlineStr">
         <is>
-          <t>כ******a</t>
+          <t>כולם **a</t>
         </is>
       </c>
       <c r="E63" s="5" t="inlineStr">
@@ -2419,7 +2351,7 @@
       </c>
       <c r="D68" s="5" t="inlineStr">
         <is>
-          <t>כ*ך *****s</t>
+          <t>כל כך *s</t>
         </is>
       </c>
       <c r="E68" s="5" t="inlineStr">
@@ -2503,7 +2435,7 @@
       </c>
       <c r="D71" s="5" t="inlineStr">
         <is>
-          <t>ש****ן *****t</t>
+          <t>שולחן ****t</t>
         </is>
       </c>
       <c r="E71" s="5" t="inlineStr">
@@ -2587,7 +2519,7 @@
       </c>
       <c r="D74" s="5" t="inlineStr">
         <is>
-          <t>ש***ן כתיבה *****d</t>
+          <t>שולחן כתיבה ***d</t>
         </is>
       </c>
       <c r="E74" s="5" t="inlineStr">
@@ -2615,7 +2547,7 @@
       </c>
       <c r="D75" s="5" t="inlineStr">
         <is>
-          <t>שולחן; שולחן כתיבה tXXXXX; dXXXXX</t>
+          <t>שולחן; שולחן כתיבה t; d</t>
         </is>
       </c>
       <c r="E75" s="5" t="inlineStr">
@@ -2671,7 +2603,7 @@
       </c>
       <c r="D77" s="5" t="inlineStr">
         <is>
-          <t>ס*** *****f</t>
+          <t>סתיו ***f</t>
         </is>
       </c>
       <c r="E77" s="5" t="inlineStr">
@@ -2699,7 +2631,7 @@
       </c>
       <c r="D78" s="5" t="inlineStr">
         <is>
-          <t>סתיו aXXXXX; fXXXXX</t>
+          <t>סתיו a; f</t>
         </is>
       </c>
       <c r="E78" s="5" t="inlineStr">
@@ -2783,7 +2715,7 @@
       </c>
       <c r="D81" s="5" t="inlineStr">
         <is>
-          <t>י****ה *****c</t>
+          <t>ילד ****c</t>
         </is>
       </c>
       <c r="E81" s="5" t="inlineStr">
@@ -2811,7 +2743,7 @@
       </c>
       <c r="D82" s="5" t="inlineStr">
         <is>
-          <t>י**ה *****k</t>
+          <t>ילד **k</t>
         </is>
       </c>
       <c r="E82" s="5" t="inlineStr">
@@ -2839,7 +2771,7 @@
       </c>
       <c r="D83" s="5" t="inlineStr">
         <is>
-          <t>ילד/ה cxxxxx; kxxxxx</t>
+          <t>ילד/ה c; k</t>
         </is>
       </c>
       <c r="E83" s="5" t="inlineStr">
@@ -2867,7 +2799,7 @@
       </c>
       <c r="D84" s="5" t="inlineStr">
         <is>
-          <t>י*******b</t>
+          <t>ילד **b</t>
         </is>
       </c>
       <c r="E84" s="5" t="inlineStr">
@@ -2923,7 +2855,7 @@
       </c>
       <c r="D86" s="5" t="inlineStr">
         <is>
-          <t>י******ת *****a</t>
+          <t>יכולת *****a</t>
         </is>
       </c>
       <c r="E86" s="5" t="inlineStr">
@@ -2951,7 +2883,7 @@
       </c>
       <c r="D87" s="5" t="inlineStr">
         <is>
-          <t>י*********ת (פוטנציאל) *****c</t>
+          <t>יכולת (פוטנציאל) *****c</t>
         </is>
       </c>
       <c r="E87" s="5" t="inlineStr">
@@ -3119,7 +3051,7 @@
       </c>
       <c r="D93" s="5" t="inlineStr">
         <is>
-          <t>מ*****יים קצרים *******</t>
+          <t>מכנסיים קצרים *****</t>
         </is>
       </c>
       <c r="E93" s="5" t="inlineStr">
@@ -3287,7 +3219,7 @@
       </c>
       <c r="D99" s="5" t="inlineStr">
         <is>
-          <t>ר*******o</t>
+          <t>רק ***o</t>
         </is>
       </c>
       <c r="E99" s="5" t="inlineStr">
@@ -3315,7 +3247,7 @@
       </c>
       <c r="D100" s="5" t="inlineStr">
         <is>
-          <t>ר*******j</t>
+          <t>רק ***j</t>
         </is>
       </c>
       <c r="E100" s="5" t="inlineStr">
@@ -3343,7 +3275,7 @@
       </c>
       <c r="D101" s="5" t="inlineStr">
         <is>
-          <t>רק oXXXXX; jXXXXX</t>
+          <t>רק o; j</t>
         </is>
       </c>
       <c r="E101" s="5" t="inlineStr">
@@ -3651,7 +3583,7 @@
       </c>
       <c r="D112" s="5" t="inlineStr">
         <is>
-          <t>מ***, מן *****t</t>
+          <t>מ, מן ***t</t>
         </is>
       </c>
       <c r="E112" s="5" t="inlineStr">
@@ -3707,7 +3639,7 @@
       </c>
       <c r="D114" s="5" t="inlineStr">
         <is>
-          <t>ס********t</t>
+          <t>סוג ***t</t>
         </is>
       </c>
       <c r="E114" s="5" t="inlineStr">
@@ -3735,7 +3667,7 @@
       </c>
       <c r="D115" s="5" t="inlineStr">
         <is>
-          <t>ס********k</t>
+          <t>סוג ***k</t>
         </is>
       </c>
       <c r="E115" s="5" t="inlineStr">
@@ -3763,7 +3695,7 @@
       </c>
       <c r="D116" s="5" t="inlineStr">
         <is>
-          <t>ס********s</t>
+          <t>סוג ***s</t>
         </is>
       </c>
       <c r="E116" s="5" t="inlineStr">
@@ -3847,7 +3779,7 @@
       </c>
       <c r="D119" s="5" t="inlineStr">
         <is>
-          <t>א*** *****k</t>
+          <t>אדיב ***k</t>
         </is>
       </c>
       <c r="E119" s="5" t="inlineStr">
@@ -3931,7 +3863,7 @@
       </c>
       <c r="D122" s="5" t="inlineStr">
         <is>
-          <t>ש********t</t>
+          <t>שם ****t</t>
         </is>
       </c>
       <c r="E122" s="5" t="inlineStr">
@@ -4071,7 +4003,7 @@
       </c>
       <c r="D127" s="5" t="inlineStr">
         <is>
-          <t>ב******ק *****e</t>
+          <t>בדיוק *****e</t>
         </is>
       </c>
       <c r="E127" s="5" t="inlineStr">
@@ -4099,7 +4031,7 @@
       </c>
       <c r="D128" s="5" t="inlineStr">
         <is>
-          <t>ב********ק *****p</t>
+          <t>בדיוק *****p</t>
         </is>
       </c>
       <c r="E128" s="5" t="inlineStr">
@@ -4183,7 +4115,7 @@
       </c>
       <c r="D131" s="5" t="inlineStr">
         <is>
-          <t>ג***** *****f</t>
+          <t>גורם *****f</t>
         </is>
       </c>
       <c r="E131" s="5" t="inlineStr">
@@ -4211,7 +4143,7 @@
       </c>
       <c r="D132" s="5" t="inlineStr">
         <is>
-          <t>ג**** *****c</t>
+          <t>גורם *****c</t>
         </is>
       </c>
       <c r="E132" s="5" t="inlineStr">
@@ -4239,7 +4171,7 @@
       </c>
       <c r="D133" s="5" t="inlineStr">
         <is>
-          <t>גורם fXXXXX; cXXXXX</t>
+          <t>גורם f; c</t>
         </is>
       </c>
       <c r="E133" s="5" t="inlineStr">
@@ -4379,7 +4311,7 @@
       </c>
       <c r="D138" s="5" t="inlineStr">
         <is>
-          <t>ללא מאמץ ss*****************</t>
+          <t>ללא מאמץ ss*****</t>
         </is>
       </c>
       <c r="E138" s="5" t="inlineStr">
@@ -4491,7 +4423,7 @@
       </c>
       <c r="D142" s="5" t="inlineStr">
         <is>
-          <t>ק*********f</t>
+          <t>קרב ****f</t>
         </is>
       </c>
       <c r="E142" s="5" t="inlineStr">
@@ -4519,7 +4451,7 @@
       </c>
       <c r="D143" s="5" t="inlineStr">
         <is>
-          <t>א*******o</t>
+          <t>אחד **o</t>
         </is>
       </c>
       <c r="E143" s="5" t="inlineStr">
@@ -4603,7 +4535,7 @@
       </c>
       <c r="D146" s="5" t="inlineStr">
         <is>
-          <t>מ*** *****m</t>
+          <t>מהלך ***m</t>
         </is>
       </c>
       <c r="E146" s="5" t="inlineStr">
@@ -4631,7 +4563,7 @@
       </c>
       <c r="D147" s="5" t="inlineStr">
         <is>
-          <t>ת*******ה t*********</t>
+          <t>תנועה m*****t</t>
         </is>
       </c>
       <c r="E147" s="5" t="inlineStr">
@@ -4659,7 +4591,7 @@
       </c>
       <c r="D148" s="5" t="inlineStr">
         <is>
-          <t>ת*****ה n*****</t>
+          <t>תנועה m*****n</t>
         </is>
       </c>
       <c r="E148" s="5" t="inlineStr">
@@ -4687,7 +4619,7 @@
       </c>
       <c r="D149" s="5" t="inlineStr">
         <is>
-          <t>תנועה XXXXXt; XXXXXn</t>
+          <t>תנועה mXXXXXt; mXXXXXn</t>
         </is>
       </c>
       <c r="E149" s="5" t="inlineStr">
@@ -4771,7 +4703,7 @@
       </c>
       <c r="D152" s="5" t="inlineStr">
         <is>
-          <t>א****** *****p</t>
+          <t>אולי *****p</t>
         </is>
       </c>
       <c r="E152" s="5" t="inlineStr">
@@ -4799,7 +4731,7 @@
       </c>
       <c r="D153" s="5" t="inlineStr">
         <is>
-          <t>א**** *****m</t>
+          <t>אולי ****m</t>
         </is>
       </c>
       <c r="E153" s="5" t="inlineStr">
@@ -4827,7 +4759,7 @@
       </c>
       <c r="D154" s="5" t="inlineStr">
         <is>
-          <t>אולי pXXXXX; mXXXXX</t>
+          <t>אולי p; m</t>
         </is>
       </c>
       <c r="E154" s="5" t="inlineStr">
@@ -4911,7 +4843,7 @@
       </c>
       <c r="D157" s="5" t="inlineStr">
         <is>
-          <t>ח********p</t>
+          <t>חלק ***p</t>
         </is>
       </c>
       <c r="E157" s="5" t="inlineStr">
@@ -5023,7 +4955,7 @@
       </c>
       <c r="D161" s="5" t="inlineStr">
         <is>
-          <t>א**********p</t>
+          <t>איש *****p</t>
         </is>
       </c>
       <c r="E161" s="5" t="inlineStr">
@@ -5163,7 +5095,7 @@
       </c>
       <c r="D166" s="5" t="inlineStr">
         <is>
-          <t>א*******m</t>
+          <t>איש **m</t>
         </is>
       </c>
       <c r="E166" s="5" t="inlineStr">
@@ -5191,7 +5123,7 @@
       </c>
       <c r="D167" s="5" t="inlineStr">
         <is>
-          <t>אישה XXXXXn; XXXXXe</t>
+          <t>אישה wXXXn; wXXe</t>
         </is>
       </c>
       <c r="E167" s="5" t="inlineStr">
